--- a/RT_radpat_40deg.xlsx
+++ b/RT_radpat_40deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-33.5129545788099</v>
+        <v>-160.8252455822533</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-33.57069997478693</v>
+        <v>-160.1643626291379</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-33.64409031769031</v>
+        <v>-159.5028241669127</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-33.73423250533448</v>
+        <v>-158.8506460663855</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-33.842254993777</v>
+        <v>-158.2149089300186</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-33.96929085644938</v>
+        <v>-157.6004584391108</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-34.1164662212077</v>
+        <v>-157.0105141408348</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-34.28485685657142</v>
+        <v>-156.4471430454783</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-34.47544726644355</v>
+        <v>-155.9116479578654</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-34.68904880712994</v>
+        <v>-155.4048010852513</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-34.92619372496168</v>
+        <v>-154.9270625202483</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-35.18698345505688</v>
+        <v>-154.4786975358355</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-35.47086330646955</v>
+        <v>-154.0598816892161</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-35.77631138586057</v>
+        <v>-153.6707657027108</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-36.10040738353295</v>
+        <v>-153.3115222132045</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-36.43828553950429</v>
+        <v>-152.9823836588558</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-36.78243786931448</v>
+        <v>-152.6836684197367</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-37.12197033748514</v>
+        <v>-152.4158024143188</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-37.44197887604585</v>
+        <v>-152.1793399122894</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-37.72337142298237</v>
+        <v>-151.9749817160477</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-37.94372019711122</v>
+        <v>-151.8035881451522</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-38.07961857695165</v>
+        <v>-151.6662080012631</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-38.11064225843489</v>
+        <v>-151.5640994550188</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-38.02403547809421</v>
+        <v>-151.4987573884561</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-37.81825150588941</v>
+        <v>-151.4719481462586</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-37.50358859242241</v>
+        <v>-151.4857514499885</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-37.09956825638856</v>
+        <v>-151.5426190499183</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-36.63042931579997</v>
+        <v>-151.6454310302867</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-36.12074739684031</v>
+        <v>-151.7975827146477</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-35.59245518686692</v>
+        <v>-152.0030826400887</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-35.06351505413895</v>
+        <v>-152.266679281266</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-34.54777954005961</v>
+        <v>-152.5940157667735</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-34.05551258837514</v>
+        <v>-152.9917980982277</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-33.59414042280068</v>
+        <v>-153.4680040652975</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-33.16898296162107</v>
+        <v>-154.0320477214058</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-32.78386843304267</v>
+        <v>-154.6948163660442</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-32.44163115387213</v>
+        <v>-155.4682929086232</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-32.14446941373531</v>
+        <v>-156.3639992392386</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-31.89422468699381</v>
+        <v>-157.3884256227047</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-31.69257901777092</v>
+        <v>-158.530912713744</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-31.54118960490643</v>
+        <v>-159.7346737866909</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-31.44181681180293</v>
+        <v>-160.8410293177575</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-31.39638529057331</v>
+        <v>-161.541351641385</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-31.40705330086833</v>
+        <v>-161.5005845633538</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-31.47624551832785</v>
+        <v>-160.6905520386121</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-31.60665406166516</v>
+        <v>-159.4258826847178</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-31.80120487253167</v>
+        <v>-158.0345987696378</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-32.062935743843</v>
+        <v>-156.6965779004732</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-32.39473716902529</v>
+        <v>-155.4806924477865</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-32.79883447318668</v>
+        <v>-154.4037493966721</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-33.27580997963897</v>
+        <v>-153.4628105101752</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-33.82282917174555</v>
+        <v>-152.648982907383</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-34.43052371612737</v>
+        <v>-151.952717405922</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-35.07789188680198</v>
+        <v>-151.3656816903657</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-35.72502847742296</v>
+        <v>-150.8812916021243</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-36.30580987753102</v>
+        <v>-150.4947820558413</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-36.72829127143297</v>
+        <v>-150.2031290273183</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-36.89589689262673</v>
+        <v>-150.0049671130325</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-36.7514114199537</v>
+        <v>-149.9005561459082</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-36.31250464230628</v>
+        <v>-149.8918026322192</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-35.66101467500138</v>
+        <v>-149.9823889238316</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-34.89819326366106</v>
+        <v>-150.1779895119224</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-34.10862658597322</v>
+        <v>-150.4866238447406</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-33.34929225966111</v>
+        <v>-150.9191526728283</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-32.65384617017607</v>
+        <v>-151.489934389476</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-32.04050449596466</v>
+        <v>-152.2175468344936</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-31.51852649690764</v>
+        <v>-153.1251945265994</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-31.09246857771367</v>
+        <v>-154.2392884876429</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-30.76473426208729</v>
+        <v>-155.5810641247919</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-30.53705949959949</v>
+        <v>-157.1340587773942</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-30.41135485446904</v>
+        <v>-158.7403411951595</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-30.39021101662307</v>
+        <v>-159.8904850817908</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-30.47719908230517</v>
+        <v>-159.8262176465213</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-30.6770195649557</v>
+        <v>-158.5294916000711</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-30.99548055077812</v>
+        <v>-156.7547948564824</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-31.4391458189646</v>
+        <v>-155.028963061183</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-32.01424952959249</v>
+        <v>-153.5207106629146</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-32.72396610266796</v>
+        <v>-152.2517637911326</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-33.56204931027761</v>
+        <v>-151.2044083113627</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-34.49898468962829</v>
+        <v>-150.3555219575076</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-35.45567813092089</v>
+        <v>-149.6855258510691</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-36.26910123489453</v>
+        <v>-149.1800458242592</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-36.69710402376244</v>
+        <v>-148.8297250530658</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-36.54849062593829</v>
+        <v>-148.6297732116685</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-35.86088840628663</v>
+        <v>-148.5796535909859</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-34.86313834540793</v>
+        <v>-148.6830905717284</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-33.78488724223142</v>
+        <v>-148.9484166052</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-32.76618504869889</v>
+        <v>-149.3893490168523</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-31.87230035032051</v>
+        <v>-150.0262182028011</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-31.12801888926858</v>
+        <v>-150.8875362559882</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-30.54026444422452</v>
+        <v>-152.0109230797548</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-30.10950187360167</v>
+        <v>-153.4386864498199</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-29.83500436676776</v>
+        <v>-155.1875649364341</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-29.7172269667533</v>
+        <v>-157.1139594042303</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-29.75893734524747</v>
+        <v>-158.5284575705122</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-29.96577446968049</v>
+        <v>-158.2539162151701</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-30.3464744676699</v>
+        <v>-156.4721686491058</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-30.91253233314669</v>
+        <v>-154.3734125688954</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-31.676317873431</v>
+        <v>-152.5120557753957</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-32.64481453200455</v>
+        <v>-150.9843696844286</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-33.80133694143698</v>
+        <v>-149.7670062383314</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-35.05824098041523</v>
+        <v>-148.821339994019</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-36.16566080083035</v>
+        <v>-148.1158180771842</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-36.67408734386755</v>
+        <v>-147.6288679325652</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-36.25856012845946</v>
+        <v>-147.348017135255</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-35.13806135404989</v>
+        <v>-147.268858787744</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-33.78308732825167</v>
+        <v>-147.3946394454477</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-32.49840793365011</v>
+        <v>-147.7366402841894</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-31.40427776729947</v>
+        <v>-148.3154618605119</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-30.53279027272503</v>
+        <v>-149.1631050105017</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-29.88550972004305</v>
+        <v>-150.3248288796447</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-29.45694474066469</v>
+        <v>-151.854668567611</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-29.24311979694705</v>
+        <v>-153.773763514202</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-29.24474500911457</v>
+        <v>-155.8584272629023</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-29.4686566765074</v>
+        <v>-157.0559440410337</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-29.92882029173683</v>
+        <v>-156.0879559755133</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-30.6469922970198</v>
+        <v>-153.8810447396037</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-31.65157830509174</v>
+        <v>-151.709061370155</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-32.9682843541658</v>
+        <v>-149.9212399448242</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-34.57877709941891</v>
+        <v>-148.5243883696959</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-36.27504834022133</v>
+        <v>-147.4695244865371</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-37.36531922964767</v>
+        <v>-146.7133866680663</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-36.9765523544899</v>
+        <v>-146.2270609821651</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-35.4139450599133</v>
+        <v>-145.9951222635209</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-33.61866505272168</v>
+        <v>-146.0141728833477</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-32.04889251599126</v>
+        <v>-146.2925005834079</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-30.80770858552546</v>
+        <v>-146.851154680698</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-29.89131246838273</v>
+        <v>-147.7263684685877</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-29.27771554423587</v>
+        <v>-148.9716990283752</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-28.95008113698948</v>
+        <v>-150.6496481868148</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-28.9022250388012</v>
+        <v>-152.7566835679383</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-29.14031956308146</v>
+        <v>-154.8419406990467</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-29.68473005532032</v>
+        <v>-155.3196213373349</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-30.57311072740043</v>
+        <v>-153.513281782199</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-31.86372664992904</v>
+        <v>-151.1082332309813</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-33.62876404387401</v>
+        <v>-149.0372239182105</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-35.87504164692119</v>
+        <v>-147.4270409509095</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-38.09924412757219</v>
+        <v>-146.230617808014</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-38.48558787759951</v>
+        <v>-145.3926450569478</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-36.49719513094238</v>
+        <v>-144.8753221017448</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-34.07370647595686</v>
+        <v>-144.6591382559861</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-32.083106023752</v>
+        <v>-144.7411468636895</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-30.60083350812424</v>
+        <v>-145.1347763430236</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-29.56542780670582</v>
+        <v>-145.8718774891888</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-28.92100995840003</v>
+        <v>-147.0064436221678</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-28.63545746143171</v>
+        <v>-148.6138419324665</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-28.70013331044682</v>
+        <v>-150.7444270616393</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-29.13013352898413</v>
+        <v>-153.1039136278526</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-29.96922415792011</v>
+        <v>-154.0799920404789</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-31.3027921808566</v>
+        <v>-152.336856146763</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-33.28342105148133</v>
+        <v>-149.7511038839712</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-36.15306965254587</v>
+        <v>-147.5481901634409</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-39.88259407300575</v>
+        <v>-145.8778097080753</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-41.04400511253662</v>
+        <v>-144.676697194176</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-37.5007753709528</v>
+        <v>-143.8792285131588</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-34.14895665814142</v>
+        <v>-143.4444044377518</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-31.78842662626722</v>
+        <v>-143.3550556750699</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-30.1811633549469</v>
+        <v>-143.6158960068266</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-29.14655458510312</v>
+        <v>-144.2545358467463</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-28.5872638632565</v>
+        <v>-145.3257167032676</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-28.46118657404772</v>
+        <v>-146.9141025381518</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-28.76811346372578</v>
+        <v>-149.0978007227231</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-29.55095245472755</v>
+        <v>-151.6256105693753</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-30.91505401752401</v>
+        <v>-152.7179042666398</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-33.08685564096076</v>
+        <v>-150.776564571179</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-36.59585117697527</v>
+        <v>-148.0294498092514</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-42.84534799949448</v>
+        <v>-145.7744770764158</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-45.48183178544559</v>
+        <v>-144.1152374552828</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-38.05611666260397</v>
+        <v>-142.9667293864837</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-33.85377589418613</v>
+        <v>-142.257403390194</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-31.30507324338628</v>
+        <v>-141.9480989866254</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-29.70398236949272</v>
+        <v>-142.0291025789381</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-28.77069040929836</v>
+        <v>-142.5189978291318</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-28.38685019852429</v>
+        <v>-143.4684079690546</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-28.51731053756142</v>
+        <v>-144.966685787668</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-29.19097163250243</v>
+        <v>-147.1255960633403</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-30.51662635880951</v>
+        <v>-149.8293663121659</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-32.75710564675684</v>
+        <v>-151.3964909459845</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-36.61457094667043</v>
+        <v>-149.5042663603712</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-45.0995169198362</v>
+        <v>-146.5483576137368</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-47.04933984340855</v>
+        <v>-144.1565464443137</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-37.13588113740249</v>
+        <v>-142.4347015701945</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-32.89135482085232</v>
+        <v>-141.2757961824513</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-30.44054374460807</v>
+        <v>-140.5981925002235</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-28.98623840659695</v>
+        <v>-140.3615383901924</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-28.25076623434785</v>
+        <v>-140.5619417694099</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-28.13582557153394</v>
+        <v>-141.2317498668698</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-28.64410781298536</v>
+        <v>-142.4465022642913</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-29.87877617551196</v>
+        <v>-144.3313555880386</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-32.11638103763784</v>
+        <v>-146.9776521250357</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-36.08414797244041</v>
+        <v>-149.5859620224451</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-43.57516153690177</v>
+        <v>-148.9052019540662</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-40.51239566019042</v>
+        <v>-145.7639012149543</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-33.99576734449559</v>
+        <v>-142.9982835031971</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-30.39254329603455</v>
+        <v>-141.0028281302274</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-28.21617035816484</v>
+        <v>-139.6572717689989</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-26.94915390298342</v>
+        <v>-138.854458324628</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-26.3984711391758</v>
+        <v>-138.5396601874141</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-26.51859082896127</v>
+        <v>-138.7037988382291</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-27.3792880852639</v>
+        <v>-139.3821371819377</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-29.22342497771056</v>
+        <v>-140.6633879026547</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-32.75429197729634</v>
+        <v>-142.7005054947875</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-41.17079392473526</v>
+        <v>-145.5934328394706</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-42.60469262781715</v>
+        <v>-148.0734645109349</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-32.27941999323499</v>
+        <v>-146.3742671170591</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-27.79230239099493</v>
+        <v>-142.9306946875481</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-25.1192963689631</v>
+        <v>-140.2198208970952</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-23.46042557354978</v>
+        <v>-138.3355333071772</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-22.53830438627678</v>
+        <v>-137.1160897692224</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-22.25568620187876</v>
+        <v>-136.4580163826664</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-22.61630058823168</v>
+        <v>-136.3201143611499</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-23.7191180058343</v>
+        <v>-136.7146132828564</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-25.79493544577099</v>
+        <v>-137.7117952724273</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-29.15711497631908</v>
+        <v>-139.4592447636802</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-31.89986942114056</v>
+        <v>-142.1687810114463</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-28.32013560911015</v>
+        <v>-145.4129610426933</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-24.04744626382448</v>
+        <v>-145.0561239333124</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-21.05020752645072</v>
+        <v>-141.2903929196019</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-19.00864553263664</v>
+        <v>-138.1270796803657</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-17.67644961276151</v>
+        <v>-135.9272417307972</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-16.93004633590879</v>
+        <v>-134.483187409601</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-16.72002162740964</v>
+        <v>-133.657531569127</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-17.04490641882046</v>
+        <v>-133.3933069885562</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-17.92833868134359</v>
+        <v>-133.6990113416971</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-19.34047223847806</v>
+        <v>-134.6534276791403</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-20.84860380324458</v>
+        <v>-136.4352086007258</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-20.98424167189361</v>
+        <v>-139.3376961776213</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-18.9905877994411</v>
+        <v>-142.8706132829011</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-16.3956826098803</v>
+        <v>-141.601418684276</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-14.16906636296061</v>
+        <v>-137.2338615722639</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-12.47571566788699</v>
+        <v>-133.9152862391238</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-11.28739876090427</v>
+        <v>-131.6401285991116</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-10.56339696698594</v>
+        <v>-130.1394891953794</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-10.28166886798619</v>
+        <v>-129.2711854063312</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-10.43779954379363</v>
+        <v>-128.9882049748972</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-11.02677388348078</v>
+        <v>-129.3225767070283</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-11.97585355160161</v>
+        <v>-130.4045739059855</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-12.93475310316373</v>
+        <v>-132.5335757790471</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-13.01075485300835</v>
+        <v>-136.2119314483494</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-11.56932447693984</v>
+        <v>-138.8234538505882</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-9.32362171804723</v>
+        <v>-133.6719157076996</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-7.109377010211499</v>
+        <v>-128.823667662226</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-5.22133179094461</v>
+        <v>-125.3851600068822</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-3.699475286483055</v>
+        <v>-122.8402794978325</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-2.519860568131404</v>
+        <v>-120.8981302786046</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-1.651779790226205</v>
+        <v>-119.4031785930242</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.071136251366702</v>
+        <v>-118.266420791165</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.7625682033209678</v>
+        <v>-117.4343419031512</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.7192257917349986</v>
+        <v>-116.8743698859819</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.9425492119594008</v>
+        <v>-116.5676663225764</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.442733218695348</v>
+        <v>-116.5055259202625</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-2.240228110517482</v>
+        <v>-116.6878267721029</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-3.368674052794145</v>
+        <v>-117.1229357449389</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-4.879681706534329</v>
+        <v>-117.8290336667629</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-6.848690861301225</v>
+        <v>-118.8373618209332</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-9.371699058254414</v>
+        <v>-120.198772186927</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-12.48053038787126</v>
+        <v>-121.9969128087401</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-15.59657579736799</v>
+        <v>-124.3763584490549</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-16.57475551445153</v>
+        <v>-127.6067687454867</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-15.19275924974243</v>
+        <v>-132.2064504764702</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-13.71234810093903</v>
+        <v>-138.0154187032964</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-12.91036922619589</v>
+        <v>-136.5755519805204</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-12.84669201592881</v>
+        <v>-132.5078338553046</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-13.52446673825521</v>
+        <v>-130.1608848109132</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-15.03415185003352</v>
+        <v>-128.9989166584872</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-17.65485403008574</v>
+        <v>-128.6769554084444</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-22.15144704280513</v>
+        <v>-129.0573308782492</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-29.88751574285511</v>
+        <v>-130.1254806030471</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-25.90140498492375</v>
+        <v>-131.9762922336899</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-20.39285336580258</v>
+        <v>-134.8532573228704</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-17.52452191586232</v>
+        <v>-139.123209300173</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-16.04445605917603</v>
+        <v>-142.7995678070115</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-15.50492556863811</v>
+        <v>-139.7541340828644</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-15.7501570859814</v>
+        <v>-136.2591900088968</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-16.77172423820871</v>
+        <v>-134.1639547892194</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-18.68452535564863</v>
+        <v>-133.1051407664773</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-21.72420634133559</v>
+        <v>-132.8508070084616</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-25.64894737678964</v>
+        <v>-133.3175369423949</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-25.98394910079088</v>
+        <v>-134.5319276855174</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-22.44327576953439</v>
+        <v>-136.6389962005032</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-19.7114073046975</v>
+        <v>-139.9277460027826</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-18.11957710645244</v>
+        <v>-144.2100519080923</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-17.4271816409915</v>
+        <v>-144.3284880892843</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-17.50516265065011</v>
+        <v>-140.5333486573695</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-18.33085685838575</v>
+        <v>-137.7912123499615</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-19.96560530401353</v>
+        <v>-136.2279761250176</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-22.48626162973398</v>
+        <v>-135.5632481105962</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-25.37890015495283</v>
+        <v>-135.6626470685941</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-25.76032247436731</v>
+        <v>-136.5110080061164</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-23.24123164423715</v>
+        <v>-138.204861123203</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-20.89520592780332</v>
+        <v>-140.9753247207809</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-19.43066153606792</v>
+        <v>-144.9554650853776</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-18.78412985721004</v>
+        <v>-146.9620530202491</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-18.87798492622269</v>
+        <v>-143.5925345529581</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-19.70019370479695</v>
+        <v>-140.4644897979573</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-21.29154127269305</v>
+        <v>-138.5753112432767</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-23.6287868746763</v>
+        <v>-137.6569100351678</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-25.93741782788732</v>
+        <v>-137.5430823856736</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-25.83112476382773</v>
+        <v>-138.1940803207144</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-23.63314442034237</v>
+        <v>-139.682976043277</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-21.61993594385568</v>
+        <v>-142.2128039208756</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-20.37474963003416</v>
+        <v>-145.967907922521</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-19.89127982750725</v>
+        <v>-148.5774702638276</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-20.12720299714566</v>
+        <v>-145.6345238818765</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-21.08354661409898</v>
+        <v>-142.3586405020705</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-22.77857983693245</v>
+        <v>-140.3230362827838</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-25.03372547157386</v>
+        <v>-139.2961061793193</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-26.64139831814582</v>
+        <v>-139.1010671637044</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-25.77505201167899</v>
+        <v>-139.6903989626854</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-23.70050332239367</v>
+        <v>-141.1329796005221</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-22.02328386495853</v>
+        <v>-143.6289351473437</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-21.07705698393905</v>
+        <v>-147.3487367264531</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-20.85669987751592</v>
+        <v>-149.8518218429554</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-21.34366465449203</v>
+        <v>-146.8663326794468</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-22.54711302157812</v>
+        <v>-143.6065022338831</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-24.42792216500328</v>
+        <v>-141.5888641907641</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-26.48964813879551</v>
+        <v>-140.5856181651931</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-27.05440389473311</v>
+        <v>-140.4262854662448</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-25.50082344541315</v>
+        <v>-141.0711365620158</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-23.60959427811404</v>
+        <v>-142.6014077154977</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-22.30218630943321</v>
+        <v>-145.2329601190088</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-21.7127641285306</v>
+        <v>-149.0510313558111</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-21.82975663754954</v>
+        <v>-150.8322165405819</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-22.64985797233285</v>
+        <v>-147.4700259201713</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-24.16590707250275</v>
+        <v>-144.3742421821143</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-26.16653872434244</v>
+        <v>-142.5177027744238</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-27.58141334716112</v>
+        <v>-141.6558135184974</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-26.90420409744817</v>
+        <v>-141.6404865817452</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-25.07120929055782</v>
+        <v>-142.455638665696</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-23.51781830897994</v>
+        <v>-144.214081150985</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-22.63664621522933</v>
+        <v>-147.1656865602003</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-22.46110987766719</v>
+        <v>-151.1056715634398</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-22.98545835122607</v>
+        <v>-151.3093715941621</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-24.21166393401785</v>
+        <v>-147.5812199800849</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-26.05114561555049</v>
+        <v>-144.7962217035738</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-27.87360677487686</v>
+        <v>-143.2189923562376</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-28.08439249853853</v>
+        <v>-142.6008930305731</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-26.53054488170502</v>
+        <v>-142.8312206025917</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-24.82578051822087</v>
+        <v>-143.9342289762685</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-23.70964840850788</v>
+        <v>-146.0791423650433</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-23.30003199885765</v>
+        <v>-149.5570274483858</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-23.59826919357364</v>
+        <v>-153.2311452538321</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-24.60800210815505</v>
+        <v>-151.1527315116114</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-26.292358325446</v>
+        <v>-147.453030164217</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-28.26081469367213</v>
+        <v>-145.0996811785072</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-29.11069602745538</v>
+        <v>-143.891607901682</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-27.91589675492277</v>
+        <v>-143.6115429328422</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-26.13733955820955</v>
+        <v>-144.2015260277407</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-24.84532530582672</v>
+        <v>-145.7495124844735</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-24.26356228066339</v>
+        <v>-148.5166224748394</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-24.40817772016417</v>
+        <v>-152.6593193183596</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-25.28743845231825</v>
+        <v>-154.077788163376</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-26.89833911751863</v>
+        <v>-150.1212812488874</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-28.98929353422433</v>
+        <v>-146.9887084049966</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-30.29994301182643</v>
+        <v>-145.209347543229</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-29.3569818806874</v>
+        <v>-144.4707723094845</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-27.45989106437284</v>
+        <v>-144.6319325850831</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-25.99041134088424</v>
+        <v>-145.7096258215579</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-25.2569200974965</v>
+        <v>-147.8850775854827</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-25.27604225973872</v>
+        <v>-151.4865849125004</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-26.04979168675374</v>
+        <v>-155.1530363669154</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-27.58478230373844</v>
+        <v>-152.5297236729004</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-29.70000953876</v>
+        <v>-148.7477179073453</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-31.27683146845169</v>
+        <v>-146.420559950883</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-30.56751921890856</v>
+        <v>-145.256032217184</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-28.63449826760866</v>
+        <v>-145.0338171699716</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-27.0685220502717</v>
+        <v>-145.704775767067</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-26.25625829935756</v>
+        <v>-147.3707904201981</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-26.22333892487121</v>
+        <v>-150.2904492725276</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-26.97783134876755</v>
+        <v>-154.2590826539054</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-28.55355361257348</v>
+        <v>-154.2423953791445</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-30.85215611613492</v>
+        <v>-150.3570771370564</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-32.79927059119566</v>
+        <v>-147.5463769670659</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-32.15212683293606</v>
+        <v>-145.9819915593122</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-29.98848516739929</v>
+        <v>-145.4048453562192</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-28.25091534874441</v>
+        <v>-145.7097475883604</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-27.34315455490109</v>
+        <v>-146.9315650716246</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-27.26367652057605</v>
+        <v>-149.2356413982017</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-28.01220447615344</v>
+        <v>-152.6797486486022</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-29.64062981834537</v>
+        <v>-154.6581307948602</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-32.12188634124244</v>
+        <v>-151.7078823426388</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-34.43016422968776</v>
+        <v>-148.5860528066689</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-33.80980138716922</v>
+        <v>-146.6539266947022</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-31.41175920051205</v>
+        <v>-145.737293596021</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-29.54441515468645</v>
+        <v>-145.6964272908621</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-28.5956450139414</v>
+        <v>-146.5152494849091</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-28.53315799447023</v>
+        <v>-148.2932250166991</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-29.35453907743502</v>
+        <v>-151.1678277123204</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-31.13631151317391</v>
+        <v>-154.230341895146</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-33.88839350573296</v>
+        <v>-153.2529817495214</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-36.30888551081047</v>
+        <v>-150.0280931150333</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-35.07437661369332</v>
+        <v>-147.6856675918409</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-32.33147436765623</v>
+        <v>-146.3965683856677</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-30.40212982020788</v>
+        <v>-146.0078429396069</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-29.47064294702933</v>
+        <v>-146.4605804288689</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-29.45366663191617</v>
+        <v>-147.8083673360134</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-30.34574366585555</v>
+        <v>-150.2077368690292</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-32.24905347967437</v>
+        <v>-153.5857146687112</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-35.25582312346261</v>
+        <v>-155.0944864611868</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-38.05831172316424</v>
+        <v>-152.2465980890279</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-36.61846661692203</v>
+        <v>-149.3953530297603</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-33.63077988946971</v>
+        <v>-147.6638856315231</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-31.64110023714465</v>
+        <v>-146.9180454898459</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-30.73011857796185</v>
+        <v>-147.0513726918122</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-30.78487831517527</v>
+        <v>-148.0813645605432</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-31.81531266321885</v>
+        <v>-150.1700136624953</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-34.00400990261195</v>
+        <v>-153.6038301254403</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-37.73104721977656</v>
+        <v>-157.3068009259908</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-41.83268864539647</v>
+        <v>-155.3497535145648</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-39.23048128613245</v>
+        <v>-151.6832914093313</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-35.42568064302901</v>
+        <v>-149.3763773806232</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-33.23405653563733</v>
+        <v>-148.2480814935434</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-32.30461190244117</v>
+        <v>-148.0925363760884</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-32.42271234045154</v>
+        <v>-148.8764300186327</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-33.59520881787895</v>
+        <v>-150.7472812461885</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-36.0915738430437</v>
+        <v>-154.1219665636256</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-40.75845578069755</v>
+        <v>-159.2097610369418</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-48.15320742185317</v>
+        <v>-158.5080149217855</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-42.57093574182899</v>
+        <v>-153.7553921930134</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-37.7591274688623</v>
+        <v>-150.8653561390213</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-35.44883827966496</v>
+        <v>-149.4003899640953</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-34.61404931881025</v>
+        <v>-149.0048840919131</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-34.95118894667618</v>
+        <v>-149.5851560141076</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-36.51146876583551</v>
+        <v>-151.2573802372164</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-39.79666767185581</v>
+        <v>-154.4462631647686</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-47.04340587963127</v>
+        <v>-159.956660178105</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-55.65921966154631</v>
+        <v>-160.9611163555488</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-42.81578785916571</v>
+        <v>-155.3037419567121</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-38.69929040558977</v>
+        <v>-151.944486489617</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-36.90030331222881</v>
+        <v>-150.2129199062359</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-36.48368062983585</v>
+        <v>-149.6192622272012</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-37.23741408124071</v>
+        <v>-150.0173940911976</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-39.28055941838262</v>
+        <v>-151.4853016290905</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-43.10487624761336</v>
+        <v>-154.3888062451291</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-48.52091832204653</v>
+        <v>-159.5266174922611</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-45.97950479094818</v>
+        <v>-161.9825507467307</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-41.58503538463552</v>
+        <v>-156.2412271362733</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-39.29331325359657</v>
+        <v>-152.5697557338706</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-38.48531738965566</v>
+        <v>-150.6149184563423</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-38.89207394781911</v>
+        <v>-149.8252093658687</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-40.53283915034044</v>
+        <v>-150.0139621274061</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-43.57906799399252</v>
+        <v>-151.2110834380362</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-46.92170193127643</v>
+        <v>-153.6746663435865</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-45.23925903146236</v>
+        <v>-157.9342401810453</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-41.83223628751517</v>
+        <v>-161.4019121604707</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-39.76863636780599</v>
+        <v>-156.8900442249166</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-39.00501974535484</v>
+        <v>-152.9937004660076</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-39.42689343688819</v>
+        <v>-150.774463359273</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-41.14378194440527</v>
+        <v>-149.7247233927284</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-44.50265096353063</v>
+        <v>-149.6207265325498</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-48.34419250298382</v>
+        <v>-150.4314178616025</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-45.49007165389553</v>
+        <v>-152.2856411425701</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-41.48916187540321</v>
+        <v>-155.4452075537039</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-39.19109123631307</v>
+        <v>-159.1029142333716</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-38.26363044519458</v>
+        <v>-157.5631221845855</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-38.55566822139132</v>
+        <v>-153.7455946590697</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-40.24707987090115</v>
+        <v>-151.1897673084233</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-44.21438443364108</v>
+        <v>-149.7950980149297</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-55.6171322667856</v>
+        <v>-149.3328266329938</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-48.45229126926825</v>
+        <v>-149.7229089909739</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-41.2009105406732</v>
+        <v>-151.0144427559561</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-37.82042469167065</v>
+        <v>-153.3764188369542</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-36.12893582341056</v>
+        <v>-156.8099620672868</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-35.59934752439779</v>
+        <v>-158.4832187109739</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-36.12292485196138</v>
+        <v>-155.4497895398812</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-37.85722184206364</v>
+        <v>-152.3923716578705</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-41.38609158816541</v>
+        <v>-150.489439817492</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-47.87234774038298</v>
+        <v>-149.5676514482784</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-45.93749604854308</v>
+        <v>-149.4921223347906</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-39.97193605892787</v>
+        <v>-150.2457936615898</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-36.76584375553193</v>
+        <v>-151.928976149533</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-35.14028109281148</v>
+        <v>-154.7418848385325</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-34.64131707528933</v>
+        <v>-158.3128534372584</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-35.15984675437657</v>
+        <v>-158.3667475283878</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-36.814657519585</v>
+        <v>-154.9311263753583</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-40.00872754133502</v>
+        <v>-152.2624661555524</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-44.88629164859664</v>
+        <v>-150.723626521574</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-43.87150076654095</v>
+        <v>-150.1161460579502</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-39.02747239240566</v>
+        <v>-150.3446589876262</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-36.04426949019927</v>
+        <v>-151.4392954526472</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-34.48329149512467</v>
+        <v>-153.5786686090092</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-33.99061816311889</v>
+        <v>-157.1184558044856</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-34.45499707311379</v>
+        <v>-161.3206806949958</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-35.91113466135663</v>
+        <v>-159.4678562633213</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-38.37739226729147</v>
+        <v>-155.5018699880887</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-40.69791183867293</v>
+        <v>-153.0179407609583</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-39.39583506001081</v>
+        <v>-151.7458018107495</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-36.31725824266257</v>
+        <v>-151.4318237735948</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-33.9943859189364</v>
+        <v>-152.0096999251303</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-32.63556463776473</v>
+        <v>-153.5860456284264</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-32.1190774850341</v>
+        <v>-156.5428879526926</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-32.3663706069287</v>
+        <v>-161.9010872665251</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-33.33178586699014</v>
+        <v>-166.5278135026062</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-34.86004967048719</v>
+        <v>-159.9557337203888</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-36.22437598362407</v>
+        <v>-155.8921589588364</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-35.9834102450633</v>
+        <v>-153.7806883057883</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-34.25736005899067</v>
+        <v>-152.8946957794148</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-32.47053303647271</v>
+        <v>-152.9963192951993</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-31.24381474344173</v>
+        <v>-154.097114183233</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-30.68239205673225</v>
+        <v>-156.4816006362023</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-30.78778308936898</v>
+        <v>-161.1346194931209</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-31.55996308358122</v>
+        <v>-172.1679820087573</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-32.96674191847257</v>
+        <v>-164.102999917172</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-34.70967260591119</v>
+        <v>-157.9935628555558</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-35.66463504797363</v>
+        <v>-155.0403580303377</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-34.71465350158449</v>
+        <v>-153.5942279673705</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-32.88498628589227</v>
+        <v>-153.1998080645025</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-31.34652381432313</v>
+        <v>-153.7522328403983</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-30.42039805530665</v>
+        <v>-155.3722249999185</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-30.13269624771161</v>
+        <v>-158.5356895598476</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-30.46234087180098</v>
+        <v>-164.7249855063047</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-31.37046314466309</v>
+        <v>-168.0548590369468</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-32.71019121554526</v>
+        <v>-160.2417270501668</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-33.9602500694505</v>
+        <v>-156.2001822608221</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-34.14847584883888</v>
+        <v>-154.0426940748159</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-33.07930170452445</v>
+        <v>-153.0388198006189</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-31.68149687476384</v>
+        <v>-152.947601480921</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-30.61847480921462</v>
+        <v>-153.7436067712245</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-30.09256070117031</v>
+        <v>-155.5864108402921</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-30.13987197739218</v>
+        <v>-158.9296698835178</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-30.75227910632339</v>
+        <v>-164.2698449418427</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-31.86692906031308</v>
+        <v>-163.6929194176523</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-33.22107410602885</v>
+        <v>-158.3817494963452</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-34.09432819072043</v>
+        <v>-155.1051502671038</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-33.71905938205131</v>
+        <v>-153.2448858550328</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-32.47503913318763</v>
+        <v>-152.3671268432129</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-31.23252184896693</v>
+        <v>-152.303747966539</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-30.41117427848862</v>
+        <v>-153.0378921376676</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-30.11796152818431</v>
+        <v>-154.6886712258883</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-30.35665432953892</v>
+        <v>-157.5627399606169</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-31.07730375077732</v>
+        <v>-161.9471133223418</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-32.11021489784576</v>
+        <v>-163.3862137471035</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-33.00190313617293</v>
+        <v>-158.9600476891648</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-33.0730177901403</v>
+        <v>-155.5731514358814</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-32.19748083738421</v>
+        <v>-153.5544285435022</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-30.99399295209975</v>
+        <v>-152.520342871922</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-29.99561570042769</v>
+        <v>-152.2864351088679</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-29.41406785101663</v>
+        <v>-152.8086685542764</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-29.30126497543078</v>
+        <v>-154.1600829752581</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-29.64844874019112</v>
+        <v>-156.5597858607816</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-30.39442173284912</v>
+        <v>-160.3347794678315</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-31.36008525515398</v>
+        <v>-163.6464836062594</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-32.14117308648569</v>
+        <v>-160.544886608505</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-32.22619545733818</v>
+        <v>-156.7822358643423</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-31.55801837741792</v>
+        <v>-154.3934489916609</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-30.61423036775161</v>
+        <v>-153.0533932355866</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-29.83627757736021</v>
+        <v>-152.5313910906462</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-29.43133897543819</v>
+        <v>-152.7409675919426</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-29.46999188005043</v>
+        <v>-153.7055078797936</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-29.96254462184349</v>
+        <v>-155.5705849888005</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-30.86199644009968</v>
+        <v>-158.6568465405219</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-31.98363468615022</v>
+        <v>-163.0620894330875</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-32.8577269196801</v>
+        <v>-163.5986523662536</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-32.87247150543986</v>
+        <v>-159.2904658269775</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-32.01844138226591</v>
+        <v>-156.1343581969973</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-30.90095706925225</v>
+        <v>-154.2439740799032</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-29.99260675598384</v>
+        <v>-153.2745551315346</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-29.47839956913264</v>
+        <v>-153.0591812841066</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-29.40260966788248</v>
+        <v>-153.5573810845568</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-29.75180572129052</v>
+        <v>-154.8386406109534</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-30.45753643126037</v>
+        <v>-157.1281763034292</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-31.33466098544871</v>
+        <v>-160.9494175740093</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-31.99767039292414</v>
+        <v>-166.4716439891382</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-31.9978211625933</v>
+        <v>-164.5381555603208</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-31.30515220247219</v>
+        <v>-159.6003580719712</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-30.34532948123508</v>
+        <v>-156.6250655597122</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-29.51549621158237</v>
+        <v>-154.9392238823599</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-29.00930962760111</v>
+        <v>-154.1552730682018</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-28.89521401089137</v>
+        <v>-154.1208639532845</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-29.18730312617619</v>
+        <v>-154.8192957297034</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-29.86327464068007</v>
+        <v>-156.3622728558684</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-30.83212031565635</v>
+        <v>-159.0809335285351</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-31.84500284483055</v>
+        <v>-163.8736347280268</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-32.43715060627656</v>
+        <v>-170.963376626709</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-32.23198293018796</v>
+        <v>-164.8740595969379</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-31.41952840650525</v>
+        <v>-159.8348288259477</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-30.4935746875098</v>
+        <v>-157.0615051155472</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-29.78576859386875</v>
+        <v>-155.5303322492038</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-29.4299545679001</v>
+        <v>-154.8637778525707</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-29.46148387474459</v>
+        <v>-154.9277407374118</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-29.86857075491582</v>
+        <v>-155.7219778400137</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-30.58912410365393</v>
+        <v>-157.3813779611225</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-31.46008879512857</v>
+        <v>-160.2936026984157</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-32.15270218400349</v>
+        <v>-165.5849805376698</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-32.27366421563232</v>
+        <v>-173.0037772392349</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-31.74646631704015</v>
+        <v>-165.0225067988812</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-30.90664125913839</v>
+        <v>-160.104278219829</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-30.12501336950837</v>
+        <v>-157.3945416826529</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-29.60665670421872</v>
+        <v>-155.8712656861978</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-29.43243748536896</v>
+        <v>-155.1729284750896</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-29.62305682902327</v>
+        <v>-155.1677116729707</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-30.16232859312225</v>
+        <v>-155.8461289436884</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-30.97930130950259</v>
+        <v>-157.314672373366</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-31.88745902476747</v>
+        <v>-159.8785297812413</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-32.52710695261215</v>
+        <v>-164.3650337160662</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-32.52236299352765</v>
+        <v>-172.0808727573522</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-31.88073466794434</v>
+        <v>-166.9562823763385</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-30.98085718468661</v>
+        <v>-161.3056334450937</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-30.17243164407894</v>
+        <v>-158.182012019763</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-29.63195847664184</v>
+        <v>-156.3533865624606</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-29.42371820813542</v>
+        <v>-155.3722158435594</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-29.56103272286954</v>
+        <v>-155.0605286638354</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-30.02833477547971</v>
+        <v>-155.3641536402955</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-30.77082776946614</v>
+        <v>-156.3180273362575</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-31.65288319750158</v>
+        <v>-158.0678114163618</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-32.40574668552767</v>
+        <v>-160.9769674976129</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-32.6864267798114</v>
+        <v>-165.9572391360903</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-32.3629756539891</v>
+        <v>-171.786559893514</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-31.66820031194773</v>
+        <v>-165.5764793074144</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-30.94077278939894</v>
+        <v>-160.8707809567534</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-30.40160963800072</v>
+        <v>-158.1342521833244</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-30.1506031085918</v>
+        <v>-156.5069557350361</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-30.22106929868941</v>
+        <v>-155.6424585729227</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-30.60953951895901</v>
+        <v>-155.3966977899395</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-31.27335255037519</v>
+        <v>-155.7273785490677</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-32.09587829196203</v>
+        <v>-156.6700439932382</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-32.83222142796056</v>
+        <v>-158.3592322817238</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-33.13643362158755</v>
+        <v>-161.1232319443162</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-32.8180126810007</v>
+        <v>-165.790803628404</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-32.05732482436204</v>
+        <v>-172.5945603433667</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-31.19553001021583</v>
+        <v>-167.2403630212252</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-30.4748166891921</v>
+        <v>-162.0748186470022</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-30.00854547468504</v>
+        <v>-159.0950455326265</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-29.83656846534267</v>
+        <v>-157.2941640965656</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-29.96399916836674</v>
+        <v>-156.2713699265443</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-30.37326143175223</v>
+        <v>-155.8562441223236</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-31.01472192116898</v>
+        <v>-155.9850304297049</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-31.77722010263009</v>
+        <v>-156.6648765846802</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-32.45289682280668</v>
+        <v>-157.9783782621238</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-32.76910554985217</v>
+        <v>-160.1347251223379</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-32.57092425144587</v>
+        <v>-163.6450993119683</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-31.97655849649773</v>
+        <v>-169.8971506054729</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-31.2522002756685</v>
+        <v>-173.0072521801461</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-30.61448564179175</v>
+        <v>-165.5666464181519</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-30.18047076570158</v>
+        <v>-161.410753964474</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-29.99961883491078</v>
+        <v>-158.9451369372632</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-30.08588164699037</v>
+        <v>-157.4400959425381</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-30.4315276238154</v>
+        <v>-156.6053643916958</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-31.00428293506916</v>
+        <v>-156.3147002756485</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-31.72858775756064</v>
+        <v>-156.5239877063348</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-32.45571890332774</v>
+        <v>-157.2486598838726</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-32.95887372689658</v>
+        <v>-158.5719039065925</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-33.03127218997459</v>
+        <v>-160.6933927142564</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-32.65824983051689</v>
+        <v>-164.0892724531679</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-32.03023760765124</v>
+        <v>-170.0492867314885</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-31.37538957609145</v>
+        <v>-174.4320529131955</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-30.84769945640864</v>
+        <v>-166.8179254428381</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-30.52477703918097</v>
+        <v>-162.4290842577216</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-30.43788373209301</v>
+        <v>-159.8112137542216</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-30.59326219789316</v>
+        <v>-158.1696233400648</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-30.97947486841259</v>
+        <v>-157.1888830648997</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-31.56253816791335</v>
+        <v>-156.7267862840754</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-32.26950426123722</v>
+        <v>-156.7223772856513</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-32.96615918135034</v>
+        <v>-157.1662072206241</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-33.45892649588129</v>
+        <v>-158.0964315256023</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-33.57564686465973</v>
+        <v>-159.6167577069155</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-33.29747125033656</v>
+        <v>-161.9555795082431</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-32.77552663497981</v>
+        <v>-165.647613870434</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-32.20698990623348</v>
+        <v>-171.9804846699166</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-31.73765235827191</v>
+        <v>-173.5578597574717</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-31.44957035067441</v>
+        <v>-166.7617058390283</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-31.38288879044096</v>
+        <v>-162.8012427233355</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-31.55545022530892</v>
+        <v>-160.3588917227007</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-31.97239760529997</v>
+        <v>-158.7909574667801</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-32.62597806182328</v>
+        <v>-157.825246546278</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-33.48376042248555</v>
+        <v>-157.3330944120298</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-34.46012052760265</v>
+        <v>-157.2549603169957</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-35.37386537981536</v>
+        <v>-157.5742950390901</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-35.9467340835777</v>
+        <v>-158.3114021373133</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-35.95701813933256</v>
+        <v>-159.5318126649761</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-35.45689061550849</v>
+        <v>-161.37690717984</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-34.71434945361576</v>
+        <v>-164.1516480968278</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-33.98094608356388</v>
+        <v>-168.6010412546601</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-33.39991147204535</v>
+        <v>-175.9274165170174</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-33.03346418804006</v>
+        <v>-172.2764386618935</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-32.90279681927163</v>
+        <v>-166.4597415858678</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-33.01055794956268</v>
+        <v>-163.0880979406184</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-33.34865434216659</v>
+        <v>-160.9401629090311</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-33.8957527257588</v>
+        <v>-159.5328148907026</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-34.60474129359869</v>
+        <v>-158.6506391583836</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-35.37927670251648</v>
+        <v>-158.1868199968077</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-36.05056042641195</v>
+        <v>-158.0888453660721</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-36.40212595003885</v>
+        <v>-158.338105554597</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-36.29447517103682</v>
+        <v>-158.9437528077348</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-35.78725806647601</v>
+        <v>-159.9460229668426</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-35.08044560818912</v>
+        <v>-161.4316341190156</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-34.3657537386019</v>
+        <v>-163.5755459900977</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-33.76209702913803</v>
+        <v>-166.762167871916</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-33.32717023276813</v>
+        <v>-172.016101689324</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-33.08366971946817</v>
+        <v>-180.2446327947367</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-33.03681230591344</v>
+        <v>-173.0790415409451</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-33.18242080692578</v>
+        <v>-167.7851302679192</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-33.50842753101985</v>
+        <v>-164.75361206396</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-33.99125301577735</v>
+        <v>-162.8355130961248</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-34.58712850680692</v>
+        <v>-161.6138058707957</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-35.21953774908321</v>
+        <v>-160.909396938406</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-35.77106516507718</v>
+        <v>-160.6511640443827</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-36.10119272596964</v>
+        <v>-160.8550864852573</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-36.10481423305762</v>
+        <v>-161.7635900192252</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-35.73399423311479</v>
+        <v>-176.6855289982139</v>
       </c>
     </row>
     <row r="702">
@@ -6043,415 +6043,517 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-34.72840194617108</v>
+        <v>-174.4928462489966</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
         <v>2.449673470707948</v>
       </c>
-      <c r="B703" t="n">
-        <v>-35.30950433030554</v>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
         <v>2.453168012035634</v>
       </c>
-      <c r="B704" t="n">
-        <v>-35.17576264510887</v>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
         <v>2.45666255336332</v>
       </c>
-      <c r="B705" t="n">
-        <v>-35.93840840991621</v>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
         <v>2.460157094691006</v>
       </c>
-      <c r="B706" t="n">
-        <v>-34.58037264482856</v>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
         <v>2.463651636018692</v>
       </c>
-      <c r="B707" t="n">
-        <v>-34.49923095619793</v>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
         <v>2.467146177346378</v>
       </c>
-      <c r="B708" t="n">
-        <v>-34.60112009127901</v>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
         <v>2.470640718674064</v>
       </c>
-      <c r="B709" t="n">
-        <v>-36.25465131254959</v>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
         <v>2.47413526000175</v>
       </c>
-      <c r="B710" t="n">
-        <v>-36.0415483708523</v>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
         <v>2.477629801329436</v>
       </c>
-      <c r="B711" t="n">
-        <v>-35.79678738395966</v>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
         <v>2.481124342657123</v>
       </c>
-      <c r="B712" t="n">
-        <v>-35.4124327403118</v>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
         <v>2.484618883984809</v>
       </c>
-      <c r="B713" t="n">
-        <v>-34.94546772533455</v>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
         <v>2.488113425312495</v>
       </c>
-      <c r="B714" t="n">
-        <v>-32.68412151538014</v>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
         <v>2.491607966640181</v>
       </c>
-      <c r="B715" t="n">
-        <v>-32.79680789759266</v>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
         <v>2.495102507967867</v>
       </c>
-      <c r="B716" t="n">
-        <v>-33.05307651840496</v>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
         <v>2.498597049295553</v>
       </c>
-      <c r="B717" t="n">
-        <v>-33.38360672710232</v>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
         <v>2.502091590623239</v>
       </c>
-      <c r="B718" t="n">
-        <v>-32.57099164071474</v>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
         <v>2.505586131950925</v>
       </c>
-      <c r="B719" t="n">
-        <v>-32.48019245549642</v>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
         <v>2.509080673278612</v>
       </c>
-      <c r="B720" t="n">
-        <v>-33.76576272635289</v>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
         <v>2.512575214606298</v>
       </c>
-      <c r="B721" t="n">
-        <v>-32.66796283704576</v>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
         <v>2.516069755933983</v>
       </c>
-      <c r="B722" t="n">
-        <v>-32.66900855631345</v>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
         <v>2.519564297261669</v>
       </c>
-      <c r="B723" t="n">
-        <v>-34.46792764482515</v>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
         <v>2.523058838589356</v>
       </c>
-      <c r="B724" t="n">
-        <v>-33.17700716645321</v>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
         <v>2.526553379917042</v>
       </c>
-      <c r="B725" t="n">
-        <v>-34.70010397145636</v>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
         <v>2.530047921244728</v>
       </c>
-      <c r="B726" t="n">
-        <v>-35.04143945726197</v>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
         <v>2.533542462572414</v>
       </c>
-      <c r="B727" t="n">
-        <v>-33.22674253126034</v>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
         <v>2.5370370039001</v>
       </c>
-      <c r="B728" t="n">
-        <v>-35.05149377967</v>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
         <v>2.540531545227786</v>
       </c>
-      <c r="B729" t="n">
-        <v>-33.45099325175177</v>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
         <v>2.544026086555472</v>
       </c>
-      <c r="B730" t="n">
-        <v>-33.93805949561995</v>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
         <v>2.547520627883158</v>
       </c>
-      <c r="B731" t="n">
-        <v>-32.90062858755731</v>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
         <v>2.551015169210844</v>
       </c>
-      <c r="B732" t="n">
-        <v>-33.76543452483223</v>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
         <v>2.554509710538531</v>
       </c>
-      <c r="B733" t="n">
-        <v>-33.16421486555983</v>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
         <v>2.558004251866217</v>
       </c>
-      <c r="B734" t="n">
-        <v>-33.97482363321311</v>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
         <v>2.561498793193903</v>
       </c>
-      <c r="B735" t="n">
-        <v>-33.85544201853023</v>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
         <v>2.564993334521589</v>
       </c>
-      <c r="B736" t="n">
-        <v>-34.84584502935986</v>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
         <v>2.568487875849275</v>
       </c>
-      <c r="B737" t="n">
-        <v>-34.75592859245941</v>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
         <v>2.571982417176961</v>
       </c>
-      <c r="B738" t="n">
-        <v>-34.79306305111297</v>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
         <v>2.575476958504647</v>
       </c>
-      <c r="B739" t="n">
-        <v>-34.67994757789329</v>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
         <v>2.578971499832333</v>
       </c>
-      <c r="B740" t="n">
-        <v>-36.11025379916165</v>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
         <v>2.582466041160019</v>
       </c>
-      <c r="B741" t="n">
-        <v>-36.33032580229012</v>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
         <v>2.585960582487705</v>
       </c>
-      <c r="B742" t="n">
-        <v>-36.87170297319813</v>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
         <v>2.589455123815391</v>
       </c>
-      <c r="B743" t="n">
-        <v>-35.68220386147722</v>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
         <v>2.592949665143077</v>
       </c>
-      <c r="B744" t="n">
-        <v>-37.33723660716907</v>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
         <v>2.596444206470764</v>
       </c>
-      <c r="B745" t="n">
-        <v>-37.52980690703428</v>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
         <v>2.59993874779845</v>
       </c>
-      <c r="B746" t="n">
-        <v>-37.97928522771634</v>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
         <v>2.603433289126136</v>
       </c>
-      <c r="B747" t="n">
-        <v>-50.75645537140851</v>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
         <v>2.606927830453822</v>
       </c>
-      <c r="B748" t="n">
-        <v>-46.98036167005282</v>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
         <v>2.610422371781508</v>
       </c>
-      <c r="B749" t="n">
-        <v>-46.55768262866361</v>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
         <v>2.613916913109194</v>
       </c>
-      <c r="B750" t="n">
-        <v>-47.82978684219157</v>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
         <v>2.61741145443688</v>
       </c>
-      <c r="B751" t="n">
-        <v>-48.13052381804469</v>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
         <v>2.620905995764566</v>
       </c>
-      <c r="B752" t="n">
-        <v>-48.57023275836585</v>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
         <v>2.624400537092252</v>
       </c>
-      <c r="B753" t="n">
-        <v>-49.4392957751532</v>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="754">

--- a/RT_radpat_40deg.xlsx
+++ b/RT_radpat_40deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-160.8252455822533</v>
+        <v>-160.8238580948175</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-160.1643626291379</v>
+        <v>-160.1634165727005</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-159.5028241669127</v>
+        <v>-159.5021716037245</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-158.8506460663855</v>
+        <v>-158.8501744055042</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-158.2149089300186</v>
+        <v>-158.2145328456095</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-157.6004584391108</v>
+        <v>-157.6001102481037</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-157.0105141408348</v>
+        <v>-157.0101506461285</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-156.4471430454783</v>
+        <v>-156.4467263838662</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-155.9116479578654</v>
+        <v>-155.9111545189085</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-155.4048010852513</v>
+        <v>-155.4042159558051</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-154.9270625202483</v>
+        <v>-154.9263706603575</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-154.4786975358355</v>
+        <v>-154.4778914105222</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-154.0598816892161</v>
+        <v>-154.0589561867387</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-153.6707657027108</v>
+        <v>-153.6697142517887</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-153.3115222132045</v>
+        <v>-153.3103423417476</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-152.9823836588558</v>
+        <v>-152.9810743861618</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-152.6836684197367</v>
+        <v>-152.6822250772505</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-152.4158024143188</v>
+        <v>-152.4142236562942</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-152.1793399122894</v>
+        <v>-152.1776246256146</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-151.9749817160477</v>
+        <v>-151.9731242524324</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-151.8035881451522</v>
+        <v>-151.8015865623549</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-151.6662080012631</v>
+        <v>-151.6640580141093</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-151.5640994550188</v>
+        <v>-151.5617959104863</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-151.4987573884561</v>
+        <v>-151.4962934330735</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-151.4719481462586</v>
+        <v>-151.469315685065</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-151.4857514499885</v>
+        <v>-151.4829424348584</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-151.5426190499183</v>
+        <v>-151.539620122744</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-151.6454310302867</v>
+        <v>-151.6422286176389</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-151.7975827146477</v>
+        <v>-151.7941572402754</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-152.0030826400887</v>
+        <v>-151.9994146259764</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-152.266679281266</v>
+        <v>-152.2627430213674</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-152.5940157667735</v>
+        <v>-152.5897759350275</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-152.9917980982277</v>
+        <v>-152.9872163472627</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-153.4680040652975</v>
+        <v>-153.4630308729141</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-154.0320477214058</v>
+        <v>-154.0266143983075</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-154.6948163660442</v>
+        <v>-154.688846187877</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-155.4682929086232</v>
+        <v>-155.4616855556913</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-156.3639992392386</v>
+        <v>-156.3566410320961</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-157.3884256227047</v>
+        <v>-157.3801979990467</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-158.530912713744</v>
+        <v>-158.5217659306471</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-159.7346737866909</v>
+        <v>-159.7247829234224</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-160.8410293177575</v>
+        <v>-160.8311760378539</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-161.541351641385</v>
+        <v>-161.5332135454424</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-161.5005845633538</v>
+        <v>-161.4958648192513</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-160.6905520386121</v>
+        <v>-160.6892614247828</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-159.4258826847178</v>
+        <v>-159.4267091955322</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-158.0345987696378</v>
+        <v>-158.0363258536401</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-156.6965779004732</v>
+        <v>-156.6985122965293</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-155.4806924477865</v>
+        <v>-155.4825187765199</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-154.4037493966721</v>
+        <v>-154.405333699083</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-153.4628105101752</v>
+        <v>-153.4641059250642</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-152.648982907383</v>
+        <v>-152.6499806070757</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-151.952717405922</v>
+        <v>-151.953421427002</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-151.3656816903657</v>
+        <v>-151.3661021879949</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-150.8812916021243</v>
+        <v>-150.8814372954007</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-150.4947820558413</v>
+        <v>-150.4946616640905</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-150.2031290273183</v>
+        <v>-150.2027467914976</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-150.0049671130325</v>
+        <v>-150.0043262938423</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-149.9005561459082</v>
+        <v>-149.8996503727203</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-149.8918026322192</v>
+        <v>-149.890625686263</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-149.9823889238316</v>
+        <v>-149.9809269647489</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-150.1779895119224</v>
+        <v>-150.1762235824528</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-150.4866238447406</v>
+        <v>-150.484526113988</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-150.9191526728283</v>
+        <v>-150.9166859575554</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-151.489934389476</v>
+        <v>-151.4870499235362</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-152.2175468344936</v>
+        <v>-152.2141857078603</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-153.1251945265994</v>
+        <v>-153.1212793336589</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-154.2392884876429</v>
+        <v>-154.2347509622235</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-155.5810641247919</v>
+        <v>-155.5758877641845</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-157.1340587773942</v>
+        <v>-157.1284728894408</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-158.7403411951595</v>
+        <v>-158.7353486251447</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-159.8904850817908</v>
+        <v>-159.8884695516466</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-159.8262176465213</v>
+        <v>-159.8289250940728</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-158.5294916000711</v>
+        <v>-158.5350208567306</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-156.7547948564824</v>
+        <v>-156.7607308310212</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-155.028963061183</v>
+        <v>-155.0343412863689</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-153.5207106629146</v>
+        <v>-153.5253489134022</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-152.2517637911326</v>
+        <v>-152.2557124910034</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-151.2044083113627</v>
+        <v>-151.2077593787965</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-150.3555219575076</v>
+        <v>-150.3583640629887</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-149.6855258510691</v>
+        <v>-149.6879268895724</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-149.1800458242592</v>
+        <v>-149.1820577714693</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-148.8297250530658</v>
+        <v>-148.8313865992838</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-148.6297732116685</v>
+        <v>-148.6311112885651</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-148.5796535909859</v>
+        <v>-148.5806857625809</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-148.6830905717284</v>
+        <v>-148.683825412533</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-148.9484166052</v>
+        <v>-148.9488568951294</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-149.3893490168523</v>
+        <v>-149.3894912194021</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-150.0262182028011</v>
+        <v>-150.0260578121834</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-150.8875362559882</v>
+        <v>-150.8870744243575</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-152.0109230797548</v>
+        <v>-152.0101912435547</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-153.4386864498199</v>
+        <v>-153.437820485709</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-155.1875649364341</v>
+        <v>-155.1870394720255</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-157.1139594042303</v>
+        <v>-157.115174820288</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-158.5284575705122</v>
+        <v>-158.5340137440492</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-158.2539162151701</v>
+        <v>-158.2636025193775</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-156.4721686491058</v>
+        <v>-156.4819484610343</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-154.3734125688954</v>
+        <v>-154.3816282656641</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-152.5120557753957</v>
+        <v>-152.5188173130033</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-150.9843696844286</v>
+        <v>-150.9900411964722</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-149.7670062383314</v>
+        <v>-149.7718781672875</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-148.821339994019</v>
+        <v>-148.8256127832612</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-148.1158180771842</v>
+        <v>-148.1196300351831</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-147.6288679325652</v>
+        <v>-147.6323149475813</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-147.348017135255</v>
+        <v>-147.3511711431566</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-147.268858787744</v>
+        <v>-147.2717748551514</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-147.3946394454477</v>
+        <v>-147.3973637006308</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-147.7366402841894</v>
+        <v>-147.739221861929</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-148.3154618605119</v>
+        <v>-148.3179577661436</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-149.1631050105017</v>
+        <v>-149.1655991841569</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-150.3248288796447</v>
+        <v>-150.3274800192969</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-151.854668567611</v>
+        <v>-151.8578187684946</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-153.773763514202</v>
+        <v>-153.7782091231101</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-155.8584272629023</v>
+        <v>-155.8658568620001</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-157.0559440410337</v>
+        <v>-157.0674379986306</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-156.0879559755133</v>
+        <v>-156.099585979074</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-153.8810447396037</v>
+        <v>-153.8900646798573</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-151.709061370155</v>
+        <v>-151.7160115132278</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-149.9212399448242</v>
+        <v>-149.9269162387537</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-148.5243883696959</v>
+        <v>-148.5292798310871</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-147.4695244865371</v>
+        <v>-147.4739156076737</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-146.7133866680663</v>
+        <v>-146.717452453917</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-146.2270609821651</v>
+        <v>-146.2309195045955</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-145.9951222635209</v>
+        <v>-145.9988626670768</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-146.0141728833477</v>
+        <v>-146.017876427414</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-146.2925005834079</v>
+        <v>-146.2962468769979</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-146.851154680698</v>
+        <v>-146.8550473785528</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-147.7263684685877</v>
+        <v>-147.730559532225</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-148.9716990283752</v>
+        <v>-148.9764460797897</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-150.6496481868148</v>
+        <v>-150.6554361004182</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-152.7566835679383</v>
+        <v>-152.7644361907556</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-154.8419406990467</v>
+        <v>-154.85262358974</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-155.3196213373349</v>
+        <v>-155.3307034674764</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-153.513281782199</v>
+        <v>-153.5209509786482</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-151.1082332309813</v>
+        <v>-151.1133798377467</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-149.0372239182105</v>
+        <v>-149.0411745679597</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-147.4270409509095</v>
+        <v>-147.4304404210176</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-146.230617808014</v>
+        <v>-146.2337699559832</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-145.3926450569478</v>
+        <v>-145.3957102509573</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-144.8753221017448</v>
+        <v>-144.8784002637046</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-144.6591382559861</v>
+        <v>-144.6623113768593</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-144.7411468636895</v>
+        <v>-144.7444934474574</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-145.1347763430236</v>
+        <v>-145.1383934251812</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-145.8718774891888</v>
+        <v>-145.8759018610174</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-147.0064436221678</v>
+        <v>-147.0110921396352</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-148.6138419324665</v>
+        <v>-148.6194771793276</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-150.7444270616393</v>
+        <v>-150.7516263263683</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-153.1039136278526</v>
+        <v>-153.1128892090399</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-154.0799920404789</v>
+        <v>-154.08752583841</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-152.336856146763</v>
+        <v>-152.340128457852</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-149.7511038839712</v>
+        <v>-149.7524532406586</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-147.5481901634409</v>
+        <v>-147.549079098303</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-145.8778097080753</v>
+        <v>-145.8786994821688</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-144.676697194176</v>
+        <v>-144.677733477317</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-143.8792285131588</v>
+        <v>-143.8804674897764</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-143.4444044377518</v>
+        <v>-143.445882531489</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-143.3550556750699</v>
+        <v>-143.3568116533188</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-143.6158960068266</v>
+        <v>-143.6179859311524</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-144.2545358467463</v>
+        <v>-144.2570443787281</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-145.3257167032676</v>
+        <v>-145.3287747860031</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-146.9141025381518</v>
+        <v>-146.9179014274078</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-149.0978007227231</v>
+        <v>-149.1025049053258</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-151.6256105693753</v>
+        <v>-151.6304827771409</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-152.7179042666398</v>
+        <v>-152.7192070341064</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-150.776564571179</v>
+        <v>-150.7743665984337</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-148.0294498092514</v>
+        <v>-148.0269506769808</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-145.7744770764158</v>
+        <v>-145.7724680551763</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-144.1152374552828</v>
+        <v>-144.1137358501133</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-142.9667293864837</v>
+        <v>-142.9656593918617</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-142.257403390194</v>
+        <v>-142.2567012017598</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-141.9480989866254</v>
+        <v>-141.9477258485535</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-142.0291025789381</v>
+        <v>-142.0290437847718</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-142.5189978291318</v>
+        <v>-142.519255040603</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-143.4684079690546</v>
+        <v>-143.4689957782781</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-144.966685787668</v>
+        <v>-144.9676011370464</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-147.1255960633403</v>
+        <v>-147.1266612708887</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-149.8293663121659</v>
+        <v>-149.8294241130394</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-151.3964909459845</v>
+        <v>-151.3924609729027</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-149.5042663603712</v>
+        <v>-149.4984322421057</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-146.5483576137368</v>
+        <v>-146.5436903894849</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-144.1565464443137</v>
+        <v>-144.1529583757008</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-142.4347015701945</v>
+        <v>-142.4318310810918</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-141.2757961824513</v>
+        <v>-141.2734095952036</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-140.5981925002235</v>
+        <v>-140.5961476409967</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-140.3615383901924</v>
+        <v>-140.3597433385543</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-140.5619417694099</v>
+        <v>-140.5603259075105</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-141.2317498668698</v>
+        <v>-141.2302419158569</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-142.4465022642913</v>
+        <v>-142.4449904234594</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-144.3313555880386</v>
+        <v>-144.3295651600527</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-146.9776521250357</v>
+        <v>-146.9747169193552</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-149.5859620224451</v>
+        <v>-149.5797844430506</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-148.9052019540662</v>
+        <v>-148.89790934908</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-145.7639012149543</v>
+        <v>-145.7588495776898</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-142.9982835031971</v>
+        <v>-142.9946333565237</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-141.0028281302274</v>
+        <v>-140.9998884307079</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-139.6572717689989</v>
+        <v>-139.654713774038</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-138.854458324628</v>
+        <v>-138.8521090400793</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-138.5396601874141</v>
+        <v>-138.5374080941289</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-138.7037988382291</v>
+        <v>-138.7015492954235</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-139.3821371819377</v>
+        <v>-139.379778336928</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-140.6633879026547</v>
+        <v>-140.6607395279849</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-142.7005054947875</v>
+        <v>-142.6971821842413</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-145.5934328394706</v>
+        <v>-145.5885105772311</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-148.0734645109349</v>
+        <v>-148.066481566574</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-146.3742671170591</v>
+        <v>-146.3697097030712</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-142.9306946875481</v>
+        <v>-142.9282005936812</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-140.2198208970952</v>
+        <v>-140.2180060941709</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-138.3355333071772</v>
+        <v>-138.3339373374091</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-137.1160897692224</v>
+        <v>-137.1145442357536</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-136.4580163826664</v>
+        <v>-136.4564347874154</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-136.3201143611499</v>
+        <v>-136.3184291823706</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-136.7146132828564</v>
+        <v>-136.7127453528511</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-137.7117952724273</v>
+        <v>-137.7096220246029</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-139.4592447636802</v>
+        <v>-139.4565380213381</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-142.1687810114463</v>
+        <v>-142.1650991785296</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-145.4129610426933</v>
+        <v>-145.4083054392983</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-145.0561239333124</v>
+        <v>-145.0543474322209</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-141.2903929196019</v>
+        <v>-141.2903335948552</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-138.1270796803657</v>
+        <v>-138.1271299810099</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-135.9272417307972</v>
+        <v>-135.9271530231527</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-134.483187409601</v>
+        <v>-134.4829353501723</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-133.657531569127</v>
+        <v>-133.6571168530407</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-133.3933069885562</v>
+        <v>-133.3927220566223</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-133.6990113416971</v>
+        <v>-133.6982299535756</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-134.6534276791403</v>
+        <v>-134.6523948855255</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-136.4352086007258</v>
+        <v>-136.4338220795808</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-139.3376961776213</v>
+        <v>-139.3358500209148</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-142.8706132829011</v>
+        <v>-142.8693560743903</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-141.601418684276</v>
+        <v>-141.6030403749374</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-137.2338615722639</v>
+        <v>-137.2353661502632</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-133.9152862391238</v>
+        <v>-133.9163164073678</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-131.6401285991116</v>
+        <v>-131.6408369903081</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-130.1394891953794</v>
+        <v>-130.1399754929817</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-129.2711854063312</v>
+        <v>-129.2715050340116</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-128.9882049748972</v>
+        <v>-128.9883863166576</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-129.3225767070283</v>
+        <v>-129.3226325886618</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-130.4045739059855</v>
+        <v>-130.4045071273225</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-132.5335757790471</v>
+        <v>-132.5334050310976</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-136.2119314483494</v>
+        <v>-136.2119550816414</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-138.8234538505882</v>
+        <v>-138.8254757352355</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-133.6719157076996</v>
+        <v>-133.6734923031163</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-128.823667662226</v>
+        <v>-128.8245848981595</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-125.3851600068822</v>
+        <v>-125.385773123076</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-122.8402794978325</v>
+        <v>-122.8407227810734</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-120.8981302786046</v>
+        <v>-120.8984622360354</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-119.4031785930242</v>
+        <v>-119.4034290031145</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-118.266420791165</v>
+        <v>-118.2666066017126</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-117.4343419031512</v>
+        <v>-117.4344731057468</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-116.8743698859819</v>
+        <v>-116.8744525454471</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-116.5676663225764</v>
+        <v>-116.5677036988193</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-116.5055259202625</v>
+        <v>-116.5055192701634</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-116.6878267721029</v>
+        <v>-116.6877754658331</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-117.1229357449389</v>
+        <v>-117.1228371703397</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-117.8290336667629</v>
+        <v>-117.8288827150454</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-118.8373618209332</v>
+        <v>-118.8371497610978</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-120.198772186927</v>
+        <v>-120.1984844149317</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-121.9969128087401</v>
+        <v>-121.9965235750504</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-124.3763584490549</v>
+        <v>-124.3758183491092</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-127.6067687454867</v>
+        <v>-127.6059672095227</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-132.2064504764702</v>
+        <v>-132.2050895948031</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-138.0154187032964</v>
+        <v>-138.0132355142505</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-136.5755519805204</v>
+        <v>-136.5754220501393</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-132.5078338553046</v>
+        <v>-132.5080269429116</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-130.1608848109132</v>
+        <v>-130.1609710784536</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-128.9989166584872</v>
+        <v>-128.99887221557</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-128.6769554084444</v>
+        <v>-128.6767759943136</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-129.0573308782492</v>
+        <v>-129.0569996489604</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-130.1254806030471</v>
+        <v>-130.1249585277249</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-131.9762922336899</v>
+        <v>-131.9755028609109</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-134.8532573228704</v>
+        <v>-134.8520583208485</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-139.123209300173</v>
+        <v>-139.1215161386027</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-142.7995678070115</v>
+        <v>-142.7997750728395</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-139.7541340828644</v>
+        <v>-139.7561498040078</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-136.2591900088968</v>
+        <v>-136.2607055455321</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-134.1639547892194</v>
+        <v>-134.1650561473891</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-133.1051407664773</v>
+        <v>-133.1059622694118</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-132.8508070084616</v>
+        <v>-132.8514172981238</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-133.3175369423949</v>
+        <v>-133.317965692722</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-134.5319276855174</v>
+        <v>-134.5321852219437</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-136.6389962005032</v>
+        <v>-136.6391030881483</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-139.9277460027826</v>
+        <v>-139.9279140457452</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-144.2100519080923</v>
+        <v>-144.2120102543886</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-144.3284880892843</v>
+        <v>-144.3333409976327</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-140.5333486573695</v>
+        <v>-140.5367784167817</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-137.7912123499615</v>
+        <v>-137.7937050882532</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-136.2279761250176</v>
+        <v>-136.2300122276079</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-135.5632481105962</v>
+        <v>-135.5650489253572</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-135.6626470685941</v>
+        <v>-135.6643392688671</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-136.5110080061164</v>
+        <v>-136.5126998910475</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-138.204861123203</v>
+        <v>-138.2067177505659</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-140.9753247207809</v>
+        <v>-140.9777754325368</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-144.9554650853776</v>
+        <v>-144.9600211288879</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-146.9620530202491</v>
+        <v>-146.9690916998659</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-143.5925345529581</v>
+        <v>-143.5966857111935</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-140.4644897979573</v>
+        <v>-140.4672737799605</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-138.5753112432767</v>
+        <v>-138.5776519324349</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-137.6569100351678</v>
+        <v>-137.6591378956146</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-137.5430823856736</v>
+        <v>-137.5453733085733</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-138.1940803207144</v>
+        <v>-138.1965976828484</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-139.682976043277</v>
+        <v>-139.6859659443829</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-142.2128039208756</v>
+        <v>-142.2167835563028</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-145.967907922521</v>
+        <v>-145.9740387143676</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-148.5774702638276</v>
+        <v>-148.5839821570995</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-145.6345238818765</v>
+        <v>-145.6366757500349</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-142.3586405020705</v>
+        <v>-142.3597453229464</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-140.3230362827838</v>
+        <v>-140.3241047215843</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-139.2961061793193</v>
+        <v>-139.2973651816832</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-139.1010671637044</v>
+        <v>-139.1026223836025</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-139.6903989626854</v>
+        <v>-139.6923721065089</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-141.1329796005221</v>
+        <v>-141.1355757033968</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-143.6289351473437</v>
+        <v>-143.632526310224</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-147.3487367264531</v>
+        <v>-147.3535549526781</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-149.8518218429554</v>
+        <v>-149.8532943994358</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-146.8663326794468</v>
+        <v>-146.8640495703931</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-143.6065022338831</v>
+        <v>-143.6045709153903</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-141.5888641907641</v>
+        <v>-141.587561542376</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-140.5856181651931</v>
+        <v>-140.5848303452276</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-140.4262854662448</v>
+        <v>-140.4259418841668</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-141.0711365620158</v>
+        <v>-141.0712240270326</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-142.6014077154977</v>
+        <v>-142.6019486136809</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-145.2329601190088</v>
+        <v>-145.2338750176969</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-149.0510313558111</v>
+        <v>-149.0508698237059</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-150.8322165405819</v>
+        <v>-150.8259189925726</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-147.4700259201713</v>
+        <v>-147.4639026052501</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-144.3742421821143</v>
+        <v>-144.3698651369743</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-142.5177027744238</v>
+        <v>-142.5143107933731</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-141.6558135184974</v>
+        <v>-141.6529811016446</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-141.6404865817452</v>
+        <v>-141.6379756582914</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-142.455638665696</v>
+        <v>-142.4532632800023</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-144.214081150985</v>
+        <v>-144.2115596643384</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-147.1656865602003</v>
+        <v>-147.1621792466667</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-151.1056715634398</v>
+        <v>-151.0979505466845</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-151.3093715941621</v>
+        <v>-151.2991736877496</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-147.5812199800849</v>
+        <v>-147.574971059383</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-144.7962217035738</v>
+        <v>-144.7917034022798</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-143.2189923562376</v>
+        <v>-143.2151239672669</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-142.6008930305731</v>
+        <v>-142.5972219570036</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-142.8312206025917</v>
+        <v>-142.8274553965547</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-143.9342289762685</v>
+        <v>-143.930040291327</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-146.0791423650433</v>
+        <v>-146.0739081539406</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-149.5570274483858</v>
+        <v>-149.5491218221152</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-153.2311452538321</v>
+        <v>-153.219262721608</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-151.1527315116114</v>
+        <v>-151.1469881656396</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-147.453030164217</v>
+        <v>-147.4501407409479</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-145.0996811785072</v>
+        <v>-145.0972461416006</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-143.891607901682</v>
+        <v>-143.889060735157</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-143.6115429328422</v>
+        <v>-143.608638942023</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-144.2015260277407</v>
+        <v>-144.1980218580546</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-145.7495124844735</v>
+        <v>-145.7450077749938</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-148.5166224748394</v>
+        <v>-148.5103135938423</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-152.6593193183596</v>
+        <v>-152.6505225824466</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-154.077788163376</v>
+        <v>-154.0758523767982</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-150.1212812488874</v>
+        <v>-150.1234762065925</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-146.9887084049966</v>
+        <v>-146.9903352725272</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-145.209347543229</v>
+        <v>-145.2101943146826</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-144.4707723094845</v>
+        <v>-144.4709336323356</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-144.6319325850831</v>
+        <v>-144.6314300013801</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-145.7096258215579</v>
+        <v>-145.7083857939245</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-147.8850775854827</v>
+        <v>-147.8829529349955</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-151.4865849125004</v>
+        <v>-151.4839761691398</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-155.1530363669154</v>
+        <v>-155.1568490028426</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-152.5297236729004</v>
+        <v>-152.5383238770966</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-148.7477179073453</v>
+        <v>-148.7537619271579</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-146.420559950883</v>
+        <v>-146.4249838380399</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-145.256032217184</v>
+        <v>-145.2595301553891</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-145.0338171699716</v>
+        <v>-145.0367482004571</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-145.704775767067</v>
+        <v>-145.7073779838474</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-147.3707904201981</v>
+        <v>-147.3733771182226</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-150.2904492725276</v>
+        <v>-150.2939767596565</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-154.2590826539054</v>
+        <v>-154.267772221658</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-154.2423953791445</v>
+        <v>-154.2548653805206</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-150.3570771370564</v>
+        <v>-150.3648605689419</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-147.5463769670659</v>
+        <v>-147.5520021203171</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-145.9819915593122</v>
+        <v>-145.9867515980293</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-145.4048453562192</v>
+        <v>-145.4092989351311</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-145.7097475883604</v>
+        <v>-145.7142701837434</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-146.9315650716246</v>
+        <v>-146.9365987704578</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-149.2356413982017</v>
+        <v>-149.2420753528394</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-152.6797486486022</v>
+        <v>-152.6897290121481</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-154.6581307948602</v>
+        <v>-154.6699734738077</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-151.7078823426388</v>
+        <v>-151.713864248448</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-148.5860528066689</v>
+        <v>-148.5898341806652</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-146.6539266947022</v>
+        <v>-146.657224172216</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-145.737293596021</v>
+        <v>-145.7406460018258</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-145.6964272908621</v>
+        <v>-145.7001254426175</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-146.5152494849091</v>
+        <v>-146.5196041005179</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-148.2932250166991</v>
+        <v>-148.298740537152</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-151.1678277123204</v>
+        <v>-151.1753196221114</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-154.230341895146</v>
+        <v>-154.2384513616115</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-153.2529817495214</v>
+        <v>-153.2549116794938</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-150.0280931150333</v>
+        <v>-150.0279127903912</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-147.6856675918409</v>
+        <v>-147.6856403101769</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-146.3965683856677</v>
+        <v>-146.3970314373797</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-146.0078429396069</v>
+        <v>-146.0088682850547</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-146.4605804288689</v>
+        <v>-146.4622565441268</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-147.8083673360134</v>
+        <v>-147.8108545627229</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-150.2077368690292</v>
+        <v>-150.2112125719664</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-153.5857146687112</v>
+        <v>-153.589111091475</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-155.0944864611868</v>
+        <v>-155.0916411929619</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-152.2465980890279</v>
+        <v>-152.2413299171464</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-149.3953530297603</v>
+        <v>-149.391272679949</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-147.6638856315231</v>
+        <v>-147.6608671980736</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-146.9180454898459</v>
+        <v>-146.9157942484775</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-147.0513726918122</v>
+        <v>-147.0497090503659</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-148.0813645605432</v>
+        <v>-148.080173399309</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-150.1700136624953</v>
+        <v>-150.1690807943372</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-153.6038301254403</v>
+        <v>-153.60192492168</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-157.3068009259908</v>
+        <v>-157.2973674161943</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-155.3497535145648</v>
+        <v>-155.3380526618418</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-151.6832914093313</v>
+        <v>-151.6754722480449</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-149.3763773806232</v>
+        <v>-149.370450229821</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-148.2480814935434</v>
+        <v>-148.2430313284447</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-148.0925363760884</v>
+        <v>-148.0878569201666</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-148.8764300186327</v>
+        <v>-148.8717294707551</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-150.7472812461885</v>
+        <v>-150.7419805163557</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-154.1219665636256</v>
+        <v>-154.1143827989781</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-159.2097610369418</v>
+        <v>-159.1931060618358</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-158.5080149217855</v>
+        <v>-158.4943794819253</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-153.7553921930134</v>
+        <v>-153.7490540837542</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-150.8653561390213</v>
+        <v>-150.8605800257883</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-149.4003899640953</v>
+        <v>-149.395894391642</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-149.0048840919131</v>
+        <v>-149.0001755703834</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-149.5851560141076</v>
+        <v>-149.579820885027</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-151.2573802372164</v>
+        <v>-151.2507471043907</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-154.4462631647686</v>
+        <v>-154.4366814890414</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-159.956660178105</v>
+        <v>-159.9394325096458</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-160.9611163555488</v>
+        <v>-160.9568332222527</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-155.3037419567121</v>
+        <v>-155.3050661863155</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-151.944486489617</v>
+        <v>-151.9450076701836</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-150.2129199062359</v>
+        <v>-150.2125324804456</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-149.6192622272012</v>
+        <v>-149.618021120482</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-150.0173940911976</v>
+        <v>-150.0152146172181</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-151.4853016290905</v>
+        <v>-151.4818713016024</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-154.3888062451291</v>
+        <v>-154.3833921974505</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-159.5266174922611</v>
+        <v>-159.5190406393116</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-161.9825507467307</v>
+        <v>-161.9927410908639</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-156.2412271362733</v>
+        <v>-156.250009542888</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-152.5697557338706</v>
+        <v>-152.5753289324039</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-150.6149184563423</v>
+        <v>-150.6188370788969</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-149.8252093658687</v>
+        <v>-149.8281263849483</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-150.0139621274061</v>
+        <v>-150.0161799681244</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-151.2110834380362</v>
+        <v>-151.2127910672862</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-153.6746663435865</v>
+        <v>-153.6762018508257</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-157.9342401810453</v>
+        <v>-157.9378793257885</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-161.4019121604707</v>
+        <v>-161.4176681407511</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-156.8900442249166</v>
+        <v>-156.9006492866429</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-152.9937004660076</v>
+        <v>-153.0004008124545</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-150.774463359273</v>
+        <v>-150.7796662694208</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-149.7247233927284</v>
+        <v>-149.7292746198164</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-149.6207265325498</v>
+        <v>-149.6250530189281</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-150.4314178616025</v>
+        <v>-150.4358903229968</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-152.2856411425701</v>
+        <v>-152.290861643206</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-155.4452075537039</v>
+        <v>-155.4527630184803</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-159.1029142333716</v>
+        <v>-159.1156714667148</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-157.5631221845855</v>
+        <v>-157.5716180836706</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-153.7455946590697</v>
+        <v>-153.7501126943828</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-151.1897673084233</v>
+        <v>-151.1932354333669</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-149.7950980149297</v>
+        <v>-149.7983392540217</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-149.3328266329938</v>
+        <v>-149.3361642468863</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-149.7229089909739</v>
+        <v>-149.7265926068233</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-151.0144427559561</v>
+        <v>-151.0188145418349</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-153.3764188369542</v>
+        <v>-153.3821233557995</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-156.8099620672868</v>
+        <v>-156.8178784193908</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-158.4832187109739</v>
+        <v>-158.4890414238449</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-155.4497895398812</v>
+        <v>-155.4510589985448</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-152.3923716578705</v>
+        <v>-152.3929774477076</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-150.489439817492</v>
+        <v>-150.4902477300859</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-149.5676514482784</v>
+        <v>-149.568817900252</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-149.4921223347906</v>
+        <v>-149.4937225706316</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-150.2457936615898</v>
+        <v>-150.2479496170856</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-151.928976149533</v>
+        <v>-151.9318995281415</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-154.7418848385325</v>
+        <v>-154.7458458433604</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-158.3128534372584</v>
+        <v>-158.316502980134</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-158.3667475283878</v>
+        <v>-158.3648022283893</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-154.9311263753583</v>
+        <v>-154.9282831284818</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-152.2624661555524</v>
+        <v>-152.2604359591139</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-150.723626521574</v>
+        <v>-150.7223039849889</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-150.1161460579502</v>
+        <v>-150.1153865781376</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-150.3446589876262</v>
+        <v>-150.3443939989516</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-151.4392954526472</v>
+        <v>-151.4395326947147</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-153.5786686090092</v>
+        <v>-153.5794437721713</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-157.1184558044856</v>
+        <v>-157.1194475705887</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-161.3206806949958</v>
+        <v>-161.3174576411807</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-159.4678562633213</v>
+        <v>-159.4605985607938</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-155.5018699880887</v>
+        <v>-155.4969670544936</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-153.0179407609583</v>
+        <v>-153.0144237337946</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-151.7458018107495</v>
+        <v>-151.7430459110025</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-151.4318237735948</v>
+        <v>-151.4295424626146</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-152.0096999251303</v>
+        <v>-152.0077400074522</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-153.5860456284264</v>
+        <v>-153.5842897182912</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-156.5428879526926</v>
+        <v>-156.5410660086792</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-161.9010872665251</v>
+        <v>-161.8971037904063</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-166.5278135026062</v>
+        <v>-166.511324314417</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-159.9557337203888</v>
+        <v>-159.9489203080792</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-155.8921589588364</v>
+        <v>-155.887861448625</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-153.7806883057883</v>
+        <v>-153.7771538244779</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-152.8946957794148</v>
+        <v>-152.8914232267658</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-152.9963192951993</v>
+        <v>-152.9930458243413</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-154.097114183233</v>
+        <v>-154.0935857717733</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-156.4816006362023</v>
+        <v>-156.4773434432645</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-161.1346194931209</v>
+        <v>-161.1279339367379</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-172.1679820087573</v>
+        <v>-172.1388840971682</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-164.102999917172</v>
+        <v>-164.1021812253144</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-157.9935628555558</v>
+        <v>-157.9929080974296</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-155.0403580303377</v>
+        <v>-155.03924435044</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-153.5942279673705</v>
+        <v>-153.5927009014016</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-153.1998080645025</v>
+        <v>-153.197846634883</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-153.7522328403983</v>
+        <v>-153.7497051793569</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-155.3722249999185</v>
+        <v>-155.3688166960781</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-158.5356895598476</v>
+        <v>-158.5305204008837</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-164.7249855063047</v>
+        <v>-164.7149163702063</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-168.0548590369468</v>
+        <v>-168.0587429353909</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-160.2417270501668</v>
+        <v>-160.2456407724123</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-156.2001822608221</v>
+        <v>-156.2023190005967</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-154.0426940748159</v>
+        <v>-154.0438801326145</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-153.0388198006189</v>
+        <v>-153.0393704171338</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-152.947601480921</v>
+        <v>-152.9476253551929</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-153.7436067712245</v>
+        <v>-153.7431043371834</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-155.5864108402921</v>
+        <v>-155.5852753911487</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-158.9296698835178</v>
+        <v>-158.9277681854123</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-164.2698449418427</v>
+        <v>-164.2696725744951</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-163.6929194176523</v>
+        <v>-163.700872945656</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-158.3817494963452</v>
+        <v>-158.3866015973379</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-155.1051502671038</v>
+        <v>-155.1083740373936</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-153.2448858550328</v>
+        <v>-153.2472853094079</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-152.3671268432129</v>
+        <v>-152.369035246221</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-152.303747966539</v>
+        <v>-152.3053272178157</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-153.0378921376676</v>
+        <v>-153.0392399409191</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-154.6886712258883</v>
+        <v>-154.6899037629003</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-157.5627399606169</v>
+        <v>-157.5642262996263</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-161.9471133223418</v>
+        <v>-161.9509631536691</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-163.3862137471035</v>
+        <v>-163.3946209197929</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-158.9600476891648</v>
+        <v>-158.9650867449148</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-155.5731514358814</v>
+        <v>-155.5765391649697</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-153.5544285435022</v>
+        <v>-153.5571385057025</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-152.520342871922</v>
+        <v>-152.5227404569895</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-152.2864351088679</v>
+        <v>-152.2887012429142</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-152.8086685542764</v>
+        <v>-152.8109419038275</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-154.1600829752581</v>
+        <v>-154.1625491832936</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-156.5597858607816</v>
+        <v>-156.562848920957</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-160.3347794678315</v>
+        <v>-160.3397243965085</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-163.6464836062594</v>
+        <v>-163.6546263688819</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-160.544886608505</v>
+        <v>-160.5492151881177</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-156.7822358643423</v>
+        <v>-156.7847787942736</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-154.3934489916609</v>
+        <v>-154.3955298508125</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-153.0533932355866</v>
+        <v>-153.0553745973988</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-152.5313910906462</v>
+        <v>-152.5334230076898</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-152.7409675919426</v>
+        <v>-152.7431662097244</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-153.7055078797936</v>
+        <v>-153.7080301142938</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-155.5705849888005</v>
+        <v>-155.5737088821645</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-158.6568465405219</v>
+        <v>-158.661266299182</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-163.0620894330875</v>
+        <v>-163.0691503363914</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-163.5986523662536</v>
+        <v>-163.6025165443727</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-159.2904658269775</v>
+        <v>-159.2913526818066</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-156.1343581969973</v>
+        <v>-156.1350284180903</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-154.2439740799032</v>
+        <v>-154.244824809775</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-153.2745551315346</v>
+        <v>-153.2756644403346</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-153.0591812841066</v>
+        <v>-153.0606027443359</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-153.5573810845568</v>
+        <v>-153.559207946553</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-154.8386406109534</v>
+        <v>-154.8410507663122</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-157.1281763034292</v>
+        <v>-157.1315632168288</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-160.9494175740093</v>
+        <v>-160.9547238141624</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-166.4716439891382</v>
+        <v>-166.478532852356</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-164.5381555603208</v>
+        <v>-164.5353913970796</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-159.6003580719712</v>
+        <v>-159.5978618191222</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-156.6250655597122</v>
+        <v>-156.6234987936533</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-154.9392238823599</v>
+        <v>-154.9383091714397</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-154.1552730682018</v>
+        <v>-154.1548763773676</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-154.1208639532845</v>
+        <v>-154.1209343961862</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-154.8192957297034</v>
+        <v>-154.8198780131716</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-156.3622728558684</v>
+        <v>-156.3635176192331</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-159.0809335285351</v>
+        <v>-159.0831937076206</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-163.8736347280268</v>
+        <v>-163.8775570155212</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-170.963376626709</v>
+        <v>-170.9575243130872</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-164.8740595969379</v>
+        <v>-164.86488812807</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-159.8348288259477</v>
+        <v>-159.8296348530773</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-157.0615051155472</v>
+        <v>-157.0578601107073</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-155.5303322492038</v>
+        <v>-155.5274960058002</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-154.8637778525707</v>
+        <v>-154.8614455095046</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-154.9277407374118</v>
+        <v>-154.9257737432071</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-155.7219778400137</v>
+        <v>-155.7203037191061</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-157.3813779611225</v>
+        <v>-157.3799523714724</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-160.2936026984157</v>
+        <v>-160.2923136518234</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-165.5849805376698</v>
+        <v>-165.5824618748298</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-173.0037772392349</v>
+        <v>-172.9791276781464</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-165.0225067988812</v>
+        <v>-165.0137695460211</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-160.104278219829</v>
+        <v>-160.0992569602871</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-157.3945416826529</v>
+        <v>-157.3905767876245</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-155.8712656861978</v>
+        <v>-155.8677187520024</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-155.1729284750896</v>
+        <v>-155.1695245402144</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-155.1677116729707</v>
+        <v>-155.1642775377781</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-155.8461289436884</v>
+        <v>-155.8424893313627</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-157.314672373366</v>
+        <v>-157.3105453511083</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-159.8785297812413</v>
+        <v>-159.8732763247265</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-164.3650337160662</v>
+        <v>-164.3562346268477</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-172.0808727573522</v>
+        <v>-172.0552159136761</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-166.9562823763385</v>
+        <v>-166.952030767543</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-161.3056334450937</v>
+        <v>-161.3040689763062</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-158.182012019763</v>
+        <v>-158.1804412735851</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-156.3533865624606</v>
+        <v>-156.3515511295158</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-155.3722158435594</v>
+        <v>-155.3700527175227</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-155.0605286638354</v>
+        <v>-155.0579684809943</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-155.3641536402955</v>
+        <v>-155.36107832131</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-156.3180273362575</v>
+        <v>-156.314220629734</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-158.0678114163618</v>
+        <v>-158.0628318803969</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-160.9769674976129</v>
+        <v>-160.9697677299901</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-165.9572391360903</v>
+        <v>-165.9447205996944</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-171.786559893514</v>
+        <v>-171.7787775006511</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-165.5764793074144</v>
+        <v>-165.5828963798739</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-160.8707809567534</v>
+        <v>-160.8748239719885</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-158.1342521833244</v>
+        <v>-158.1367675899924</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-156.5069557350361</v>
+        <v>-156.5084903951392</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-155.6424585729227</v>
+        <v>-155.6432631976446</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-155.3966977899395</v>
+        <v>-155.3968693746582</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-155.7273785490677</v>
+        <v>-155.726913524011</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-156.6700439932382</v>
+        <v>-156.6688490529373</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-158.3592322817238</v>
+        <v>-158.3570687318934</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-161.1232319443162</v>
+        <v>-161.1195684447135</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-165.790803628404</v>
+        <v>-165.7848469524125</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-172.5945603433667</v>
+        <v>-172.6022637786318</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-167.2403630212252</v>
+        <v>-167.2553701597804</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-162.0748186470022</v>
+        <v>-162.0832916521996</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-159.0950455326265</v>
+        <v>-159.1009543225423</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-157.2941640965656</v>
+        <v>-157.2987763067197</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-156.2713699265443</v>
+        <v>-156.2751980711316</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-155.8562441223236</v>
+        <v>-155.8595321090951</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-155.9850304297049</v>
+        <v>-155.9879243931818</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-156.6648765846802</v>
+        <v>-156.6674625791466</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-157.9783782621238</v>
+        <v>-157.9807223075591</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-160.1347251223379</v>
+        <v>-160.1369509170999</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-163.6450993119683</v>
+        <v>-163.647746791137</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-169.8971506054729</v>
+        <v>-169.9058925423165</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-173.0072521801461</v>
+        <v>-173.0365100046195</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-165.5666464181519</v>
+        <v>-165.5765375880545</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-161.410753964474</v>
+        <v>-161.4169999557858</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-158.9451369372632</v>
+        <v>-158.950210928602</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-157.4400959425381</v>
+        <v>-157.4446741143708</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-156.6053643916958</v>
+        <v>-156.6097502383039</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-156.3147002756485</v>
+        <v>-156.3190677078958</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-156.5239877063348</v>
+        <v>-156.5284939513144</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-157.2486598838726</v>
+        <v>-157.2534994772672</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-158.5719039065925</v>
+        <v>-158.5773572706958</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-160.6933927142564</v>
+        <v>-160.7000563898435</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-164.0892724531679</v>
+        <v>-164.0987883196402</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-170.0492867314885</v>
+        <v>-170.069257366082</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-174.4320529131955</v>
+        <v>-174.4516720886875</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-166.8179254428381</v>
+        <v>-166.8182986228573</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-162.4290842577216</v>
+        <v>-162.4293100057956</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-159.8112137542216</v>
+        <v>-159.8119903844649</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-158.1696233400648</v>
+        <v>-158.1709068076435</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-157.1888830648997</v>
+        <v>-157.1906269141035</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-156.7267862840754</v>
+        <v>-156.7289913978954</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-156.7223772856513</v>
+        <v>-156.7250908817348</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-157.1662072206241</v>
+        <v>-157.1695296156242</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-158.0964315256023</v>
+        <v>-158.1005588823111</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-159.6167577069155</v>
+        <v>-159.6220674584552</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-161.9555795082431</v>
+        <v>-161.9628413384412</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-165.647613870434</v>
+        <v>-165.6588022147267</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-171.9804846699166</v>
+        <v>-172.0000676336743</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-173.5578597574717</v>
+        <v>-173.5451158151673</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-166.7617058390283</v>
+        <v>-166.7515244507098</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-162.8012427233355</v>
+        <v>-162.7948743639293</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-160.3588917227007</v>
+        <v>-160.3545108171452</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-158.7909574667801</v>
+        <v>-158.7877949983453</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-157.825246546278</v>
+        <v>-157.8229348842302</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-157.3330944120298</v>
+        <v>-157.3314413732332</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-157.2549603169957</v>
+        <v>-157.2538808543485</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-157.5742950390901</v>
+        <v>-157.5737618754794</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-158.3114021373133</v>
+        <v>-158.311443357591</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-159.5318126649761</v>
+        <v>-159.5325231037486</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-161.37690717984</v>
+        <v>-161.3784943827292</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-164.1516480968278</v>
+        <v>-164.1544707066384</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-168.6010412546601</v>
+        <v>-168.6052826562289</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-175.9274165170174</v>
+        <v>-175.9162349726147</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-172.2764386618935</v>
+        <v>-172.2523958492039</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-166.4597415858678</v>
+        <v>-166.4477914764126</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-163.0880979406184</v>
+        <v>-163.0800111551849</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-160.9401629090311</v>
+        <v>-160.933838019354</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-159.5328148907026</v>
+        <v>-159.5274661821405</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-158.6506391583836</v>
+        <v>-158.6458962254693</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-158.1868199968077</v>
+        <v>-158.1824645365524</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-158.0888453660721</v>
+        <v>-158.0847359814479</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-158.338105554597</v>
+        <v>-158.3341355635276</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-158.9437528077348</v>
+        <v>-158.939818904009</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-159.9460229668426</v>
+        <v>-159.9420084090771</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-161.4316341190156</v>
+        <v>-161.42735396125</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-163.5755459900977</v>
+        <v>-163.5706432031204</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-166.762167871916</v>
+        <v>-166.7556397623073</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-172.016101689324</v>
+        <v>-172.0032396964405</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-180.2446327947367</v>
+        <v>-180.1939735060176</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-173.0790415409451</v>
+        <v>-173.07109624012</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-167.7851302679192</v>
+        <v>-167.7820788940306</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-164.75361206396</v>
+        <v>-164.7512978084764</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-162.8355130961248</v>
+        <v>-162.8333691452198</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-161.6138058707957</v>
+        <v>-161.6117065203416</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-160.909396938406</v>
+        <v>-160.9073221833139</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-160.6511640443827</v>
+        <v>-160.6491666785757</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-160.8550864852573</v>
+        <v>-160.8533756117593</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-161.7635900192252</v>
+        <v>-161.7631248735216</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-176.6855289982139</v>
+        <v>-176.6932703545829</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6043,7 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-174.4928462489966</v>
+        <v>-174.5003543859776</v>
       </c>
     </row>
     <row r="703">

--- a/RT_radpat_40deg.xlsx
+++ b/RT_radpat_40deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-160.8238580948175</v>
+        <v>-160.485049224357</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-160.1634165727005</v>
+        <v>-159.8488624734274</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-159.5021716037245</v>
+        <v>-159.2095823123796</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-158.8501744055042</v>
+        <v>-158.5771289454877</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-158.2145328456095</v>
+        <v>-157.9586833110027</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-157.6001102481037</v>
+        <v>-157.3593053460388</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-157.0101506461285</v>
+        <v>-156.7824509801835</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-156.4467263838662</v>
+        <v>-156.2304422172029</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-155.9111545189085</v>
+        <v>-155.7047972161576</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-155.4042159558051</v>
+        <v>-155.2064972997991</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-154.9263706603575</v>
+        <v>-154.7361626116386</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-154.4778914105222</v>
+        <v>-154.2942166978182</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-154.0589561867387</v>
+        <v>-153.8809442445346</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-153.6697142517887</v>
+        <v>-153.4966004411155</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-153.3103423417476</v>
+        <v>-153.1414359045508</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-152.9810743861618</v>
+        <v>-152.8157483168171</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-152.6822250772505</v>
+        <v>-152.519909177807</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-152.4142236562942</v>
+        <v>-152.2543833490281</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-152.1776246256146</v>
+        <v>-152.0197531616789</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-151.9731242524324</v>
+        <v>-151.8167359542194</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-151.8015865623549</v>
+        <v>-151.6462046256705</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-151.6640580141093</v>
+        <v>-151.5092084871649</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-151.5617959104863</v>
+        <v>-151.406996152851</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-151.4962934330735</v>
+        <v>-151.3410405542234</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-151.469315685065</v>
+        <v>-151.3130776586055</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-151.4829424348584</v>
+        <v>-151.3251432834325</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-151.539620122744</v>
+        <v>-151.3796268503271</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-151.6422286176389</v>
+        <v>-151.4793198005569</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-151.7941572402754</v>
+        <v>-151.6275053358988</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-151.9994146259764</v>
+        <v>-151.8280355010866</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-152.2627430213674</v>
+        <v>-152.0854556152347</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-152.5897759350275</v>
+        <v>-152.4051193179242</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-152.9872163472627</v>
+        <v>-152.7933479724986</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-153.4630308729141</v>
+        <v>-153.2575661115263</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-154.0266143983075</v>
+        <v>-153.8064018814337</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-154.688846187877</v>
+        <v>-154.4496134274935</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-155.4616855556913</v>
+        <v>-155.197530849031</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-156.3566410320961</v>
+        <v>-156.0593051120836</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-157.3801979990467</v>
+        <v>-157.0382001808142</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-158.5217659306471</v>
+        <v>-158.1200075658198</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-159.7247829234224</v>
+        <v>-159.2472491206346</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-160.8311760378539</v>
+        <v>-160.2734495320834</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-161.5332135454424</v>
+        <v>-160.9294726408575</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-161.4958648192513</v>
+        <v>-160.9265597639428</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-160.6892614247828</v>
+        <v>-160.2210702150114</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-159.4267091955322</v>
+        <v>-159.065768997963</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-158.0363258536401</v>
+        <v>-157.7555524530987</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-156.6985122965293</v>
+        <v>-156.4697469408154</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-155.4825187765199</v>
+        <v>-155.2856912269849</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-154.405333699083</v>
+        <v>-154.227510688456</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-153.4641059250642</v>
+        <v>-153.2970572224354</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-152.6499806070757</v>
+        <v>-152.4883458797186</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-151.953421427002</v>
+        <v>-151.7935639659933</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-151.3661021879949</v>
+        <v>-151.2054094816184</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-150.8814372954007</v>
+        <v>-150.7179139224116</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-150.4946616640905</v>
+        <v>-150.3266620839998</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-150.2027467914976</v>
+        <v>-150.0288057905057</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-150.0043262938423</v>
+        <v>-149.8230321121695</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-149.8996503727203</v>
+        <v>-149.7095435292813</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-149.890625686263</v>
+        <v>-149.6901049707235</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-149.9809269647489</v>
+        <v>-149.7681375969763</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-150.1762235824528</v>
+        <v>-149.9489322115946</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-150.484526113988</v>
+        <v>-150.2399407303045</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-150.9166859575554</v>
+        <v>-150.651205363819</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-151.4870499235362</v>
+        <v>-151.1958815312985</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-152.2141857078603</v>
+        <v>-151.8907770907198</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-153.1212793336589</v>
+        <v>-152.7564664454523</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-154.2347509622235</v>
+        <v>-153.8156060378756</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-155.5758877641845</v>
+        <v>-155.0848931983999</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-157.1284728894408</v>
+        <v>-156.5465494970362</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-158.7353486251447</v>
+        <v>-158.0632531387311</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-159.8884695516466</v>
+        <v>-159.2100386064493</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-159.8289250940728</v>
+        <v>-159.3179691711703</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-158.5350208567306</v>
+        <v>-158.2454180284474</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-156.7607308310212</v>
+        <v>-156.6050493458783</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-155.0343412863689</v>
+        <v>-154.933740007205</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-153.5253489134022</v>
+        <v>-153.4398818661946</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-152.2557124910034</v>
+        <v>-152.1674938153108</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-151.2077593787965</v>
+        <v>-151.1086979604377</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-150.3583640629887</v>
+        <v>-150.2445103273041</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-149.6879268895724</v>
+        <v>-149.5570182297711</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-149.1820577714693</v>
+        <v>-149.0324238678738</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-148.8313865992838</v>
+        <v>-148.661406604271</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-148.6311112885651</v>
+        <v>-148.4388926145535</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-148.5806857625809</v>
+        <v>-148.3638191770702</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-148.683825412533</v>
+        <v>-148.4391221786798</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-148.9488568951294</v>
+        <v>-148.6720041443399</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-149.3894912194021</v>
+        <v>-149.0745542299798</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-150.0260578121834</v>
+        <v>-149.6647119900126</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-150.8870744243575</v>
+        <v>-150.4674413166413</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-152.0101912435547</v>
+        <v>-151.5151969657491</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-153.437820485709</v>
+        <v>-152.8438216393366</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-155.1870394720255</v>
+        <v>-154.4682735548954</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-157.115174820288</v>
+        <v>-156.2820353294179</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-158.5340137440492</v>
+        <v>-157.7660987102929</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-158.2636025193775</v>
+        <v>-157.8829000006162</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-156.4819484610343</v>
+        <v>-156.4454565353359</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-154.3816282656641</v>
+        <v>-154.4673049911988</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-152.5188173130033</v>
+        <v>-152.6167140555518</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-150.9900411964722</v>
+        <v>-151.0644419056643</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-149.7718781672875</v>
+        <v>-149.8130475053099</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-148.8256127832612</v>
+        <v>-148.8317090180009</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-148.1196300351831</v>
+        <v>-148.0908157695</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-147.6323149475813</v>
+        <v>-147.568802717422</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-147.3511711431566</v>
+        <v>-147.252502662741</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-147.2717748551514</v>
+        <v>-147.1364665406313</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-147.3973637006308</v>
+        <v>-147.2225950247523</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-147.739221861929</v>
+        <v>-147.5204096212937</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-148.3179577661436</v>
+        <v>-148.048106530163</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-149.1655991841569</v>
+        <v>-148.8343311241057</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-150.3274800192969</v>
+        <v>-149.9198692943725</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-151.8578187684946</v>
+        <v>-151.3546223768798</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-153.7782091231101</v>
+        <v>-153.167269320401</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-155.8658568620001</v>
+        <v>-155.2101464846127</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-157.0674379986306</v>
+        <v>-156.6697611544411</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-156.099585979074</v>
+        <v>-156.1808294094478</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-153.8900646798573</v>
+        <v>-154.1698276054768</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-151.7160115132278</v>
+        <v>-151.9927623855016</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-149.9269162387537</v>
+        <v>-150.1500927645685</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-148.5292798310871</v>
+        <v>-148.6941223589516</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-147.4739156076737</v>
+        <v>-147.5848489508999</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-146.717452453917</v>
+        <v>-146.7792647311618</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-146.2309195045955</v>
+        <v>-146.2468882594375</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-145.9988626670768</v>
+        <v>-145.9704349803031</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-146.017876427414</v>
+        <v>-145.9446135223956</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-146.2962468769979</v>
+        <v>-146.175677090342</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-146.8550473785528</v>
+        <v>-146.6823266986397</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-147.730559532225</v>
+        <v>-147.4980149346592</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-148.9764460797897</v>
+        <v>-148.6736629582538</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-150.6554361004182</v>
+        <v>-150.2736201568579</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-152.7644361907556</v>
+        <v>-152.3242733148436</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-154.85262358974</v>
+        <v>-154.522532229097</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-155.3307034674764</v>
+        <v>-155.4723795185236</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-153.5209509786482</v>
+        <v>-153.9853045313834</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-151.1133798377467</v>
+        <v>-151.5665722160907</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-149.0411745679597</v>
+        <v>-149.4043052430957</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-147.4304404210176</v>
+        <v>-147.7079253402794</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-146.2337699559832</v>
+        <v>-146.4398029206919</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-145.3957102509573</v>
+        <v>-145.5415090851244</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-144.8784002637046</v>
+        <v>-144.9712409342443</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-144.6623113768593</v>
+        <v>-144.7061584967429</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-144.7444934474574</v>
+        <v>-144.7405053131454</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-145.1383934251812</v>
+        <v>-145.0850628764323</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-145.8759018610174</v>
+        <v>-145.7688719630117</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-147.0110921396352</v>
+        <v>-146.8429954147664</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-148.6194771793276</v>
+        <v>-148.3818586944467</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-150.7516263263683</v>
+        <v>-150.4509688145835</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-153.1128892090399</v>
+        <v>-152.857077136318</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-154.08752583841</v>
+        <v>-154.2039791067637</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-152.340128457852</v>
+        <v>-152.7574018548106</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-149.7524532406586</v>
+        <v>-150.1508637089077</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-147.549079098303</v>
+        <v>-147.8605761335089</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-145.8786994821688</v>
+        <v>-146.1116374882781</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-144.677733477317</v>
+        <v>-144.8461320254672</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-143.8804674897764</v>
+        <v>-143.9942492356933</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-143.445882531489</v>
+        <v>-143.5108405687974</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-143.3568116533188</v>
+        <v>-143.3754144265394</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-143.6179859311524</v>
+        <v>-143.5897943159164</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-144.2570443787281</v>
+        <v>-144.1786979407209</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-145.3287747860031</v>
+        <v>-145.1938065078336</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-146.9179014274078</v>
+        <v>-146.718071783258</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-149.1025049053258</v>
+        <v>-148.8413296932402</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-151.6304827771409</v>
+        <v>-151.4064686040316</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-152.7192070341064</v>
+        <v>-152.8630413857425</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-150.7743665984337</v>
+        <v>-151.1864774253516</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-148.0269506769808</v>
+        <v>-148.3944115694424</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-145.7724680551763</v>
+        <v>-146.0489566688737</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-144.1137358501133</v>
+        <v>-144.3136575371053</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-142.9656593918617</v>
+        <v>-143.1036507786141</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-142.2567012017598</v>
+        <v>-142.3419362556614</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-141.9477258485535</v>
+        <v>-141.984832506241</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-142.0290437847718</v>
+        <v>-142.0189860816366</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-142.519255040603</v>
+        <v>-142.4595397109104</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-143.4689957782781</v>
+        <v>-143.3532749687338</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-144.9676011370464</v>
+        <v>-144.7855083300923</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-147.1266612708887</v>
+        <v>-146.8706292198574</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-149.8294241130394</v>
+        <v>-149.5567449103216</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-151.3924609729027</v>
+        <v>-151.4254125845845</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-149.4984322421057</v>
+        <v>-149.8470317407962</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-146.5436903894849</v>
+        <v>-146.8664173729958</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-144.1529583757008</v>
+        <v>-144.3916467529742</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-142.4318310810918</v>
+        <v>-142.5983992014991</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-141.2734095952036</v>
+        <v>-141.3808735080653</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-140.5961476409967</v>
+        <v>-140.6522622479371</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-140.3597433385543</v>
+        <v>-140.3677174024317</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-140.5603259075105</v>
+        <v>-140.5194425874607</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-141.2302419158569</v>
+        <v>-141.135674091011</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-142.4449904234594</v>
+        <v>-142.2869240629012</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-144.3295651600527</v>
+        <v>-144.0938595404096</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-146.9747169193552</v>
+        <v>-146.6667261105535</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-149.5797844430506</v>
+        <v>-149.4027748902856</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-148.89790934908</v>
+        <v>-149.1709178048662</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-145.7588495776898</v>
+        <v>-146.0950490772289</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-142.9946333565237</v>
+        <v>-143.2467756979357</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-140.9998884307079</v>
+        <v>-141.1732994481251</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-139.654713774038</v>
+        <v>-139.7643375323989</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-138.8521090400793</v>
+        <v>-138.907139018787</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-138.5374080941289</v>
+        <v>-138.5416180908959</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-138.7015492954235</v>
+        <v>-138.6540418635885</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-139.379778336928</v>
+        <v>-139.2746550810468</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-140.6607395279849</v>
+        <v>-140.4856128571529</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-142.6971821842413</v>
+        <v>-142.4329205163767</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-145.5885105772311</v>
+        <v>-145.2413800614365</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-148.066481566574</v>
+        <v>-147.9297561234212</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-146.3697097030712</v>
+        <v>-146.6892933770453</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-142.9282005936812</v>
+        <v>-143.2460656338559</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-140.2180060941709</v>
+        <v>-140.4457604534447</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-138.3339373374091</v>
+        <v>-138.4854172862203</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-137.1145442357536</v>
+        <v>-137.2039478864402</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-136.4564347874154</v>
+        <v>-136.4912259194314</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-136.3184291823706</v>
+        <v>-136.300371266737</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-136.7127453528511</v>
+        <v>-136.638214101761</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-137.7096220246029</v>
+        <v>-137.5683622595093</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-139.4565380213381</v>
+        <v>-139.2291972925019</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-142.1650991785296</v>
+        <v>-141.8318648980565</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-145.4083054392983</v>
+        <v>-145.118976092187</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-145.0543474322209</v>
+        <v>-145.3297834873268</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-141.2903335948552</v>
+        <v>-141.6515904994209</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-138.1271299810099</v>
+        <v>-138.3877852546259</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-135.9271530231527</v>
+        <v>-136.1018007480625</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-134.4829353501723</v>
+        <v>-134.5901521591491</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-133.6571168530407</v>
+        <v>-133.7066902947012</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-133.3927220566223</v>
+        <v>-133.3874453713901</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-133.6982299535756</v>
+        <v>-133.6346049411637</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-134.6523948855255</v>
+        <v>-134.5191252732102</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-136.4338220795808</v>
+        <v>-136.2078486958378</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-139.3358500209148</v>
+        <v>-138.9882742802681</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-142.8693560743903</v>
+        <v>-142.5976025300018</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-141.6030403749374</v>
+        <v>-141.9910780621816</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-137.2353661502632</v>
+        <v>-137.6178414313893</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-133.9163164073678</v>
+        <v>-134.1813418918588</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-131.6408369903081</v>
+        <v>-131.8187437536042</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-130.1399754929817</v>
+        <v>-130.251260358275</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-129.2715050340116</v>
+        <v>-129.3255333589375</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-128.9883863166576</v>
+        <v>-128.9866116454295</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-129.3226325886618</v>
+        <v>-129.2588172247832</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-130.4045071273225</v>
+        <v>-130.2611969703298</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-132.5334050310976</v>
+        <v>-132.2727146189842</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-136.2119550816414</v>
+        <v>-135.7961524075421</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-138.8254757352355</v>
+        <v>-138.9611220684383</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-133.6734923031163</v>
+        <v>-134.2077998586716</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-128.8245848981595</v>
+        <v>-129.2023153175745</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-125.385773123076</v>
+        <v>-125.6570204876139</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-122.8407227810734</v>
+        <v>-123.043879410886</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-120.8984622360354</v>
+        <v>-121.0535541532744</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-119.4034290031145</v>
+        <v>-119.5215679320559</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-118.2666066017126</v>
+        <v>-118.3543777913785</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-117.4344731057468</v>
+        <v>-117.4959290753863</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-116.8744525454471</v>
+        <v>-116.9120794303662</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-116.5677036988193</v>
+        <v>-116.5829105586292</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-116.5055192701634</v>
+        <v>-116.498878239497</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-116.6877754658331</v>
+        <v>-116.6591085786338</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-117.1228371703397</v>
+        <v>-117.0711804220778</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-117.8288827150454</v>
+        <v>-117.7523131808353</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-118.8371497610978</v>
+        <v>-118.7324069168095</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-120.1984844149317</v>
+        <v>-120.0602125781984</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-121.9965235750504</v>
+        <v>-121.8157164654964</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-124.3758183491092</v>
+        <v>-124.1363946773821</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-127.6059672095227</v>
+        <v>-127.2768456215171</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-132.2050895948031</v>
+        <v>-131.7298202563382</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-138.0132355142505</v>
+        <v>-137.6030914406008</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-136.5754220501393</v>
+        <v>-136.9751488606998</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-132.5080269429116</v>
+        <v>-132.7799277156726</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-130.1609710784536</v>
+        <v>-130.304782519011</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-128.99887221557</v>
+        <v>-129.0585042840174</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-128.6767759943136</v>
+        <v>-128.6720459855196</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-129.0569996489604</v>
+        <v>-128.9944597038013</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-130.1249585277249</v>
+        <v>-130.0019847473754</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-131.9755028609109</v>
+        <v>-131.7793120505457</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-134.8520583208485</v>
+        <v>-134.5547239974136</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-139.1215161386027</v>
+        <v>-138.7017891265052</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-142.7997750728395</v>
+        <v>-142.731170969633</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-139.7561498040078</v>
+        <v>-140.102302653834</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-136.2607055455321</v>
+        <v>-136.4908484998149</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-134.1650561473891</v>
+        <v>-134.2919852939715</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-133.1059622694118</v>
+        <v>-133.1577273857029</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-132.8514172981238</v>
+        <v>-132.840979991658</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-133.317965692722</v>
+        <v>-133.2480191848927</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-134.5321852219437</v>
+        <v>-134.396552041729</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-136.6391030881483</v>
+        <v>-136.4204087027119</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-139.9279140457452</v>
+        <v>-139.5988227523252</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-144.2120102543886</v>
+        <v>-143.8863318171024</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-144.3333409976327</v>
+        <v>-144.593082312224</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-140.5367784167817</v>
+        <v>-140.8228245897991</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-137.7937050882532</v>
+        <v>-137.9689161631827</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-136.2300122276079</v>
+        <v>-136.3209041291847</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-135.5650489253572</v>
+        <v>-135.5893595847583</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-135.6643392688671</v>
+        <v>-135.6284659817039</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-136.5126998910475</v>
+        <v>-136.4141422167984</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-138.2067177505659</v>
+        <v>-138.0332362008007</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-140.9777754325368</v>
+        <v>-140.7062855492154</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-144.9600211288879</v>
+        <v>-144.6191975580878</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-146.9690916998659</v>
+        <v>-147.0751435171616</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-143.5966857111935</v>
+        <v>-143.9081442601994</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-140.4672737799605</v>
+        <v>-140.6748273111043</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-138.5776519324349</v>
+        <v>-138.6952665930962</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-137.6591378956146</v>
+        <v>-137.7072528557762</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-137.5453733085733</v>
+        <v>-137.5328899096646</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-138.1965976828484</v>
+        <v>-138.1233724324393</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-139.6859659443829</v>
+        <v>-139.5430156921336</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-142.2167835563028</v>
+        <v>-141.9861324507729</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-145.9740387143676</v>
+        <v>-145.6738714141537</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-148.5839821570995</v>
+        <v>-148.6480757490021</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-145.6366757500349</v>
+        <v>-145.9683021235398</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-142.3597453229464</v>
+        <v>-142.5883756298396</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-140.3241047215843</v>
+        <v>-140.4585535506532</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-139.2973651816832</v>
+        <v>-139.3605220606602</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-139.1026223836025</v>
+        <v>-139.1049911096085</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-139.6923721065089</v>
+        <v>-139.6349864101201</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-141.1355757033968</v>
+        <v>-141.0107970216456</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-143.632526310224</v>
+        <v>-143.4248259325195</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-147.3535549526781</v>
+        <v>-147.087091853371</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-149.8532943994358</v>
+        <v>-149.9504274188394</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-146.8640495703931</v>
+        <v>-147.1967820438823</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-143.6045709153903</v>
+        <v>-143.8336812626852</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-141.587561542376</v>
+        <v>-141.7257256047463</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-140.5848303452276</v>
+        <v>-140.6549110866291</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-140.4259418841668</v>
+        <v>-140.4385607955597</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-141.0712240270326</v>
+        <v>-141.0280330695419</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-142.6019486136809</v>
+        <v>-142.4968182398683</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-145.2338750176969</v>
+        <v>-145.0556548129778</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-149.0508698237059</v>
+        <v>-148.8471642042186</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-150.8259189925726</v>
+        <v>-150.9996330716617</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-147.4639026052501</v>
+        <v>-147.7447621721142</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-144.3698651369743</v>
+        <v>-144.549770015427</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-142.5143107933731</v>
+        <v>-142.6148259586882</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-141.6529811016446</v>
+        <v>-141.6928494295153</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-141.6379756582914</v>
+        <v>-141.6247073874117</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-142.4532632800023</v>
+        <v>-142.3860163152688</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-144.2115596643384</v>
+        <v>-144.0811574959056</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-147.1621792466667</v>
+        <v>-146.9539082540621</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-151.0979505466845</v>
+        <v>-150.8906885413917</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-151.2991736877496</v>
+        <v>-151.4621987432356</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-147.574971059383</v>
+        <v>-147.7593054581205</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-144.7917034022798</v>
+        <v>-144.8961747290187</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-143.2151239672669</v>
+        <v>-143.2553308211617</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-142.5972219570036</v>
+        <v>-142.5838933077006</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-142.8274553965547</v>
+        <v>-142.7626138465187</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-143.930040291327</v>
+        <v>-143.8068131084641</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-146.0739081539406</v>
+        <v>-145.8710947501814</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-149.5491218221152</v>
+        <v>-149.2205928869827</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-153.219262721608</v>
+        <v>-152.8492372704328</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-151.1469881656396</v>
+        <v>-151.0984425925559</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-147.4501407409479</v>
+        <v>-147.435186831907</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-145.0972461416006</v>
+        <v>-145.0392725807448</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-143.889060735157</v>
+        <v>-143.7797379944348</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-143.608638942023</v>
+        <v>-143.4420474941738</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-144.1980218580546</v>
+        <v>-143.9607357812638</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-145.7450077749938</v>
+        <v>-145.4073516449432</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-148.5103135938423</v>
+        <v>-148.0057354946678</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-152.6505225824466</v>
+        <v>-151.8879904252051</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-154.0758523767982</v>
+        <v>-153.7018748161454</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-150.1234762065925</v>
+        <v>-150.1455093496928</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-146.9903352725272</v>
+        <v>-146.9868450077196</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-145.2101943146826</v>
+        <v>-145.1334520239342</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-144.4709336323356</v>
+        <v>-144.3140074052584</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-144.6314300013801</v>
+        <v>-144.3821744405532</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-145.7083857939245</v>
+        <v>-145.338325017464</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-147.8829529349955</v>
+        <v>-147.3306456687516</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-151.4839761691398</v>
+        <v>-150.6422524251124</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-155.1568490028426</v>
+        <v>-154.4350752443322</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-152.5383238770966</v>
+        <v>-152.8266636867429</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-148.7537619271579</v>
+        <v>-149.054013462767</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-146.4249838380399</v>
+        <v>-146.5941932318707</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-145.2595301553891</v>
+        <v>-145.3093316284474</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-145.0367482004571</v>
+        <v>-144.9733946796284</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-145.7073779838474</v>
+        <v>-145.5205986938728</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-147.3733771182226</v>
+        <v>-147.0320569599842</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-150.2939767596565</v>
+        <v>-149.7537373975592</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-154.267772221658</v>
+        <v>-153.7733893111217</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-154.2548653805206</v>
+        <v>-155.0304080844988</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-150.3648605689419</v>
+        <v>-151.1967834783998</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-147.5520021203171</v>
+        <v>-148.13021592767</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-145.9867515980293</v>
+        <v>-146.3846761035037</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-145.4092989351311</v>
+        <v>-145.6734143267472</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-145.7142701837434</v>
+        <v>-145.8649759549494</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-146.9365987704578</v>
+        <v>-146.9819925461277</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-149.2420753528394</v>
+        <v>-149.209260064651</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-152.6897290121481</v>
+        <v>-152.8432393438849</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-154.6699734738077</v>
+        <v>-156.1797996286402</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-151.713864248448</v>
+        <v>-153.3504220430273</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-148.5898341806652</v>
+        <v>-149.7245671545279</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-146.657224172216</v>
+        <v>-147.5151069656621</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-145.7406460018258</v>
+        <v>-146.4448369682902</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-145.7001254426175</v>
+        <v>-146.3156189403165</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-146.5196041005179</v>
+        <v>-147.0961763845611</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-148.298740537152</v>
+        <v>-148.9137134278021</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-151.1753196221114</v>
+        <v>-152.0705895426345</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-154.2384513616115</v>
+        <v>-156.2112433326263</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-153.2549116794938</v>
+        <v>-155.3933968405397</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-150.0279127903912</v>
+        <v>-151.3725982804197</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-147.6856403101769</v>
+        <v>-148.6904949615341</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-146.3970314373797</v>
+        <v>-147.2669805333659</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-146.0088682850547</v>
+        <v>-146.8383205087875</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-146.4622565441268</v>
+        <v>-147.3204641798235</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-147.8108545627229</v>
+        <v>-148.7889855129326</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-150.2112125719664</v>
+        <v>-151.5026133647958</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-153.589111091475</v>
+        <v>-155.6420383273283</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-155.0916411929619</v>
+        <v>-157.1033660389654</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-152.2413299171464</v>
+        <v>-153.0791996135881</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-149.391272679949</v>
+        <v>-149.9141797898866</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-147.6608671980736</v>
+        <v>-148.1324542813352</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-146.9157942484775</v>
+        <v>-147.4142493057367</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-147.0497090503659</v>
+        <v>-147.621116536368</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-148.080173399309</v>
+        <v>-148.7808704150922</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-150.1690807943372</v>
+        <v>-151.0992991061952</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-153.60192492168</v>
+        <v>-154.9153292444821</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-157.2973674161943</v>
+        <v>-158.178846688066</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-155.3380526618418</v>
+        <v>-154.8514453325346</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-151.6754722480449</v>
+        <v>-151.2029068004038</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-149.370450229821</v>
+        <v>-149.0455933726025</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-148.2430313284447</v>
+        <v>-148.0365577120247</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-148.0878569201666</v>
+        <v>-147.978977730637</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-148.8717294707551</v>
+        <v>-148.8540656221972</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-150.7419805163557</v>
+        <v>-150.8150369946214</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-154.1143827989781</v>
+        <v>-154.2125367518622</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-159.1931060618358</v>
+        <v>-158.4351096668624</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-158.4943794819253</v>
+        <v>-156.6766264027088</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-153.7490540837542</v>
+        <v>-152.587903137021</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-150.8605800257883</v>
+        <v>-150.0223758918681</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-149.395894391642</v>
+        <v>-148.7088167744951</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-149.0001755703834</v>
+        <v>-148.3862626781135</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-149.579820885027</v>
+        <v>-148.9875918459712</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-151.2507471043907</v>
+        <v>-150.6150632686702</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-154.4366814890414</v>
+        <v>-153.5774731881732</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-159.9394325096458</v>
+        <v>-157.9928896761048</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-160.9568332222527</v>
+        <v>-158.460412694239</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-155.3050661863155</v>
+        <v>-154.1166061269362</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-151.9450076701836</v>
+        <v>-151.092134663692</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-150.2125324804456</v>
+        <v>-149.4452091843038</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-149.618021120482</v>
+        <v>-148.845471237372</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-150.0152146172181</v>
+        <v>-149.1724288734835</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-151.4818713016024</v>
+        <v>-150.4777889218504</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-154.3833921974505</v>
+        <v>-153.0100278147443</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-159.5190406393116</v>
+        <v>-157.1481830753027</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-161.9927410908639</v>
+        <v>-159.8991871785308</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-156.250009542888</v>
+        <v>-155.8517520764009</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-152.5753289324039</v>
+        <v>-152.3014000548462</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-150.6188370788969</v>
+        <v>-150.2721926685215</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-149.8281263849483</v>
+        <v>-149.3696054031786</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-150.0161799681244</v>
+        <v>-149.4105058039125</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-151.2127910672862</v>
+        <v>-150.3941632688638</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-153.6762018508257</v>
+        <v>-152.5033195451544</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-157.9378793257885</v>
+        <v>-156.1462085979699</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-161.4176681407511</v>
+        <v>-160.4377205867265</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-156.9006492866429</v>
+        <v>-157.850094090178</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-153.0004008124545</v>
+        <v>-153.7207517185895</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-150.7796662694208</v>
+        <v>-151.2322579046875</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-149.7292746198164</v>
+        <v>-149.9838827918375</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-149.6250530189281</v>
+        <v>-149.7150719778647</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-150.4358903229968</v>
+        <v>-150.3673587570054</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-152.290861643206</v>
+        <v>-152.0566531012214</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-155.4527630184803</v>
+        <v>-155.1267946331479</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-159.1156714667148</v>
+        <v>-159.7756651542069</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-157.5716180836706</v>
+        <v>-160.0407222356701</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-153.7501126943828</v>
+        <v>-155.4558225599314</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-151.1932354333669</v>
+        <v>-152.3916022990653</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-149.7983392540217</v>
+        <v>-150.7298295506155</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-149.3361642468863</v>
+        <v>-150.1128271964616</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-149.7265926068233</v>
+        <v>-150.4136444281164</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-151.0188145418349</v>
+        <v>-151.680393584956</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-153.3821233557995</v>
+        <v>-154.1638791836065</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-156.8178784193908</v>
+        <v>-158.3334360459678</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-158.4890414238449</v>
+        <v>-161.7654575013608</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-155.4510589985448</v>
+        <v>-157.6534152123221</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-152.3929774477076</v>
+        <v>-153.854408108774</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-150.4902477300859</v>
+        <v>-151.6728389588189</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-149.568817900252</v>
+        <v>-150.647992873614</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-149.4937225706316</v>
+        <v>-150.5644251689809</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-150.2479496170856</v>
+        <v>-151.3982040534153</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-151.9318995281415</v>
+        <v>-153.3044708824825</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-154.7458458433604</v>
+        <v>-156.69235548783</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-158.316502980134</v>
+        <v>-161.5550636599392</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-158.3648022283893</v>
+        <v>-160.4076394393989</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-154.9282831284818</v>
+        <v>-155.7888008686598</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-152.2604359591139</v>
+        <v>-152.9165732943</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-150.7223039849889</v>
+        <v>-151.389895577146</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-150.1153865781376</v>
+        <v>-150.8702856395062</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-150.3443939989516</v>
+        <v>-151.2496007037651</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-151.4395326947147</v>
+        <v>-152.5911352371764</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-153.5794437721713</v>
+        <v>-155.1688970287855</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-157.1194475705887</v>
+        <v>-159.5081391035808</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-161.3174576411807</v>
+        <v>-162.9170637900629</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-159.4605985607938</v>
+        <v>-158.4608367338922</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-155.4969670544936</v>
+        <v>-154.6330697240455</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-153.0144237337946</v>
+        <v>-152.4483007330612</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-151.7430459110025</v>
+        <v>-151.4092431484576</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-151.4295424626146</v>
+        <v>-151.2946516361704</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-152.0077400074522</v>
+        <v>-152.0746945857131</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-153.5842897182912</v>
+        <v>-153.893546663311</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-156.5410660086792</v>
+        <v>-157.1541628890299</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-161.8971037904063</v>
+        <v>-162.1858707695144</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-166.511324314417</v>
+        <v>-162.044109656594</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-159.9489203080792</v>
+        <v>-157.1251040883232</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-155.887861448625</v>
+        <v>-154.005998375185</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-153.7771538244779</v>
+        <v>-152.3034611061248</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-152.8914232267658</v>
+        <v>-151.6233638291623</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-152.9930458243413</v>
+        <v>-151.8245790109444</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-154.0935857717733</v>
+        <v>-152.936114135383</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-156.4773434432645</v>
+        <v>-155.1772534309081</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-161.1279339367379</v>
+        <v>-159.0705778445534</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-172.1388840971682</v>
+        <v>-164.0181241258155</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-164.1021812253144</v>
+        <v>-160.8861602238406</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-157.9929080974296</v>
+        <v>-156.3958315389949</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-155.03924435044</v>
+        <v>-153.7568032906604</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-153.5927009014016</v>
+        <v>-152.3755388787325</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-153.197846634883</v>
+        <v>-151.9426115771954</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-153.7497051793569</v>
+        <v>-152.3677574644394</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-155.3688166960781</v>
+        <v>-153.7219401218593</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-158.5305204008837</v>
+        <v>-156.286060598112</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-164.7149163702063</v>
+        <v>-160.6685122988846</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-168.0587429353909</v>
+        <v>-164.8469784391431</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-160.2456407724123</v>
+        <v>-160.265491406892</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-156.2023190005967</v>
+        <v>-156.1507549237321</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-154.0438801326145</v>
+        <v>-153.7879004057548</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-153.0393704171338</v>
+        <v>-152.5900294008847</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-152.9476253551929</v>
+        <v>-152.2960170947416</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-153.7431043371834</v>
+        <v>-152.8429215661366</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-155.5852753911487</v>
+        <v>-154.3245002377203</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-158.9277681854123</v>
+        <v>-157.0567382238805</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-164.2696725744951</v>
+        <v>-161.7006742488584</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-163.700872945656</v>
+        <v>-165.3679217320602</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-158.3866015973379</v>
+        <v>-160.2983114023953</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-155.1083740373936</v>
+        <v>-156.3213477415884</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-153.2472853094079</v>
+        <v>-154.0506007919434</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-152.369035246221</v>
+        <v>-152.9052079203344</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-152.3053272178157</v>
+        <v>-152.6385133235744</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-153.0392399409191</v>
+        <v>-153.193297706726</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-154.6899037629003</v>
+        <v>-154.6634407625684</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-157.5642262996263</v>
+        <v>-157.3609454953054</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-161.9509631536691</v>
+        <v>-161.972178232449</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-163.3946209197929</v>
+        <v>-166.1194683569064</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-158.9650867449148</v>
+        <v>-161.0480669924686</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-155.5765391649697</v>
+        <v>-156.9177166343837</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-153.5571385057025</v>
+        <v>-154.5500630609978</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-152.5227404569895</v>
+        <v>-153.3210654807633</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-152.2887012429142</v>
+        <v>-152.9638176262593</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-152.8109419038275</v>
+        <v>-153.4051403162372</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-154.1625491832936</v>
+        <v>-154.7155434475841</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-156.562848920957</v>
+        <v>-157.1600510673484</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-160.3397243965085</v>
+        <v>-161.3764474561311</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-163.6546263688819</v>
+        <v>-166.7684962330673</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-160.5492151881177</v>
+        <v>-162.713479219353</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-156.7847787942736</v>
+        <v>-158.0578443197431</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-154.3955298508125</v>
+        <v>-155.3625772239791</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-153.0553745973988</v>
+        <v>-153.8939531892753</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-152.5334230076898</v>
+        <v>-153.3188603714013</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-152.7431662097244</v>
+        <v>-153.5239604372423</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-153.7080301142938</v>
+        <v>-154.535879013369</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-155.5737088821645</v>
+        <v>-156.5406971710028</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-158.661266299182</v>
+        <v>-160.0241491773047</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-163.0691503363914</v>
+        <v>-165.7335020732665</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-163.6025165443727</v>
+        <v>-165.6464032144467</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-159.2913526818066</v>
+        <v>-160.0495864057575</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-156.1350284180903</v>
+        <v>-156.6776167875358</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-154.244824809775</v>
+        <v>-154.7618505316892</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-153.2756644403346</v>
+        <v>-153.8207049013644</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-153.0606027443359</v>
+        <v>-153.6654756071365</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-153.559207946553</v>
+        <v>-154.2609644427404</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-154.8410507663122</v>
+        <v>-155.7021967723224</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-157.1315632168288</v>
+        <v>-158.283714810465</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-160.9547238141624</v>
+        <v>-162.720903911505</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-166.478532852356</v>
+        <v>-168.3276767247299</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-164.5353913970796</v>
+        <v>-163.6152260697134</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-159.5978618191222</v>
+        <v>-158.9131285162559</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-156.6234987936533</v>
+        <v>-156.201624177932</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-154.9383091714397</v>
+        <v>-154.6871911851792</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-154.1548763773676</v>
+        <v>-154.0289680309636</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-154.1209343961862</v>
+        <v>-154.1025527094616</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-154.8198780131716</v>
+        <v>-154.9109014600923</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-156.3635176192331</v>
+        <v>-156.5871898354393</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-159.0831937076206</v>
+        <v>-159.4947948907672</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-163.8775570155212</v>
+        <v>-164.4939448769113</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-170.9575243130872</v>
+        <v>-169.0277733147211</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-164.86488812807</v>
+        <v>-163.0922072252501</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-159.8296348530773</v>
+        <v>-158.796183486089</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-157.0578601107073</v>
+        <v>-156.3161606550249</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-155.5274960058002</v>
+        <v>-154.9338129019877</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-154.8614455095046</v>
+        <v>-154.3541204145023</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-154.9257737432071</v>
+        <v>-154.471107120458</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-155.7203037191061</v>
+        <v>-155.2940371451386</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-157.3799523714724</v>
+        <v>-156.9542942806736</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-160.2923136518234</v>
+        <v>-159.8034107320871</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-165.5824618748298</v>
+        <v>-164.7023774264983</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-172.9791276781464</v>
+        <v>-170.0126067898065</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-165.0137695460211</v>
+        <v>-164.1086690117952</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-160.0992569602871</v>
+        <v>-159.5774017723622</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-157.3905767876245</v>
+        <v>-156.9595877955699</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-155.8677187520024</v>
+        <v>-155.4632730597858</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-155.1695245402144</v>
+        <v>-154.764802098614</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-155.1642775377781</v>
+        <v>-154.7397584778629</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-155.8424893313627</v>
+        <v>-155.3752474011659</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-157.3105453511083</v>
+        <v>-156.7625177107132</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-159.8732763247265</v>
+        <v>-159.1604627467801</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-164.3562346268477</v>
+        <v>-163.2194382290519</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-172.0552159136761</v>
+        <v>-169.8587448777839</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-166.952030767543</v>
+        <v>-167.2165633128655</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-161.3040689763062</v>
+        <v>-161.5621836680224</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-158.1804412735851</v>
+        <v>-158.3265258517071</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-156.3515511295158</v>
+        <v>-156.4239343322787</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-155.3700527175227</v>
+        <v>-155.3909010162697</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-155.0579684809943</v>
+        <v>-155.0382959696288</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-155.36107832131</v>
+        <v>-155.3050037655971</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-156.314220629734</v>
+        <v>-156.2201000239504</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-158.0628318803969</v>
+        <v>-157.9213531845202</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-160.9697677299901</v>
+        <v>-160.7564444850454</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-165.9447205996944</v>
+        <v>-165.6089915496712</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-171.7787775006511</v>
+        <v>-171.948719029952</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-165.5828963798739</v>
+        <v>-165.9660103890097</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-160.8748239719885</v>
+        <v>-161.0798367734819</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-158.1367675899924</v>
+        <v>-158.2610017841295</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-156.5084903951392</v>
+        <v>-156.5872769067438</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-155.6432631976446</v>
+        <v>-155.6917232200794</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-155.3968693746582</v>
+        <v>-155.422319766953</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-155.726913524011</v>
+        <v>-155.7328158598068</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-156.6688490529373</v>
+        <v>-156.6561071018487</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-158.3570687318934</v>
+        <v>-158.3240909841011</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-161.1195684447135</v>
+        <v>-161.0614794146214</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-165.7848469524125</v>
+        <v>-165.6994393433071</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-172.6022637786318</v>
+        <v>-172.784920504003</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-167.2553701597804</v>
+        <v>-167.4830919392462</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-162.0832916521996</v>
+        <v>-162.1867105843401</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-159.1009543225423</v>
+        <v>-159.156710194173</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-157.2987763067197</v>
+        <v>-157.3283062305613</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-156.2751980711316</v>
+        <v>-156.2864633846754</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-155.8595321090951</v>
+        <v>-155.8557381245913</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-155.9879243931818</v>
+        <v>-155.969814119048</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-156.6674625791466</v>
+        <v>-156.633774369117</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-157.9807223075591</v>
+        <v>-157.9273837720771</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-160.1369509170999</v>
+        <v>-160.0538045570758</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-163.647746791137</v>
+        <v>-163.5054643697113</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-169.9058925423165</v>
+        <v>-169.5839540993546</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-173.0365100046195</v>
+        <v>-172.9566230865146</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-165.5765375880545</v>
+        <v>-165.649368236553</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-161.4169999557858</v>
+        <v>-161.4605443179114</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-158.950210928602</v>
+        <v>-158.9706921253483</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-157.4446741143708</v>
+        <v>-157.4469689449208</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-156.6097502383039</v>
+        <v>-156.5956613455228</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-156.3190677078958</v>
+        <v>-156.2882671434369</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-156.5284939513144</v>
+        <v>-156.4786487152933</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-157.2534994772672</v>
+        <v>-157.1796215099174</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-158.5773572706958</v>
+        <v>-158.4697637920978</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-160.7000563898435</v>
+        <v>-160.5388522287411</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-164.0987883196402</v>
+        <v>-163.8367256048746</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-170.069257366082</v>
+        <v>-169.589171118648</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-174.4516720886875</v>
+        <v>-175.0375187716978</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-166.8182986228573</v>
+        <v>-167.302792523984</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-162.4293100057956</v>
+        <v>-162.73336801385</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-159.8119903844649</v>
+        <v>-160.0361927785091</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-158.1709068076435</v>
+        <v>-158.3513521065093</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-157.1906269141035</v>
+        <v>-157.3436153593915</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-156.7289913978954</v>
+        <v>-156.8631664531909</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-156.7250908817348</v>
+        <v>-156.8455913508131</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-157.1695296156242</v>
+        <v>-157.2797388478456</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-158.1005588823111</v>
+        <v>-158.2031282177263</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-159.6220674584552</v>
+        <v>-159.7201757114139</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-161.9628413384412</v>
+        <v>-162.0641463013275</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-165.6588022147267</v>
+        <v>-165.7989516019067</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-172.0000676336743</v>
+        <v>-172.5284404277405</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-173.5451158151673</v>
+        <v>-174.7556423976154</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-166.7515244507098</v>
+        <v>-167.1552833482738</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-162.7948743639293</v>
+        <v>-163.0513011688429</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-160.3545108171452</v>
+        <v>-160.5633026816471</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-158.7877949983453</v>
+        <v>-158.9768009698567</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-157.8229348842302</v>
+        <v>-158.0039543810324</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-157.3314413732332</v>
+        <v>-157.5112409363663</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-157.2538808543485</v>
+        <v>-157.4375803785513</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-157.5737618754794</v>
+        <v>-157.7664267097577</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-158.311443357591</v>
+        <v>-158.5194723746275</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-159.5325231037486</v>
+        <v>-159.7658710522379</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-161.3784943827292</v>
+        <v>-161.6562383455354</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-164.1544707066384</v>
+        <v>-164.5238121794501</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-168.6052826562289</v>
+        <v>-169.2418297173536</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-175.9162349726147</v>
+        <v>-177.859370292869</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-172.2523958492039</v>
+        <v>-172.5515767660831</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-166.4477914764126</v>
+        <v>-166.5196460106705</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-163.0800111551849</v>
+        <v>-163.1563688709853</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-160.933838019354</v>
+        <v>-161.0314612503659</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-159.5274661821405</v>
+        <v>-159.6481881764137</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-158.6458962254693</v>
+        <v>-158.7908401285509</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-158.1824645365524</v>
+        <v>-158.3539670410512</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-158.0847359814479</v>
+        <v>-158.2869501164074</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-158.3341355635276</v>
+        <v>-158.5737730727777</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-158.939818904009</v>
+        <v>-159.2276221666424</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-159.9420084090771</v>
+        <v>-160.2957118016915</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-161.42735396125</v>
+        <v>-161.8785339019543</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-163.5706432031204</v>
+        <v>-164.1827461069611</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-166.7556397623073</v>
+        <v>-167.6842758968626</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-172.0032396964405</v>
+        <v>-173.7770397145586</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-180.1939735060176</v>
+        <v>-180.6716311567376</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-173.07109624012</v>
+        <v>-171.7107193268431</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-167.7820788940306</v>
+        <v>-166.9575797639539</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-164.7512978084764</v>
+        <v>-164.1681492893355</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-162.8333691452198</v>
+        <v>-162.3780534769655</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-161.6117065203416</v>
+        <v>-161.229745172357</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-160.9073221833139</v>
+        <v>-160.563680375906</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-160.6491666785757</v>
+        <v>-160.3096426448782</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-160.8533756117593</v>
+        <v>-160.4586150326122</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-161.7631248735216</v>
+        <v>-161.0932976751119</v>
       </c>
     </row>
     <row r="701">
@@ -6035,15 +6035,17 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-176.6932703545829</v>
+        <v>-162.8559508917878</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
         <v>2.446178929380262</v>
       </c>
-      <c r="B702" t="n">
-        <v>-174.5003543859776</v>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="703">

--- a/RT_radpat_40deg.xlsx
+++ b/RT_radpat_40deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-160.485049224357</v>
+        <v>-160.1141847743588</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-159.8488624734274</v>
+        <v>-159.48469826204</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-159.2095823123796</v>
+        <v>-158.8577652726969</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-158.5771289454877</v>
+        <v>-158.2413058111504</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-157.9586833110027</v>
+        <v>-157.6410249086051</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-157.3593053460388</v>
+        <v>-157.0609304856396</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-156.7824509801835</v>
+        <v>-156.5037667591156</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-156.2304422172029</v>
+        <v>-155.9713920996276</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-155.7047972161576</v>
+        <v>-155.465041761142</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-155.2064972997991</v>
+        <v>-154.985526308422</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-154.7361626116386</v>
+        <v>-154.5333911488362</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-154.2942166978182</v>
+        <v>-154.1090261527926</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-153.8809442445346</v>
+        <v>-153.7127339844878</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-153.4966004411155</v>
+        <v>-153.3447958705452</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-153.1414359045508</v>
+        <v>-153.0055184519551</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-152.8157483168171</v>
+        <v>-152.6952574046051</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-152.519909177807</v>
+        <v>-152.4144462421602</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-152.2543833490281</v>
+        <v>-152.1636176043598</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-152.0197531616789</v>
+        <v>-151.9434278281182</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-151.8167359542194</v>
+        <v>-151.7546672996783</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-151.6462046256705</v>
+        <v>-151.5982854432506</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-151.5092084871649</v>
+        <v>-151.4754103417931</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-151.406996152851</v>
+        <v>-151.387374232502</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-151.3410405542234</v>
+        <v>-151.3357443752678</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-151.3130776586055</v>
+        <v>-151.3223540398797</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-151.3251432834325</v>
+        <v>-151.3493447566825</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-151.3796268503271</v>
+        <v>-151.4192272221975</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-151.4793198005569</v>
+        <v>-151.5349357393189</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-151.6275053358988</v>
+        <v>-151.6999074498414</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-151.8280355010866</v>
+        <v>-151.9181826410397</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-152.0854556152347</v>
+        <v>-152.1945178354624</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-152.4051193179242</v>
+        <v>-152.5345162379887</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-152.7933479724986</v>
+        <v>-152.9447760692933</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-153.2575661115263</v>
+        <v>-153.4330263736796</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-153.8064018814337</v>
+        <v>-154.0081804991668</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-154.4496134274935</v>
+        <v>-154.6801583043806</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-155.197530849031</v>
+        <v>-155.4590786676834</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-156.0593051120836</v>
+        <v>-156.3528730558828</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-157.0382001808142</v>
+        <v>-157.3611240440777</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-158.1200075658198</v>
+        <v>-158.460357680695</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-159.2472491206346</v>
+        <v>-159.5728345183643</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-160.2734495320834</v>
+        <v>-160.5184550178608</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-160.9294726408575</v>
+        <v>-161.0051821924922</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-160.9265597639428</v>
+        <v>-160.7908181350473</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-160.2210702150114</v>
+        <v>-159.9294225155088</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-159.065768997963</v>
+        <v>-158.7104526443758</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-157.7555524530987</v>
+        <v>-157.3995281055297</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-156.4697469408154</v>
+        <v>-156.1414392469742</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-155.2856912269849</v>
+        <v>-154.9942060275757</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-154.227510688456</v>
+        <v>-153.9736939631906</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-153.2970572224354</v>
+        <v>-153.0788130310525</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-152.4883458797186</v>
+        <v>-152.3028348635697</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-151.7935639659933</v>
+        <v>-151.6380579988187</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-151.2054094816184</v>
+        <v>-151.0775758263829</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-150.7179139224116</v>
+        <v>-150.6158815294446</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-150.3266620839998</v>
+        <v>-150.2490121370258</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-150.0288057905057</v>
+        <v>-149.974548267304</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-149.8230321121695</v>
+        <v>-149.7915736204513</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-149.7095435292813</v>
+        <v>-149.7006786265229</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-149.6901049707235</v>
+        <v>-149.7040118253193</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-149.7681375969763</v>
+        <v>-149.8054066060243</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-149.9489322115946</v>
+        <v>-150.0106012066678</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-150.2399407303045</v>
+        <v>-150.3275673966157</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-150.651205363819</v>
+        <v>-150.7669517685811</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-151.1958815312985</v>
+        <v>-151.3426131908365</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-151.8907770907198</v>
+        <v>-152.0721187209564</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-152.7564664454523</v>
+        <v>-152.976623046065</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-153.8156060378756</v>
+        <v>-154.0783779467941</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-155.0848931983999</v>
+        <v>-155.3899948335016</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-156.5465494970362</v>
+        <v>-156.8779819455644</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-158.0632531387311</v>
+        <v>-158.3597649225525</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-159.2100386064493</v>
+        <v>-159.3366014444691</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-159.3179691711703</v>
+        <v>-159.1743595799095</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-158.2454180284474</v>
+        <v>-157.9272143976301</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-156.6050493458783</v>
+        <v>-156.253288668542</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-154.933740007205</v>
+        <v>-154.6131522943494</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-153.4398818661946</v>
+        <v>-153.1665506331566</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-152.1674938153108</v>
+        <v>-151.9409599370233</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-151.1086979604377</v>
+        <v>-150.924527279555</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-150.2445103273041</v>
+        <v>-150.0981319855179</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-149.5570182297711</v>
+        <v>-149.4447006415928</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-149.0324238678738</v>
+        <v>-148.9514170584112</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-148.661406604271</v>
+        <v>-148.6098749908912</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-148.4388926145535</v>
+        <v>-148.4158265012237</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-148.3638191770702</v>
+        <v>-148.3689833606478</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-148.4391221786798</v>
+        <v>-148.4730527203134</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-148.6720041443399</v>
+        <v>-148.7360736078364</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-149.0745542299798</v>
+        <v>-149.1710871711917</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-149.6647119900126</v>
+        <v>-149.7971635786728</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-150.4674413166413</v>
+        <v>-150.6405316235006</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-151.5151969657491</v>
+        <v>-151.7346605663662</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-152.8438216393366</v>
+        <v>-153.114285446521</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-154.4682735548954</v>
+        <v>-154.7836804079975</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-156.2820353294179</v>
+        <v>-156.591253433054</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-157.7660987102929</v>
+        <v>-157.9098799169526</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-157.8829000006162</v>
+        <v>-157.7183633000018</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-156.4454565353359</v>
+        <v>-156.1134469494237</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-154.4673049911988</v>
+        <v>-154.1325315040575</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-152.6167140555518</v>
+        <v>-152.3315204658408</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-151.0644419056643</v>
+        <v>-150.834090562979</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-149.8130475053099</v>
+        <v>-149.6321297104847</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-148.8317090180009</v>
+        <v>-148.6940628972858</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-148.0908157695</v>
+        <v>-147.9916123515892</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-147.568802717422</v>
+        <v>-147.5047451973033</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-147.252502662741</v>
+        <v>-147.2216749723686</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-147.1364665406313</v>
+        <v>-147.1381952389473</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-147.2225950247523</v>
+        <v>-147.2574045398954</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-147.5204096212937</v>
+        <v>-147.5900994001771</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-148.048106530163</v>
+        <v>-148.1559457962445</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-148.8343311241057</v>
+        <v>-148.9853232528241</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-149.9198692943725</v>
+        <v>-150.1207482088566</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-151.3546223768798</v>
+        <v>-151.6119276628144</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-153.167269320401</v>
+        <v>-153.4758829119271</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-155.2101464846127</v>
+        <v>-155.5041488801111</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-156.6697611544411</v>
+        <v>-156.7379551578763</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-156.1808294094478</v>
+        <v>-155.9308881455377</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-154.1698276054768</v>
+        <v>-153.8300078833464</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-151.9927623855016</v>
+        <v>-151.6923283722371</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-150.1500927645685</v>
+        <v>-149.9105480597693</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-148.6941223589516</v>
+        <v>-148.5105401265845</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-147.5848489508999</v>
+        <v>-147.4495488982669</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-146.7792647311618</v>
+        <v>-146.686275900218</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-146.2468882594375</v>
+        <v>-146.1923464206624</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-145.9704349803031</v>
+        <v>-145.9523593180413</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-145.9446135223956</v>
+        <v>-145.9627096527231</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-146.175677090342</v>
+        <v>-146.2313325541601</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-146.6823266986397</v>
+        <v>-146.7788053866855</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-147.4980149346592</v>
+        <v>-147.6408080963315</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-148.6736629582538</v>
+        <v>-148.8705734129064</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-150.2736201568579</v>
+        <v>-150.5321822049308</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-152.3242733148436</v>
+        <v>-152.633577359662</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-154.522532229097</v>
+        <v>-154.7712673356877</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-155.4723795185236</v>
+        <v>-155.3966070201749</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-153.9853045313834</v>
+        <v>-153.6669005149779</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-151.5665722160907</v>
+        <v>-151.2486616520801</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-149.4043052430957</v>
+        <v>-149.1495824249807</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-147.7079253402794</v>
+        <v>-147.5156956422665</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-146.4398029206919</v>
+        <v>-146.301022248434</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-145.5415090851244</v>
+        <v>-145.4488451411958</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-144.9712409342443</v>
+        <v>-144.9200875726574</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-144.7061584967429</v>
+        <v>-144.6943273942613</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-144.7405053131454</v>
+        <v>-144.7679794471883</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-145.0850628764323</v>
+        <v>-145.1540246570671</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-145.7688719630117</v>
+        <v>-145.8840342215531</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-146.8429954147664</v>
+        <v>-147.0120290742066</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-148.3818586944467</v>
+        <v>-148.614384662405</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-150.4509688145835</v>
+        <v>-150.746375345547</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-152.857077136318</v>
+        <v>-153.1317459658937</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-154.2039791067637</v>
+        <v>-154.169879496546</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-152.7574018548106</v>
+        <v>-152.4445832228502</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-150.1508637089077</v>
+        <v>-149.8385343413239</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-147.8605761335089</v>
+        <v>-147.6164475094948</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-146.1116374882781</v>
+        <v>-145.9325384097169</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-144.8461320254672</v>
+        <v>-144.7218068864238</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-143.9942492356933</v>
+        <v>-143.9171673651311</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-143.5108405687974</v>
+        <v>-143.4767509066443</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-143.3754144265394</v>
+        <v>-143.3829009946996</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-143.5897943159164</v>
+        <v>-143.6400919649169</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-144.1786979407209</v>
+        <v>-144.2759308674372</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-145.1938065078336</v>
+        <v>-145.3455524602042</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-146.718071783258</v>
+        <v>-146.9350708484547</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-148.8413296932402</v>
+        <v>-149.127434136886</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-151.4064686040316</v>
+        <v>-151.6848689203108</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-152.8630413857425</v>
+        <v>-152.8204493813584</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-151.1864774253516</v>
+        <v>-150.8672549510951</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-148.3944115694424</v>
+        <v>-148.0929706295303</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-146.0489566688737</v>
+        <v>-145.8209978127313</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-144.3136575371053</v>
+        <v>-144.1515720041567</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-143.1036507786141</v>
+        <v>-142.996428080822</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-142.3419362556614</v>
+        <v>-142.2824067871427</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-141.984832506241</v>
+        <v>-141.9695604473418</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-142.0189860816366</v>
+        <v>-142.0477779745645</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-142.4595397109104</v>
+        <v>-142.5354515995356</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-143.3532749687338</v>
+        <v>-143.4831874491773</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-144.7855083300923</v>
+        <v>-144.9805960345724</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-146.8706292198574</v>
+        <v>-147.1404762242388</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-149.5567449103216</v>
+        <v>-149.8502203121618</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-151.4254125845845</v>
+        <v>-151.4276504576249</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-149.8470317407962</v>
+        <v>-149.5304917689388</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-146.8664173729958</v>
+        <v>-146.565819652292</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-144.3916467529742</v>
+        <v>-144.1686445042505</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-142.5983992014991</v>
+        <v>-142.4433367274038</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-141.3808735080653</v>
+        <v>-141.2818354100171</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-140.6522622479371</v>
+        <v>-140.6020284578607</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-140.3677174024317</v>
+        <v>-140.3633193702652</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-140.5194425874607</v>
+        <v>-140.5616511929108</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-141.135674091011</v>
+        <v>-141.2292239095397</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-142.2869240629012</v>
+        <v>-142.4414096072936</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-144.0938595404096</v>
+        <v>-144.3232378077934</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-146.6667261105535</v>
+        <v>-146.9668116287872</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-149.4027748902856</v>
+        <v>-149.5796057801909</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-149.1709178048662</v>
+        <v>-148.9124896259769</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-146.0950490772289</v>
+        <v>-145.7718327535108</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-143.2467756979357</v>
+        <v>-143.0026434597999</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-141.1732994481251</v>
+        <v>-141.0037996552381</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-139.7643375323989</v>
+        <v>-139.6552203296154</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-138.907139018787</v>
+        <v>-138.8495019068412</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-138.5416180908959</v>
+        <v>-138.5316561052294</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-138.6540418635885</v>
+        <v>-138.6923019127596</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-139.2746550810468</v>
+        <v>-139.3662579321522</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-140.4856128571529</v>
+        <v>-140.6414358883355</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-142.4329205163767</v>
+        <v>-142.6692709461111</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-145.2413800614365</v>
+        <v>-145.5485017421421</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-147.9297561234212</v>
+        <v>-148.0307041182229</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-146.6892933770453</v>
+        <v>-146.3700563503486</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-143.2460656338559</v>
+        <v>-142.9367955078366</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-140.4457604534447</v>
+        <v>-140.2241567049215</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-138.4854172862203</v>
+        <v>-138.3363993555151</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-137.2039478864402</v>
+        <v>-137.1133430644025</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-136.4912259194314</v>
+        <v>-136.4515690130532</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-136.300371266737</v>
+        <v>-136.3096373717211</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-136.638214101761</v>
+        <v>-136.6993656175063</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-137.5683622595093</v>
+        <v>-137.6903322727386</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-139.2291972925019</v>
+        <v>-139.4288391203194</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-141.8318648980565</v>
+        <v>-142.1251684953703</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-145.118976092187</v>
+        <v>-145.3650581278953</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-145.3297834873268</v>
+        <v>-145.0591329552586</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-141.6515904994209</v>
+        <v>-141.3093406523587</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-138.3877852546259</v>
+        <v>-138.1411656636034</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-136.1018007480625</v>
+        <v>-135.9354027527316</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-134.5901521591491</v>
+        <v>-134.4861465902565</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-133.7066902947012</v>
+        <v>-133.6557159507614</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-133.3874453713901</v>
+        <v>-133.3866783063165</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-133.6346049411637</v>
+        <v>-133.686987172594</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-134.5191252732102</v>
+        <v>-134.6346284478045</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-136.2078486958378</v>
+        <v>-136.4068989325222</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-138.9882742802681</v>
+        <v>-139.2960011721867</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-142.5976025300018</v>
+        <v>-142.834843313834</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-141.9910780621816</v>
+        <v>-141.6315147000595</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-137.6178414313893</v>
+        <v>-137.265755808736</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-134.1813418918588</v>
+        <v>-133.9372094046896</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-131.8187437536042</v>
+        <v>-131.6543086637367</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-130.251260358275</v>
+        <v>-130.1476460679596</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-129.3255333589375</v>
+        <v>-129.2741249735718</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-128.9866116454295</v>
+        <v>-128.9860320827537</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-129.2588172247832</v>
+        <v>-129.3146897837213</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-130.2611969703298</v>
+        <v>-130.3893225479323</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-132.2727146189842</v>
+        <v>-132.5074172064662</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-135.7961524075421</v>
+        <v>-136.1720729898008</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-138.9611220684383</v>
+        <v>-138.8403539165613</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-134.2077998586716</v>
+        <v>-133.7197397724241</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-129.2023153175745</v>
+        <v>-128.8568260725666</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-125.6570204876139</v>
+        <v>-125.4086581823661</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-123.043879410886</v>
+        <v>-122.8576199495012</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-121.0535541532744</v>
+        <v>-120.9111343672224</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-119.5215679320559</v>
+        <v>-119.4128592648967</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-118.3543777913785</v>
+        <v>-118.2733803974986</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-117.4959290753863</v>
+        <v>-117.4389528827915</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-116.9120794303662</v>
+        <v>-116.8768625395423</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-116.5829105586292</v>
+        <v>-116.5681733871649</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-116.498878239497</v>
+        <v>-116.5041046832736</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-116.6591085786338</v>
+        <v>-116.6844672729964</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-117.0711804220778</v>
+        <v>-117.1175579480694</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-117.7523131808353</v>
+        <v>-117.8214722296349</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-118.7324069168095</v>
+        <v>-118.8273323818317</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-120.0602125781984</v>
+        <v>-120.1858023769912</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-121.8157164654964</v>
+        <v>-121.9801990692307</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-124.1363946773821</v>
+        <v>-124.3544409812453</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-127.2768456215171</v>
+        <v>-127.5767389208345</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-131.7298202563382</v>
+        <v>-132.1625841789448</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-137.6030914406008</v>
+        <v>-137.9745206600511</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-136.9751488606998</v>
+        <v>-136.602298649707</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-132.7799277156726</v>
+        <v>-132.526330735826</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-130.304782519011</v>
+        <v>-130.1695967554853</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-129.0585042840174</v>
+        <v>-129.0008149996056</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-128.6720459855196</v>
+        <v>-128.6734003533192</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-128.9944597038013</v>
+        <v>-129.0486648321651</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-130.0019847473754</v>
+        <v>-130.1112460908542</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-131.7793120505457</v>
+        <v>-131.9550181652786</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-134.5547239974136</v>
+        <v>-134.8217397652883</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-138.7017891265052</v>
+        <v>-139.0778784508671</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-142.731170969633</v>
+        <v>-142.7850008614836</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-140.102302653834</v>
+        <v>-139.7800755383131</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-136.4908484998149</v>
+        <v>-136.2767371240116</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-134.2919852939715</v>
+        <v>-134.1727880062534</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-133.1577273857029</v>
+        <v>-133.1072516930647</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-132.840979991658</v>
+        <v>-132.8470994382815</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-133.2480191848927</v>
+        <v>-133.3080204982236</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-134.396552041729</v>
+        <v>-134.5157271392937</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-136.4204087027119</v>
+        <v>-136.6139941060206</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-139.5988227523252</v>
+        <v>-139.8905905600655</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-143.8863318171024</v>
+        <v>-144.1734612833179</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-144.593082312224</v>
+        <v>-144.3550885010642</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-140.8228245897991</v>
+        <v>-140.563057359089</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-137.9689161631827</v>
+        <v>-137.8099796558101</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-136.3209041291847</v>
+        <v>-136.2382767712884</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-135.5893595847583</v>
+        <v>-135.566797972709</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-135.6284659817039</v>
+        <v>-135.6600385137386</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-136.4141422167984</v>
+        <v>-136.5019148501691</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-138.0332362008007</v>
+        <v>-138.187949614504</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-140.7062855492154</v>
+        <v>-140.9483046117427</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-144.6191975580878</v>
+        <v>-144.9235180692355</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-147.0751435171616</v>
+        <v>-146.9845497088852</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-143.9081442601994</v>
+        <v>-143.6333898471624</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-140.6748273111043</v>
+        <v>-140.4930669563632</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-138.6952665930962</v>
+        <v>-138.5941661663619</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-137.7072528557762</v>
+        <v>-137.6686313048649</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-137.5328899096646</v>
+        <v>-137.548936930851</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-138.1233724324393</v>
+        <v>-138.1944980229673</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-139.5430156921336</v>
+        <v>-139.6779134169954</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-141.9861324507729</v>
+        <v>-142.2029058600704</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-145.6738714141537</v>
+        <v>-145.9641902241302</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-148.6480757490021</v>
+        <v>-148.6330110500218</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-145.9683021235398</v>
+        <v>-145.6965690236075</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-142.5883756298396</v>
+        <v>-142.399436431829</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-140.4585535506532</v>
+        <v>-140.3510859913376</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-139.3605220606602</v>
+        <v>-139.3161912508843</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-139.1049911096085</v>
+        <v>-139.1154416169614</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-139.6349864101201</v>
+        <v>-139.7001988447825</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-141.0107970216456</v>
+        <v>-141.1390264092344</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-143.4248259325195</v>
+        <v>-143.6334403476404</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-147.087091853371</v>
+        <v>-147.3655518153395</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-149.9504274188394</v>
+        <v>-149.9245502067403</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-147.1967820438823</v>
+        <v>-146.9324611055633</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-143.8336812626852</v>
+        <v>-143.6510051614072</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-141.7257256047463</v>
+        <v>-141.6224794980028</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-140.6549110866291</v>
+        <v>-140.6136531000295</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-140.4385607955597</v>
+        <v>-140.4516275745671</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-141.0280330695419</v>
+        <v>-141.0960739184925</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-142.4968182398683</v>
+        <v>-142.6289522964938</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-145.0556548129778</v>
+        <v>-145.2694680163107</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-148.8471642042186</v>
+        <v>-149.112165544279</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-150.9996330716617</v>
+        <v>-150.8970142981646</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-147.7447621721142</v>
+        <v>-147.4929009996558</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-144.549770015427</v>
+        <v>-144.3842133511322</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-142.6148259586882</v>
+        <v>-142.5243546318181</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-141.6928494295153</v>
+        <v>-141.6618792098143</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-141.6247073874117</v>
+        <v>-141.6473289181855</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-142.3860163152688</v>
+        <v>-142.4645534321211</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-144.0811574959056</v>
+        <v>-144.2268099638172</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-146.9539082540621</v>
+        <v>-147.1837298390617</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-150.8906885413917</v>
+        <v>-151.1138475810232</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-151.4621987432356</v>
+        <v>-151.2607985600318</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-147.7593054581205</v>
+        <v>-147.5317295946596</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-144.8961747290187</v>
+        <v>-144.7556698999785</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-143.2553308211617</v>
+        <v>-143.1838853670209</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-142.5838933077006</v>
+        <v>-142.56891135619</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-142.7626138465187</v>
+        <v>-142.800796163874</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-143.8068131084641</v>
+        <v>-143.9031424551418</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-145.8710947501814</v>
+        <v>-146.0399169100344</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-149.2205928869827</v>
+        <v>-149.4709048037087</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-152.8492372704328</v>
+        <v>-152.9402297004952</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-151.0984425925559</v>
+        <v>-150.8463427101746</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-147.435186831907</v>
+        <v>-147.2436860007069</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-145.0392725807448</v>
+        <v>-144.9285343442426</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-143.7797379944348</v>
+        <v>-143.7314979319857</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-143.4420474941738</v>
+        <v>-143.4475901194004</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-143.9607357812638</v>
+        <v>-144.0200814806199</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-145.4073516449432</v>
+        <v>-145.5292327274096</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-148.0057354946678</v>
+        <v>-148.2075262217577</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-151.8879904252051</v>
+        <v>-152.1332921728106</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-153.7018748161454</v>
+        <v>-153.569050460292</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-150.1455093496928</v>
+        <v>-149.9095121082119</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-146.9868450077196</v>
+        <v>-146.8369583856466</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-145.1334520239342</v>
+        <v>-145.0544228010885</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-144.3140074052584</v>
+        <v>-144.291707209797</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-144.3821744405532</v>
+        <v>-144.4122267276868</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-145.338325017464</v>
+        <v>-145.4248237044412</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-147.3306456687516</v>
+        <v>-147.4872104406483</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-150.6422524251124</v>
+        <v>-150.8810596328101</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-154.4350752443322</v>
+        <v>-154.5418451418625</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-152.8266636867429</v>
+        <v>-152.5799478644786</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-149.054013462767</v>
+        <v>-148.8656416315503</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-146.5941932318707</v>
+        <v>-146.4857776802375</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-145.3093316284474</v>
+        <v>-145.2623266977846</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-144.9733946796284</v>
+        <v>-144.9791701395325</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-145.5205986938728</v>
+        <v>-145.5794219157743</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-147.0320569599842</v>
+        <v>-147.1531494055656</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-149.7537373975592</v>
+        <v>-149.9550019625353</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-153.7733893111217</v>
+        <v>-154.003887939642</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-155.0304080844988</v>
+        <v>-154.8604628894306</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-151.1967834783998</v>
+        <v>-150.9738567771827</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-148.13021592767</v>
+        <v>-147.9931984441673</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-146.3846761035037</v>
+        <v>-146.315055465666</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-145.6734143267472</v>
+        <v>-145.6583268703833</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-145.8649759549494</v>
+        <v>-145.9012848406626</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-146.9819925461277</v>
+        <v>-147.0752058562614</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-149.209260064651</v>
+        <v>-149.3748519135483</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-152.8432393438849</v>
+        <v>-153.0854978265281</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-156.1797996286402</v>
+        <v>-156.1833971806592</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-153.3504220430273</v>
+        <v>-153.1058167379427</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-149.7245671545279</v>
+        <v>-149.5594941794149</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-147.5151069656621</v>
+        <v>-147.4242015094404</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-146.4448369682902</v>
+        <v>-146.411220307624</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-146.3156189403165</v>
+        <v>-146.3329239575763</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-147.0961763845611</v>
+        <v>-147.1667853005168</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-148.9137134278021</v>
+        <v>-149.0495775660785</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-152.0705895426345</v>
+        <v>-152.2893251776002</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-156.2112433326263</v>
+        <v>-156.3722933019346</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-155.3933968405397</v>
+        <v>-155.1587095381988</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-151.3725982804197</v>
+        <v>-151.1802428370004</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-148.6904949615341</v>
+        <v>-148.5790129457521</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-147.2669805333659</v>
+        <v>-147.2163867501919</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-146.8383205087875</v>
+        <v>-146.8390298939418</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-147.3204641798235</v>
+        <v>-147.3720994965677</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-148.7889855129326</v>
+        <v>-148.9002170901354</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-151.5026133647958</v>
+        <v>-151.6920751534687</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-155.6420383273283</v>
+        <v>-155.8721671904685</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-157.1033660389654</v>
+        <v>-156.9370993393403</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-153.0791996135881</v>
+        <v>-152.861470498208</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-149.9141797898866</v>
+        <v>-149.7821819331542</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-148.1324542813352</v>
+        <v>-148.0657495012147</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-147.4142493057367</v>
+        <v>-147.3999351049292</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-147.621116536368</v>
+        <v>-147.6562270306299</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-148.7808704150922</v>
+        <v>-148.8711867025575</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-151.0992991061952</v>
+        <v>-151.2611179318461</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-154.9153292444821</v>
+        <v>-155.1535015246415</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-158.178846688066</v>
+        <v>-158.1472605394587</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-154.8514453325346</v>
+        <v>-154.6137686433545</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-151.2029068004038</v>
+        <v>-151.0497716660876</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-149.0455933726025</v>
+        <v>-148.9629614251211</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-148.0365577120247</v>
+        <v>-148.0080697813212</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-147.978977730637</v>
+        <v>-147.9990999962149</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-148.8540656221972</v>
+        <v>-148.9259584297382</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-150.8150369946214</v>
+        <v>-150.9518714889857</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-154.2125367518622</v>
+        <v>-154.4327683137737</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-158.4351096668624</v>
+        <v>-158.5523636105068</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-156.6766264027088</v>
+        <v>-156.4337191406329</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-152.587903137021</v>
+        <v>-152.4122715469269</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-150.0223758918681</v>
+        <v>-149.9232697642643</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-148.7088167744951</v>
+        <v>-148.6664048259597</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-148.3862626781135</v>
+        <v>-148.3922768955636</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-148.9875918459712</v>
+        <v>-149.0427299028984</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-150.6150632686702</v>
+        <v>-150.7293336377807</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-153.5774731881732</v>
+        <v>-153.7714212387519</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-157.9928896761048</v>
+        <v>-158.204040725812</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-158.460412694239</v>
+        <v>-158.249810186944</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-154.1166061269362</v>
+        <v>-153.916631669105</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-151.092134663692</v>
+        <v>-150.975069657036</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-149.4452091843038</v>
+        <v>-149.388409765388</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-148.845471237372</v>
+        <v>-148.8375841933729</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-149.1724288734835</v>
+        <v>-149.2116908003093</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-150.4777889218504</v>
+        <v>-150.5711740817808</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-153.0100278147443</v>
+        <v>-153.1757869448716</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-157.1481830753027</v>
+        <v>-157.3855879195273</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-159.8991871785308</v>
+        <v>-159.7957479846601</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-155.8517520764009</v>
+        <v>-155.6265409215948</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-152.3014000548462</v>
+        <v>-152.1637111064402</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-150.2721926685215</v>
+        <v>-150.1997605657587</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-149.3696054031786</v>
+        <v>-149.34742279496</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-149.4105058039125</v>
+        <v>-149.4341770552263</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-150.3941632688638</v>
+        <v>-150.467741596692</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-152.5033195451544</v>
+        <v>-152.6412861309191</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-156.1462085979699</v>
+        <v>-156.3686564667366</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-160.4377205867265</v>
+        <v>-160.5129209819999</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-157.850094090178</v>
+        <v>-157.606355514322</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-153.7207517185895</v>
+        <v>-153.5582412254924</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-151.2322579046875</v>
+        <v>-151.1419595146052</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-149.9838827918375</v>
+        <v>-149.9463759074737</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-149.7150719778647</v>
+        <v>-149.7229202949196</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-150.3673587570054</v>
+        <v>-150.4217254481691</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-152.0566531012214</v>
+        <v>-152.1679560712917</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-155.1267946331479</v>
+        <v>-155.3173495302419</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-159.7756651542069</v>
+        <v>-159.9863507313531</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-160.0407222356701</v>
+        <v>-159.8189656784438</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-155.4558225599314</v>
+        <v>-155.2626972294932</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-152.3916022990653</v>
+        <v>-152.2798100826513</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-150.7298295506155</v>
+        <v>-150.6751942556479</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-150.1128271964616</v>
+        <v>-150.1041205202804</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-150.4136444281164</v>
+        <v>-150.4490039310079</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-151.680393584956</v>
+        <v>-151.7662934877371</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-154.1638791836065</v>
+        <v>-154.3183606083265</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-158.3334360459678</v>
+        <v>-158.5694242165011</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-161.7654575013608</v>
+        <v>-161.6960140375109</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-157.6534152123221</v>
+        <v>-157.4244514023065</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-153.854408108774</v>
+        <v>-153.7149363293399</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-151.6728389588189</v>
+        <v>-151.5978271895307</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-150.647992873614</v>
+        <v>-150.6210920940023</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-150.5644251689809</v>
+        <v>-150.5803104732819</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-151.3982040534153</v>
+        <v>-151.4595855045302</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-153.3044708824825</v>
+        <v>-153.4237207221205</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-156.69235548783</v>
+        <v>-156.8941910137236</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-161.5550636599392</v>
+        <v>-161.7288614302043</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-160.4076394393989</v>
+        <v>-160.1631142626198</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-155.7888008686598</v>
+        <v>-155.612195838485</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-152.9165732943</v>
+        <v>-152.8160621144732</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-151.389895577146</v>
+        <v>-151.3422235039133</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-150.8702856395062</v>
+        <v>-150.8657001954738</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-151.2496007037651</v>
+        <v>-151.2870394006457</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-152.5911352371764</v>
+        <v>-152.6776295054831</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-155.1688970287855</v>
+        <v>-155.32349302689</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-159.5081391035808</v>
+        <v>-159.7463030816409</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-162.9170637900629</v>
+        <v>-162.8253156713226</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-158.4608367338922</v>
+        <v>-158.2354695191947</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-154.6330697240455</v>
+        <v>-154.4980829514968</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-152.4483007330612</v>
+        <v>-152.3753525743432</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-151.4092431484576</v>
+        <v>-151.3821130181483</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-151.2946516361704</v>
+        <v>-151.3080006384497</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-152.0746945857131</v>
+        <v>-152.1307945725006</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-153.893546663311</v>
+        <v>-154.0037653110807</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-157.1541628890299</v>
+        <v>-157.3438382479487</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-162.1858707695144</v>
+        <v>-162.398616809361</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-162.044109656594</v>
+        <v>-161.804286158173</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-157.1251040883232</v>
+        <v>-156.9399403213876</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-154.005998375185</v>
+        <v>-153.8995936364582</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-152.3034611061248</v>
+        <v>-152.2498534321032</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-151.6233638291623</v>
+        <v>-151.6113303614837</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-151.8245790109444</v>
+        <v>-151.8517376641611</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-152.936114135383</v>
+        <v>-153.0074111003949</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-155.1772534309081</v>
+        <v>-155.3082024237112</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-159.0705778445534</v>
+        <v>-159.2895731557717</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-164.0181241258155</v>
+        <v>-164.1020278831302</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-160.8861602238406</v>
+        <v>-160.6377896974362</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-156.3958315389949</v>
+        <v>-156.2401441883952</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-153.7568032906604</v>
+        <v>-153.6691512988544</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-152.3755388787325</v>
+        <v>-152.3349109766919</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-151.9426115771954</v>
+        <v>-151.940871828478</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-152.3677574644394</v>
+        <v>-152.4044351309712</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-153.7219401218593</v>
+        <v>-153.8039669089506</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-156.286060598112</v>
+        <v>-156.4323276995047</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-160.6685122988846</v>
+        <v>-160.9056710502949</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-164.8469784391431</v>
+        <v>-164.791470164816</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-160.265491406892</v>
+        <v>-160.0333872486564</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-156.1507549237321</v>
+        <v>-156.0126973710423</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-153.7879004057548</v>
+        <v>-153.7111507566652</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-152.5900294008847</v>
+        <v>-152.5567581563741</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-152.2960170947416</v>
+        <v>-152.2997564304356</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-152.8429215661366</v>
+        <v>-152.8841932002002</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-154.3245002377203</v>
+        <v>-154.4112335890727</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-157.0567382238805</v>
+        <v>-157.2096397085566</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-161.7006742488584</v>
+        <v>-161.9448365616603</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-165.3679217320602</v>
+        <v>-165.2504972133099</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-160.2983114023953</v>
+        <v>-160.0750985446986</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-156.3213477415884</v>
+        <v>-156.1905350536101</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-154.0506007919434</v>
+        <v>-153.9779709701321</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-152.9052079203344</v>
+        <v>-152.8740818094055</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-152.6385133235744</v>
+        <v>-152.6429260686677</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-153.193297706726</v>
+        <v>-153.2338883845765</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-154.6634407625684</v>
+        <v>-154.7479445631202</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-157.3609454953054</v>
+        <v>-157.5096413103676</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-161.972178232449</v>
+        <v>-162.2153763575028</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-166.1194683569064</v>
+        <v>-166.0286090643797</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-161.0480669924686</v>
+        <v>-160.8194355846724</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-156.9177166343837</v>
+        <v>-156.7838791510794</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-154.5500630609978</v>
+        <v>-154.4747993817244</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-153.3210654807633</v>
+        <v>-153.2867675714561</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-152.9638176262593</v>
+        <v>-152.9639434711568</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-153.4051403162372</v>
+        <v>-153.4395741821529</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-154.7155434475841</v>
+        <v>-154.7905915217269</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-157.1600510673484</v>
+        <v>-157.2929946607197</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-161.3764474561311</v>
+        <v>-161.6024940811642</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-166.7684962330673</v>
+        <v>-166.8269232268535</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-162.713479219353</v>
+        <v>-162.4622971242229</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-158.0578443197431</v>
+        <v>-157.908443347042</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-155.3625772239791</v>
+        <v>-155.2769324414165</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-153.8939531892753</v>
+        <v>-153.8507065882416</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-153.3188603714013</v>
+        <v>-153.3095844760792</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-153.5239604372423</v>
+        <v>-153.5469551512504</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-154.535879013369</v>
+        <v>-154.5950764026305</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-156.5406971710028</v>
+        <v>-156.6484756393395</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-160.0241491773047</v>
+        <v>-160.2102850123112</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-165.7335020732665</v>
+        <v>-165.977565445294</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-165.6464032144467</v>
+        <v>-165.379708079483</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-160.0495864057575</v>
+        <v>-159.8658140679517</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-156.6776167875358</v>
+        <v>-156.5713557639763</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-154.7618505316892</v>
+        <v>-154.7030684658108</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-153.8207049013644</v>
+        <v>-153.7970134107937</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-153.6654756071365</v>
+        <v>-153.672671721278</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-154.2609644427404</v>
+        <v>-154.3001171701965</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-155.7021967723224</v>
+        <v>-155.7804293027985</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-158.283714810465</v>
+        <v>-158.4196011308399</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-162.720903911505</v>
+        <v>-162.9542898838466</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-168.3276767247299</v>
+        <v>-168.3582197709905</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-163.6152260697134</v>
+        <v>-163.3642042175113</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-158.9131285162559</v>
+        <v>-158.7672505653119</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-156.201624177932</v>
+        <v>-156.1169057198376</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-154.6871911851792</v>
+        <v>-154.6423806053218</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-154.0289680309636</v>
+        <v>-154.0155668916041</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-154.1025527094616</v>
+        <v>-154.1182841818952</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-154.9109014600923</v>
+        <v>-154.9582296769124</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-156.5871898354393</v>
+        <v>-156.6750351788074</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-159.4947948907672</v>
+        <v>-159.6456224472601</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-164.4939448769113</v>
+        <v>-164.7505545521909</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-169.0277733147211</v>
+        <v>-168.8948414470116</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-163.0922072252501</v>
+        <v>-162.8629740678779</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-158.796183486089</v>
+        <v>-158.6646079353862</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-156.3161606550249</v>
+        <v>-156.239331888193</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-154.9338129019877</v>
+        <v>-154.8935831457634</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-154.3541204145023</v>
+        <v>-154.3432471646423</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-154.471107120458</v>
+        <v>-154.487792444259</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-155.2940371451386</v>
+        <v>-155.3408120077104</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-156.9542942806736</v>
+        <v>-157.0397414140351</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-159.8034107320871</v>
+        <v>-159.9490786607782</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-164.7023774264983</v>
+        <v>-164.9549537478237</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-170.0126067898065</v>
+        <v>-169.9310701640408</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-164.1086690117952</v>
+        <v>-163.8688741103622</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-159.5774017723622</v>
+        <v>-159.4405948378177</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-156.9595877955699</v>
+        <v>-156.8788290944365</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-155.4632730597858</v>
+        <v>-155.4189524503125</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-154.764802098614</v>
+        <v>-154.7489409093747</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-154.7397584778629</v>
+        <v>-154.7498562433819</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-155.3752474011659</v>
+        <v>-155.4127044586888</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-156.7625177107132</v>
+        <v>-156.8335413028447</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-159.1604627467801</v>
+        <v>-159.2807399451633</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-163.2194382290519</v>
+        <v>-163.4282603274833</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-169.8587448777839</v>
+        <v>-170.0851237686931</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-167.2165633128655</v>
+        <v>-166.9260250587107</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-161.5621836680224</v>
+        <v>-161.3944295857684</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-158.3265258517071</v>
+        <v>-158.2276977788667</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-156.4239343322787</v>
+        <v>-156.3659641643117</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-155.3909010162697</v>
+        <v>-155.3624505735386</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-155.0382959696288</v>
+        <v>-155.034897037358</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-155.3050037655971</v>
+        <v>-155.3260671129694</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-156.2201000239504</v>
+        <v>-156.2686041414002</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-157.9213531845202</v>
+        <v>-158.0057914203331</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-160.7564444850454</v>
+        <v>-160.8977555708431</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-165.6089915496712</v>
+        <v>-165.8590286698857</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-171.948719029952</v>
+        <v>-171.9384185626103</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-165.9660103890097</v>
+        <v>-165.7097388498939</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-161.0798367734819</v>
+        <v>-160.936024786512</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-158.2610017841295</v>
+        <v>-158.1746134536752</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-156.5872769067438</v>
+        <v>-156.536519682394</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-155.6917232200794</v>
+        <v>-155.6676094173209</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-155.422319766953</v>
+        <v>-155.4213105535515</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-155.7328158598068</v>
+        <v>-155.7546641852632</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-156.6561071018487</v>
+        <v>-156.7037541094772</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-158.3240909841011</v>
+        <v>-158.4054906266786</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-161.0614794146214</v>
+        <v>-161.1959823129951</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-165.6994393433071</v>
+        <v>-165.9375979709758</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-172.784920504003</v>
+        <v>-172.8976999000125</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-167.4830919392462</v>
+        <v>-167.2056278650405</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-162.1867105843401</v>
+        <v>-162.0333133737424</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-159.156710194173</v>
+        <v>-159.06424674233</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-157.3283062305613</v>
+        <v>-157.2721971179689</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-156.2864633846754</v>
+        <v>-156.2566137291345</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-155.8557381245913</v>
+        <v>-155.84787338908</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-155.969814119048</v>
+        <v>-155.9828389585564</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-156.633774369117</v>
+        <v>-156.6692145338305</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-157.9273837720771</v>
+        <v>-157.9902306882912</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-160.0538045570758</v>
+        <v>-160.1558756563457</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-163.5054643697113</v>
+        <v>-163.6766452317944</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-169.5839540993546</v>
+        <v>-169.8934128333963</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-172.9566230865146</v>
+        <v>-172.6511150813026</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-165.649368236553</v>
+        <v>-165.4336551870658</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-161.4605443179114</v>
+        <v>-161.3368065117519</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-158.9706921253483</v>
+        <v>-158.8939739862737</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-157.4469689449208</v>
+        <v>-157.4004151940416</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-156.5956613455228</v>
+        <v>-156.5719915127773</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-156.2882671434369</v>
+        <v>-156.2843932951131</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-156.4786487152933</v>
+        <v>-156.4939951657426</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-157.1796215099174</v>
+        <v>-157.2158426286812</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-158.4697637920978</v>
+        <v>-158.531635147845</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-160.5388522287411</v>
+        <v>-160.6373153599464</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-163.8367256048746</v>
+        <v>-163.9990124534989</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-169.589171118648</v>
+        <v>-169.8896442058201</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-175.0375187716978</v>
+        <v>-174.7870952345061</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-167.302792523984</v>
+        <v>-167.0652188279352</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-162.73336801385</v>
+        <v>-162.5996296567137</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-160.0361927785091</v>
+        <v>-159.9526620471679</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-158.3513521065093</v>
+        <v>-158.2987149384066</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-157.3436153593915</v>
+        <v>-157.3135603568755</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-156.8631664531909</v>
+        <v>-156.8519097938334</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-156.8455913508131</v>
+        <v>-156.8517890575549</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-157.2797388478456</v>
+        <v>-157.3038874739767</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-158.2031282177263</v>
+        <v>-158.24781761325</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-159.7201757114139</v>
+        <v>-159.7913756194617</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-162.0641463013275</v>
+        <v>-162.1753126782771</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-165.7989516019067</v>
+        <v>-165.9850846614654</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-172.5284404277405</v>
+        <v>-172.8798259336577</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-174.7556423976154</v>
+        <v>-174.3818088091164</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-167.1552833482738</v>
+        <v>-166.944351102742</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-163.0513011688429</v>
+        <v>-162.9288688731995</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-160.5633026816471</v>
+        <v>-160.4850781849365</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-158.9768009698567</v>
+        <v>-158.9264546881743</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-158.0039543810324</v>
+        <v>-157.9742036897135</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-157.5112409363663</v>
+        <v>-157.4986241394941</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-157.4375803785513</v>
+        <v>-157.440709661042</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-157.7664267097577</v>
+        <v>-157.7854310179245</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-158.5194723746275</v>
+        <v>-158.5560330198057</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-159.7658710522379</v>
+        <v>-159.8239871269816</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-161.6562383455354</v>
+        <v>-161.7444005477838</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-164.5238121794501</v>
+        <v>-164.6618142700139</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-169.2418297173536</v>
+        <v>-169.4871269929607</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-177.859370292869</v>
+        <v>-178.1577120357078</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-172.5515767660831</v>
+        <v>-172.2246495079166</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-166.5196460106705</v>
+        <v>-166.3508296752352</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-163.1563688709853</v>
+        <v>-163.052820354322</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-161.0314612503659</v>
+        <v>-160.9634879946144</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-159.6481881764137</v>
+        <v>-159.6038637544946</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-158.7908401285509</v>
+        <v>-158.7645360204693</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-158.3539670410512</v>
+        <v>-158.3428882608129</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-158.2869501164074</v>
+        <v>-158.289909856041</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-158.5737730727777</v>
+        <v>-158.5907716727818</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-159.2276221666424</v>
+        <v>-159.2598254906813</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-160.2957118016915</v>
+        <v>-160.3459178497544</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-161.8785339019543</v>
+        <v>-161.9523857480351</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-164.1827461069611</v>
+        <v>-164.2921945894532</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-167.6842758968626</v>
+        <v>-167.8593562921395</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-173.7770397145586</v>
+        <v>-174.1168177635708</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-180.6716311567376</v>
+        <v>-180.3598749639191</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-171.7107193268431</v>
+        <v>-171.4584303257901</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-166.9575797639539</v>
+        <v>-166.8192567477574</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-164.1681492893355</v>
+        <v>-164.0811739925947</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-162.3780534769655</v>
+        <v>-162.3216031575275</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-161.229745172357</v>
+        <v>-161.1950652212172</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-160.563680375906</v>
+        <v>-160.5468824670366</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-160.3096426448782</v>
+        <v>-160.309656158298</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-160.4586150326122</v>
+        <v>-160.4774065941407</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-161.0932976751119</v>
+        <v>-161.1412053716205</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-162.8559508917878</v>
+        <v>-163.0699613464374</v>
       </c>
     </row>
     <row r="702">

--- a/RT_radpat_40deg.xlsx
+++ b/RT_radpat_40deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-160.1141847743588</v>
+        <v>-160.1142229798675</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-159.48469826204</v>
+        <v>-159.4847341470271</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-158.8577652726969</v>
+        <v>-158.8577987120808</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-158.2413058111504</v>
+        <v>-158.2413372264471</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-157.6410249086051</v>
+        <v>-157.6410533987735</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-157.0609304856396</v>
+        <v>-157.0609548929622</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-156.5037667591156</v>
+        <v>-156.5037887048578</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-155.9713920996276</v>
+        <v>-155.9714131841126</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-155.465041761142</v>
+        <v>-155.4650617627442</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-154.985526308422</v>
+        <v>-154.9855446505229</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-154.5333911488362</v>
+        <v>-154.5334078023297</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-154.1090261527926</v>
+        <v>-154.1090408019355</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-153.7127339844878</v>
+        <v>-153.7127470541072</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-153.3447958705452</v>
+        <v>-153.3448090537462</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-153.0055184519551</v>
+        <v>-153.0055308781702</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-152.6952574046051</v>
+        <v>-152.6952683139279</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-152.4144462421602</v>
+        <v>-152.4144567618759</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-152.1636176043598</v>
+        <v>-152.1636271233743</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-151.9434278281182</v>
+        <v>-151.943435394196</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-151.7546672996783</v>
+        <v>-151.7546737742182</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-151.5982854432506</v>
+        <v>-151.5982904225841</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-151.4754103417931</v>
+        <v>-151.4754161149529</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-151.387374232502</v>
+        <v>-151.3873794067832</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-151.3357443752678</v>
+        <v>-151.3357476781726</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-151.3223540398797</v>
+        <v>-151.3223566579184</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-151.3493447566825</v>
+        <v>-151.3493473307483</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-151.4192272221975</v>
+        <v>-151.4192295850997</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-151.5349357393189</v>
+        <v>-151.5349369954016</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-151.6999074498414</v>
+        <v>-151.6999068705685</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-151.9181826410397</v>
+        <v>-151.9181827053904</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-152.1945178354624</v>
+        <v>-152.1945157145747</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-152.5345162379887</v>
+        <v>-152.5345130116286</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-152.9447760692933</v>
+        <v>-152.944770790377</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-153.4330263736796</v>
+        <v>-153.4330219646095</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-154.0081804991668</v>
+        <v>-154.0081732121037</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-154.6801583043806</v>
+        <v>-154.6801512868601</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-155.4590786676834</v>
+        <v>-155.4590699577574</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-156.3528730558828</v>
+        <v>-156.3528639134311</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-157.3611240440777</v>
+        <v>-157.3611143323533</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-158.460357680695</v>
+        <v>-158.4603490568557</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-159.5728345183643</v>
+        <v>-159.5728307880688</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-160.5184550178608</v>
+        <v>-160.5184613792848</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-161.0051821924922</v>
+        <v>-161.0051988122629</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-160.7908181350473</v>
+        <v>-160.7908493425506</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-159.9294225155088</v>
+        <v>-159.9294548880514</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-158.7104526443758</v>
+        <v>-158.7104891537776</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-157.3995281055297</v>
+        <v>-157.3995607537915</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-156.1414392469742</v>
+        <v>-156.1414704573633</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-154.9942060275757</v>
+        <v>-154.9942314714746</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-153.9736939631906</v>
+        <v>-153.9737156553542</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-153.0788130310525</v>
+        <v>-153.0788318711184</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-152.3028348635697</v>
+        <v>-152.3028523093966</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-151.6380579988187</v>
+        <v>-151.6380727657041</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-151.0775758263829</v>
+        <v>-151.0775886603772</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-150.6158815294446</v>
+        <v>-150.6158931002377</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-150.2490121370258</v>
+        <v>-150.2490221389276</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-149.974548267304</v>
+        <v>-149.9745559089721</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-149.7915736204513</v>
+        <v>-149.7915789332794</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-149.7006786265229</v>
+        <v>-149.7006839911894</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-149.7040118253193</v>
+        <v>-149.7040144229022</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-149.8054066060243</v>
+        <v>-149.8054077682569</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-150.0106012066678</v>
+        <v>-150.0106016879973</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-150.3275673966157</v>
+        <v>-150.3275667600831</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-150.7669517685811</v>
+        <v>-150.766949279575</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-151.3426131908365</v>
+        <v>-151.342609461333</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-152.0721187209564</v>
+        <v>-152.0721116026318</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-152.976623046065</v>
+        <v>-152.9766152955157</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-154.0783779467941</v>
+        <v>-154.078365392509</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-155.3899948335016</v>
+        <v>-155.3899807124197</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-156.8779819455644</v>
+        <v>-156.8779675280135</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-158.3597649225525</v>
+        <v>-158.3597487507737</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-159.3366014444691</v>
+        <v>-159.3365938912808</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-159.1743595799095</v>
+        <v>-159.1743618395389</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-157.9272143976301</v>
+        <v>-157.9272249474076</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-156.253288668542</v>
+        <v>-156.2533020901839</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-154.6131522943494</v>
+        <v>-154.6131625672784</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-153.1665506331566</v>
+        <v>-153.1665606752343</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-151.9409599370233</v>
+        <v>-151.9409671229558</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-150.924527279555</v>
+        <v>-150.9245339724525</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-150.0981319855179</v>
+        <v>-150.0981362239348</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-149.4447006415928</v>
+        <v>-149.4447046632489</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-148.9514170584112</v>
+        <v>-148.9514188641049</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-148.6098749908912</v>
+        <v>-148.6098747605054</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-148.4158265012237</v>
+        <v>-148.415824956131</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-148.3689833606478</v>
+        <v>-148.3689799136233</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-148.4730527203134</v>
+        <v>-148.4730486175805</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-148.7360736078364</v>
+        <v>-148.7360661868172</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-149.1710871711917</v>
+        <v>-149.1710785463303</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-149.7971635786728</v>
+        <v>-149.7971523767965</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-150.6405316235006</v>
+        <v>-150.6405197704572</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-151.7346605663662</v>
+        <v>-151.734645291593</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-153.114285446521</v>
+        <v>-153.1142678997456</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-154.7836804079975</v>
+        <v>-154.7836595005152</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-156.591253433054</v>
+        <v>-156.5912375809569</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-157.9098799169526</v>
+        <v>-157.9098772663586</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-157.7183633000018</v>
+        <v>-157.7183785105764</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-156.1134469494237</v>
+        <v>-156.113473945173</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-154.1325315040575</v>
+        <v>-154.1325555683719</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-152.3315204658408</v>
+        <v>-152.3315418760004</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-150.834090562979</v>
+        <v>-150.8341086466865</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-149.6321297104847</v>
+        <v>-149.6321415192833</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-148.6940628972858</v>
+        <v>-148.6940726983172</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-147.9916123515892</v>
+        <v>-147.9916189683815</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-147.5047451973033</v>
+        <v>-147.5047495558661</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-147.2216749723686</v>
+        <v>-147.2216762878826</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-147.1381952389473</v>
+        <v>-147.1381946225646</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-147.2574045398954</v>
+        <v>-147.2574015224246</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-147.5900994001771</v>
+        <v>-147.5900929808379</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-148.1559457962445</v>
+        <v>-148.1559361729319</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-148.9853232528241</v>
+        <v>-148.9853090620724</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-150.1207482088566</v>
+        <v>-150.1207297546031</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-151.6119276628144</v>
+        <v>-151.6119031098902</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-153.4758829119271</v>
+        <v>-153.4758511608784</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-155.5041488801111</v>
+        <v>-155.5041116074426</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-156.7379551578763</v>
+        <v>-156.7379282040671</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-155.9308881455377</v>
+        <v>-155.930883646306</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-153.8300078833464</v>
+        <v>-153.8300171199076</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-151.6923283722371</v>
+        <v>-151.6923390197644</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-149.9105480597693</v>
+        <v>-149.9105594282813</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-148.5105401265845</v>
+        <v>-148.5105485012728</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-147.4495488982669</v>
+        <v>-147.4495539788777</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-146.686275900218</v>
+        <v>-146.6862781878341</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-146.1923464206624</v>
+        <v>-146.1923475788961</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-145.9523593180413</v>
+        <v>-145.9523570419193</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-145.9627096527231</v>
+        <v>-145.9627041410844</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-146.2313325541601</v>
+        <v>-146.2313248975526</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-146.7788053866855</v>
+        <v>-146.7787940839393</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-147.6408080963315</v>
+        <v>-147.6407918070257</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-148.8705734129064</v>
+        <v>-148.8705524520778</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-150.5321822049308</v>
+        <v>-150.5321571505666</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-152.633577359662</v>
+        <v>-152.6335446745667</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-154.7712673356877</v>
+        <v>-154.7712344675731</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-155.3966070201749</v>
+        <v>-155.396600715095</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-153.6669005149779</v>
+        <v>-153.6669173996131</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-151.2486616520801</v>
+        <v>-151.2486822901382</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-149.1495824249807</v>
+        <v>-149.1496005872806</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-147.5156956422665</v>
+        <v>-147.51571058517</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-146.301022248434</v>
+        <v>-146.3010335462223</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-145.4488451411958</v>
+        <v>-145.4488537066802</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-144.9200875726574</v>
+        <v>-144.920093248421</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-144.6943273942613</v>
+        <v>-144.6943299446504</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-144.7679794471883</v>
+        <v>-144.7679791214901</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-145.1540246570671</v>
+        <v>-145.1540219679765</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-145.8840342215531</v>
+        <v>-145.8840290950964</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-147.0120290742066</v>
+        <v>-147.0120198556484</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-148.614384662405</v>
+        <v>-148.6143703838835</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-150.746375345547</v>
+        <v>-150.7463569726743</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-153.1317459658937</v>
+        <v>-153.1317262459355</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-154.169879496546</v>
+        <v>-154.1698814772252</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-152.4445832228502</v>
+        <v>-152.4446014349336</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-149.8385343413239</v>
+        <v>-149.8385543801907</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-147.6164475094948</v>
+        <v>-147.6164612086047</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-145.9325384097169</v>
+        <v>-145.9325486249322</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-144.7218068864238</v>
+        <v>-144.7218134286565</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-143.9171673651311</v>
+        <v>-143.9171704689136</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-143.4767509066443</v>
+        <v>-143.4767516838212</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-143.3829009946996</v>
+        <v>-143.382899032336</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-143.6400919649169</v>
+        <v>-143.6400871647184</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-144.2759308674372</v>
+        <v>-144.2759219440009</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-145.3455524602042</v>
+        <v>-145.3455401895277</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-146.9350708484547</v>
+        <v>-146.9350553150011</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-149.127434136886</v>
+        <v>-149.1274143663226</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-151.6848689203108</v>
+        <v>-151.6848542346121</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-152.8204493813584</v>
+        <v>-152.8204632485639</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-150.8672549510951</v>
+        <v>-150.8672862429427</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-148.0929706295303</v>
+        <v>-148.0929963961102</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-145.8209978127313</v>
+        <v>-145.8210173430449</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-144.1515720041567</v>
+        <v>-144.1515852828065</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-142.996428080822</v>
+        <v>-142.9964371010059</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-142.2824067871427</v>
+        <v>-142.2824121341677</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-141.9695604473418</v>
+        <v>-141.9695628624158</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-142.0477779745645</v>
+        <v>-142.0477766092162</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-142.5354515995356</v>
+        <v>-142.535446634715</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-143.4831874491773</v>
+        <v>-143.4831782462347</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-144.9805960345724</v>
+        <v>-144.9805820120522</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-147.1404762242388</v>
+        <v>-147.1404564362564</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-149.8502203121618</v>
+        <v>-149.8501993142413</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-151.4276504576249</v>
+        <v>-151.4276556611656</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-149.5304917689388</v>
+        <v>-149.530516651285</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-146.565819652292</v>
+        <v>-146.5658439345584</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-144.1686445042505</v>
+        <v>-144.1686626908887</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-142.4433367274038</v>
+        <v>-142.4433494972383</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-141.2818354100171</v>
+        <v>-141.2818437142269</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-140.6020284578607</v>
+        <v>-140.6020335812228</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-140.3633193702652</v>
+        <v>-140.3633209150618</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-140.5616511929108</v>
+        <v>-140.5616499034471</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-141.2292239095397</v>
+        <v>-141.2292184464778</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-142.4414096072936</v>
+        <v>-142.4413997667449</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-144.3232378077934</v>
+        <v>-144.3232230106987</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-146.9668116287872</v>
+        <v>-146.9667929017188</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-149.5796057801909</v>
+        <v>-149.579599209186</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-148.9124896259769</v>
+        <v>-148.9125098877227</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-145.7718327535108</v>
+        <v>-145.771855778715</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-143.0026434597999</v>
+        <v>-143.002660259409</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-141.0037996552381</v>
+        <v>-141.0038109471255</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-139.6552203296154</v>
+        <v>-139.6552277313445</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-138.8495019068412</v>
+        <v>-138.8495056441247</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-138.5316561052294</v>
+        <v>-138.5316560824294</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-138.6923019127596</v>
+        <v>-138.6922988157494</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-139.3662579321522</v>
+        <v>-139.366250587046</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-140.6414358883355</v>
+        <v>-140.6414239915706</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-142.6692709461111</v>
+        <v>-142.6692521889013</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-145.5485017421421</v>
+        <v>-145.5484788524226</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-148.0307041182229</v>
+        <v>-148.0306980694826</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-146.3700563503486</v>
+        <v>-146.3700798196179</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-142.9367955078366</v>
+        <v>-142.9368178791315</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-140.2241567049215</v>
+        <v>-140.2241734680248</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-138.3363993555151</v>
+        <v>-138.3364104383631</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-137.1133430644025</v>
+        <v>-137.1133495192175</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-136.4515690130532</v>
+        <v>-136.4515720167404</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-136.3096373717211</v>
+        <v>-136.3096364418004</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-136.6993656175063</v>
+        <v>-136.6993605257055</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-137.6903322727386</v>
+        <v>-137.6903229518701</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-139.4288391203194</v>
+        <v>-139.4288237745821</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-142.1251684953703</v>
+        <v>-142.1251463756771</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-145.3650581278953</v>
+        <v>-145.3650407313359</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-145.0591329552586</v>
+        <v>-145.0591553127694</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-141.3093406523587</v>
+        <v>-141.3093669421006</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-138.1411656636034</v>
+        <v>-138.1411842360304</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-135.9354027527316</v>
+        <v>-135.9354152548652</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-134.4861465902565</v>
+        <v>-134.4861543393243</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-133.6557159507614</v>
+        <v>-133.6557195701669</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-133.3866783063165</v>
+        <v>-133.3866787020091</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-133.686987172594</v>
+        <v>-133.6869832268345</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-134.6346284478045</v>
+        <v>-134.6346195010609</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-136.4068989325222</v>
+        <v>-136.4068832637153</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-139.2960011721867</v>
+        <v>-139.2959778127946</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-142.834843313834</v>
+        <v>-142.8348274632961</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-141.6315147000595</v>
+        <v>-141.6315431512791</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-137.265755808736</v>
+        <v>-137.265782241738</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-133.9372094046896</v>
+        <v>-133.9372274999625</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-131.6543086637367</v>
+        <v>-131.6543208944811</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-130.1476460679596</v>
+        <v>-130.1476537273707</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-129.2741249735718</v>
+        <v>-129.2741285352205</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-128.9860320827537</v>
+        <v>-128.9860318691742</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-129.3146897837213</v>
+        <v>-129.3146853444773</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-130.3893225479323</v>
+        <v>-130.3893122726343</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-132.5074172064662</v>
+        <v>-132.5073985600956</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-136.1720729898008</v>
+        <v>-136.1720435197957</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-138.8403539165613</v>
+        <v>-138.8403668852866</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-133.7197397724241</v>
+        <v>-133.7197772238252</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-128.8568260725666</v>
+        <v>-128.8568525069116</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-125.4086581823661</v>
+        <v>-125.4086773067983</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-122.8576199495012</v>
+        <v>-122.85763430547</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-120.9111343672224</v>
+        <v>-120.9111454212007</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-119.4128592648967</v>
+        <v>-119.4128676152977</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-118.2733803974986</v>
+        <v>-118.273386664123</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-117.4389528827915</v>
+        <v>-117.4389572676143</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-116.8768625395423</v>
+        <v>-116.8768652461797</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-116.5681733871649</v>
+        <v>-116.5681744965366</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-116.5041046832736</v>
+        <v>-116.504104233796</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-116.6844672729964</v>
+        <v>-116.6844652438319</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-117.1175579480694</v>
+        <v>-117.1175542668455</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-117.8214722296349</v>
+        <v>-117.8214667785218</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-118.8273323818317</v>
+        <v>-118.827324849488</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-120.1858023769912</v>
+        <v>-120.185792493544</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-121.9801990692307</v>
+        <v>-121.9801860704536</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-124.3544409812453</v>
+        <v>-124.3544236606914</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-127.5767389208345</v>
+        <v>-127.576715003005</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-132.1625841789448</v>
+        <v>-132.1625498518514</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-137.9745206600511</v>
+        <v>-137.9744929224225</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-136.602298649707</v>
+        <v>-136.6023276849198</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-132.526330735826</v>
+        <v>-132.5263501218567</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-130.1695967554853</v>
+        <v>-130.1696069555535</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-129.0008149996056</v>
+        <v>-129.0008195336859</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-128.6734003533192</v>
+        <v>-128.673399944136</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-129.0486648321651</v>
+        <v>-129.048660303989</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-130.1112460908542</v>
+        <v>-130.111237169043</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-131.9550181652786</v>
+        <v>-131.9550039130876</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-134.8217397652883</v>
+        <v>-134.8217182586187</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-139.0778784508671</v>
+        <v>-139.077848369951</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-142.7850008614836</v>
+        <v>-142.7849996260621</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-139.7800755383131</v>
+        <v>-139.7801013388073</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-136.2767371240116</v>
+        <v>-136.2767538766601</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-134.1727880062534</v>
+        <v>-134.1727974843413</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-133.1072516930647</v>
+        <v>-133.1072555419627</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-132.8470994382815</v>
+        <v>-132.8470983411223</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-133.3080204982236</v>
+        <v>-133.3080154081088</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-134.5157271392937</v>
+        <v>-134.5157171044044</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-136.6139941060206</v>
+        <v>-136.613978185971</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-139.8905905600655</v>
+        <v>-139.890566294733</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-144.1734612833179</v>
+        <v>-144.1734392693674</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-144.3550885010642</v>
+        <v>-144.3551082852577</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-140.563057359089</v>
+        <v>-140.5630781963685</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-137.8099796558101</v>
+        <v>-137.8099926719623</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-136.2382767712884</v>
+        <v>-136.2382831650756</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-135.566797972709</v>
+        <v>-135.566799935419</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-135.6600385137386</v>
+        <v>-135.6600361765563</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-136.5019148501691</v>
+        <v>-136.5019079631068</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-138.187949614504</v>
+        <v>-138.1879366825013</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-140.9483046117427</v>
+        <v>-140.9482842292283</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-144.9235180692355</v>
+        <v>-144.923494243339</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-146.9845497088852</v>
+        <v>-146.9845597041853</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-143.6333898471624</v>
+        <v>-143.6334120384345</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-140.4930669563632</v>
+        <v>-140.4930809255923</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-138.5941661663619</v>
+        <v>-138.5941737520021</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-137.6686313048649</v>
+        <v>-137.6686341662414</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-137.548936930851</v>
+        <v>-137.5489346353759</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-138.1944980229673</v>
+        <v>-138.1944909157248</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-139.6779134169954</v>
+        <v>-139.6779012031282</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-142.2029058600704</v>
+        <v>-142.2028865107485</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-145.9641902241302</v>
+        <v>-145.9641667564552</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-148.6330110500218</v>
+        <v>-148.6330169285396</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-145.6965690236075</v>
+        <v>-145.6965935349898</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-142.399436431829</v>
+        <v>-142.3994545428961</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-140.3510859913376</v>
+        <v>-140.3510972168126</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-139.3161912508843</v>
+        <v>-139.3161967573718</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-139.1154416169614</v>
+        <v>-139.1154424009156</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-139.7001988447825</v>
+        <v>-139.7001948644267</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-141.1390264092344</v>
+        <v>-141.1390173100042</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-143.6334403476404</v>
+        <v>-143.6334234693721</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-147.3655518153395</v>
+        <v>-147.3655305313452</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-149.9245502067403</v>
+        <v>-149.9245542486172</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-146.9324611055633</v>
+        <v>-146.9324848374583</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-143.6510051614072</v>
+        <v>-143.6510216530703</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-141.6224794980028</v>
+        <v>-141.6224884299135</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-140.6136531000295</v>
+        <v>-140.61365795162</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-140.4516275745671</v>
+        <v>-140.4516278746478</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-141.0960739184925</v>
+        <v>-141.0960701031099</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-142.6289522964938</v>
+        <v>-142.62894388823</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-145.2694680163107</v>
+        <v>-145.2694559639465</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-149.112165544279</v>
+        <v>-149.1121504469293</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-150.8970142981646</v>
+        <v>-150.8970284104192</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-147.4929009996558</v>
+        <v>-147.4929205648718</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-144.3842133511322</v>
+        <v>-144.3842253278569</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-142.5243546318181</v>
+        <v>-142.5243583731958</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-141.6618792098143</v>
+        <v>-141.661878906411</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-141.6473289181855</v>
+        <v>-141.6473246142875</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-142.4645534321211</v>
+        <v>-142.4645438952395</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-144.2268099638172</v>
+        <v>-144.2267925875376</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-147.1837298390617</v>
+        <v>-147.1837053695214</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-151.1138475810232</v>
+        <v>-151.1138252459452</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-151.2607985600318</v>
+        <v>-151.2608188496857</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-147.5317295946596</v>
+        <v>-147.5317501733848</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-144.7556698999785</v>
+        <v>-144.7556824372891</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-143.1838853670209</v>
+        <v>-143.1838905461827</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-142.56891135619</v>
+        <v>-142.5689112931674</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-142.800796163874</v>
+        <v>-142.800790343679</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-143.9031424551418</v>
+        <v>-143.9031318347373</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-146.0399169100344</v>
+        <v>-146.0398972518172</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-149.4709048037087</v>
+        <v>-149.4708699132707</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-152.9402297004952</v>
+        <v>-152.9401984115447</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-150.8463427101746</v>
+        <v>-150.8463543888513</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-147.2436860007069</v>
+        <v>-147.2436969219357</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-144.9285343442426</v>
+        <v>-144.9285407463115</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-143.7314979319857</v>
+        <v>-143.7314997688435</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-143.4475901194004</v>
+        <v>-143.4475879297755</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-144.0200814806199</v>
+        <v>-144.0200727763745</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-145.5292327274096</v>
+        <v>-145.5292169452354</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-148.2075262217577</v>
+        <v>-148.2075001526239</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-152.1332921728106</v>
+        <v>-152.1332573275039</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-153.569050460292</v>
+        <v>-153.5690642788304</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-149.9095121082119</v>
+        <v>-149.9095402670782</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-146.8369583856466</v>
+        <v>-146.8369775133735</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-145.0544228010885</v>
+        <v>-145.0544362498101</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-144.291707209797</v>
+        <v>-144.2917144063549</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-144.4122267276868</v>
+        <v>-144.4122290420456</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-145.4248237044412</v>
+        <v>-145.4248193851577</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-147.4872104406483</v>
+        <v>-147.487201962485</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-150.8810596328101</v>
+        <v>-150.8810408852868</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-154.5418451418625</v>
+        <v>-154.5418403595095</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-152.5799478644786</v>
+        <v>-152.5799675085621</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-148.8656416315503</v>
+        <v>-148.8656598850113</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-146.4857776802375</v>
+        <v>-146.4857893810627</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-145.2623266977846</v>
+        <v>-145.2623330035942</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-144.9791701395325</v>
+        <v>-144.9791727913926</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-145.5794219157743</v>
+        <v>-145.5794204114525</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-147.1531494055656</v>
+        <v>-147.1531440575501</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-149.9550019625353</v>
+        <v>-149.9549927422671</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-154.003887939642</v>
+        <v>-154.003888508394</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-154.8604628894306</v>
+        <v>-154.8605093146717</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-150.9738567771827</v>
+        <v>-150.9738922365733</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-147.9931984441673</v>
+        <v>-147.9932190122094</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-146.315055465666</v>
+        <v>-146.3150694374821</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-145.6583268703833</v>
+        <v>-145.658333947854</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-145.9012848406626</v>
+        <v>-145.9012886221718</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-147.0752058562614</v>
+        <v>-147.0752050254037</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-149.3748519135483</v>
+        <v>-149.3748446522109</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-153.0854978265281</v>
+        <v>-153.0854858522709</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-156.1833971806592</v>
+        <v>-156.1834012095013</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-153.1058167379427</v>
+        <v>-153.1058400224288</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-149.5594941794149</v>
+        <v>-149.5595096105914</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-147.4242015094404</v>
+        <v>-147.4242104741051</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-146.411220307624</v>
+        <v>-146.4112225821638</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-146.3329239575763</v>
+        <v>-146.3329238701327</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-147.1667853005168</v>
+        <v>-147.1667782696239</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-149.0495775660785</v>
+        <v>-149.0495640996682</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-152.2893251776002</v>
+        <v>-152.2893033598598</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-156.3722933019346</v>
+        <v>-156.3722810675935</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-155.1587095381988</v>
+        <v>-155.1587413407595</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-151.1802428370004</v>
+        <v>-151.1802704284873</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-148.5790129457521</v>
+        <v>-148.5790343984933</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-147.2163867501919</v>
+        <v>-147.216403053338</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-146.8390298939418</v>
+        <v>-146.8390414054947</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-147.3720994965677</v>
+        <v>-147.372109201667</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-148.9002170901354</v>
+        <v>-148.9002242286777</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-151.6920751534687</v>
+        <v>-151.692089373008</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-155.8721671904685</v>
+        <v>-155.8722149357087</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-156.9370993393403</v>
+        <v>-156.9371787032022</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-152.861470498208</v>
+        <v>-152.8615083783953</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-149.7821819331542</v>
+        <v>-149.7822014554766</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-148.0657495012147</v>
+        <v>-148.065761391393</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-147.3999351049292</v>
+        <v>-147.3999396101086</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-147.6562270306299</v>
+        <v>-147.6562285838393</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-148.8711867025575</v>
+        <v>-148.8711828608933</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-151.2611179318461</v>
+        <v>-151.2611063816655</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-155.1535015246415</v>
+        <v>-155.1534845570547</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-158.1472605394587</v>
+        <v>-158.1472681112401</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-154.6137686433545</v>
+        <v>-154.6137962521263</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-151.0497716660876</v>
+        <v>-151.049789865618</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-148.9629614251211</v>
+        <v>-148.9629704414236</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-148.0080697813212</v>
+        <v>-148.0080754509129</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-147.9990999962149</v>
+        <v>-147.9990990484857</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-148.9259584297382</v>
+        <v>-148.9259518166006</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-150.9518714889857</v>
+        <v>-150.9518567839808</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-154.4327683137737</v>
+        <v>-154.4327457461091</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-158.5523636105068</v>
+        <v>-158.5523485866038</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-156.4337191406329</v>
+        <v>-156.4337438313673</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-152.4122715469269</v>
+        <v>-152.4122902783091</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-149.9232697642643</v>
+        <v>-149.9232823841778</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-148.6664048259597</v>
+        <v>-148.666408830546</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-148.3922768955636</v>
+        <v>-148.3922755997232</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-149.0427299028984</v>
+        <v>-149.0427233620424</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-150.7293336377807</v>
+        <v>-150.7293173480134</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-153.7714212387519</v>
+        <v>-153.7713885286128</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-158.204040725812</v>
+        <v>-158.203999870595</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-158.249810186944</v>
+        <v>-158.2498476636907</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-153.916631669105</v>
+        <v>-153.9166690445824</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-150.975069657036</v>
+        <v>-150.9750989555023</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-149.388409765388</v>
+        <v>-149.3884255722957</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-148.8375841933729</v>
+        <v>-148.8375944758172</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-149.2116908003093</v>
+        <v>-149.2116952981806</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-150.5711740817808</v>
+        <v>-150.5711691912942</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-153.1757869448716</v>
+        <v>-153.1757663535318</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-157.3855879195273</v>
+        <v>-157.3855587625374</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-159.7957479846601</v>
+        <v>-159.7957970810486</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-155.6265409215948</v>
+        <v>-155.6266164751105</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-152.1637111064402</v>
+        <v>-152.163773207752</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-150.1997605657587</v>
+        <v>-150.1998110090614</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-149.34742279496</v>
+        <v>-149.3474671618852</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-149.4341770552263</v>
+        <v>-149.4342177703918</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-150.467741596692</v>
+        <v>-150.4677782640065</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-152.6412861309191</v>
+        <v>-152.6413180392542</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-156.3686564667366</v>
+        <v>-156.3686699576961</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-160.5129209819999</v>
+        <v>-160.5128775738602</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-157.606355514322</v>
+        <v>-157.6063387759246</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-153.5582412254924</v>
+        <v>-153.5582527173372</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-151.1419595146052</v>
+        <v>-151.1419809515244</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-149.9463759074737</v>
+        <v>-149.9464057338002</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-149.7229202949196</v>
+        <v>-149.7229579565062</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-150.4217254481691</v>
+        <v>-150.4217685909162</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-152.1679560712917</v>
+        <v>-152.1680070752031</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-155.3173495302419</v>
+        <v>-155.3174136631118</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-159.9863507313531</v>
+        <v>-159.9863871720345</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-159.8189656784438</v>
+        <v>-159.818878086755</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-155.2626972294932</v>
+        <v>-155.2626378276474</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-152.2798100826513</v>
+        <v>-152.2797774338191</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-150.6751942556479</v>
+        <v>-150.6751764574256</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-150.1041205202804</v>
+        <v>-150.1041114574233</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-150.4490039310079</v>
+        <v>-150.4490042024904</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-151.7662934877371</v>
+        <v>-151.7663037504187</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-154.3183606083265</v>
+        <v>-154.3183853774977</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-158.5694242165011</v>
+        <v>-158.5694704216014</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-161.6960140375109</v>
+        <v>-161.6960259227418</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-157.4244514023065</v>
+        <v>-157.4244180386709</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-153.7149363293399</v>
+        <v>-153.714908368576</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-151.5978271895307</v>
+        <v>-151.5978084114249</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-150.6210920940023</v>
+        <v>-150.6210772251968</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-150.5803104732819</v>
+        <v>-150.5803032622531</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-151.4595855045302</v>
+        <v>-151.4595846382656</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-153.4237207221205</v>
+        <v>-153.4237308869123</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-156.8941910137236</v>
+        <v>-156.894226699584</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-161.7288614302043</v>
+        <v>-161.7289566763219</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-160.1631142626198</v>
+        <v>-160.1631287045697</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-155.612195838485</v>
+        <v>-155.6121769151624</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-152.8160621144732</v>
+        <v>-152.8160434696314</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-151.3422235039133</v>
+        <v>-151.3422042047937</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-150.8657001954738</v>
+        <v>-150.8656777769981</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-151.2870394006457</v>
+        <v>-151.2870186308091</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-152.6776295054831</v>
+        <v>-152.677607983228</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-155.32349302689</v>
+        <v>-155.3234641645835</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-159.7463030816409</v>
+        <v>-159.7462358294931</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-162.8253156713226</v>
+        <v>-162.8251591680553</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-158.2354695191947</v>
+        <v>-158.2353961852779</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-154.4980829514968</v>
+        <v>-154.4980364842307</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-152.3753525743432</v>
+        <v>-152.3753185017082</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-151.3821130181483</v>
+        <v>-151.3820820386731</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-151.3080006384497</v>
+        <v>-151.3079746260794</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-152.1307945725006</v>
+        <v>-152.1307674279324</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-154.0037653110807</v>
+        <v>-154.0037408231495</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-157.3438382479487</v>
+        <v>-157.3438251962168</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-162.398616809361</v>
+        <v>-162.3986450317908</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-161.804286158173</v>
+        <v>-161.8043286956485</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-156.9399403213876</v>
+        <v>-156.9399406140165</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-153.8995936364582</v>
+        <v>-153.8995826500619</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-152.2498534321032</v>
+        <v>-152.2498380736796</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-151.6113303614837</v>
+        <v>-151.6113146093711</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-151.8517376641611</v>
+        <v>-151.8517159729894</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-153.0074111003949</v>
+        <v>-153.0073903133801</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-155.3082024237112</v>
+        <v>-155.3081776045979</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-159.2895731557717</v>
+        <v>-159.2895348262691</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-164.1020278831302</v>
+        <v>-164.1019979635824</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-160.6377896974362</v>
+        <v>-160.63778556305</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-156.2401441883952</v>
+        <v>-156.2401405729617</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-153.6691512988544</v>
+        <v>-153.6691407402341</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-152.3349109766919</v>
+        <v>-152.3348991229657</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-151.940871828478</v>
+        <v>-151.9408591907961</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-152.4044351309712</v>
+        <v>-152.404419685491</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-153.8039669089506</v>
+        <v>-153.8039477003784</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-156.4323276995047</v>
+        <v>-156.4322971739922</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-160.9056710502949</v>
+        <v>-160.9055870695992</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-164.791470164816</v>
+        <v>-164.7911868839121</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-160.0333872486564</v>
+        <v>-160.0332385015333</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-156.0126973710423</v>
+        <v>-156.0126079275438</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-153.7111507566652</v>
+        <v>-153.7110863639968</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-152.5567581563741</v>
+        <v>-152.5567002656138</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-152.2997564304356</v>
+        <v>-152.2997006366758</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-152.8841932002002</v>
+        <v>-152.8841346098527</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-154.4112335890727</v>
+        <v>-154.4111713727603</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-157.2096397085566</v>
+        <v>-157.209562447603</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-161.9448365616603</v>
+        <v>-161.9447390546942</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-165.2504972133099</v>
+        <v>-165.2504767283588</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-160.0750985446986</v>
+        <v>-160.0751094380138</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-156.1905350536101</v>
+        <v>-156.1905311784519</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-153.9779709701321</v>
+        <v>-153.9779560103896</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-152.8740818094055</v>
+        <v>-152.8740577876586</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-152.6429260686677</v>
+        <v>-152.6429012175822</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-153.2338883845765</v>
+        <v>-153.2338580933197</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-154.7479445631202</v>
+        <v>-154.7479114059232</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-157.5096413103676</v>
+        <v>-157.5096046483643</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-162.2153763575028</v>
+        <v>-162.2153496170391</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-166.0286090643797</v>
+        <v>-166.0286545551896</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-160.8194355846724</v>
+        <v>-160.8194338544768</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-156.7838791510794</v>
+        <v>-156.7838549586945</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-154.4747993817244</v>
+        <v>-154.4747611286779</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-153.2867675714561</v>
+        <v>-153.2867188745441</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-152.9639434711568</v>
+        <v>-152.9638841592704</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-153.4395741821529</v>
+        <v>-153.4395033419534</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-154.7905915217269</v>
+        <v>-154.7904972247318</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-157.2929946607197</v>
+        <v>-157.2928735168608</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-161.6024940811642</v>
+        <v>-161.6023376896375</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-166.8269232268535</v>
+        <v>-166.8270269108851</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-162.4622971242229</v>
+        <v>-162.4625442417837</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-157.908443347042</v>
+        <v>-157.9085762709357</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-155.2769324414165</v>
+        <v>-155.2770155527304</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-153.8507065882416</v>
+        <v>-153.8507640508243</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-153.3095844760792</v>
+        <v>-153.3096288299005</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-153.5469551512504</v>
+        <v>-153.5469894262772</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-154.5950764026305</v>
+        <v>-154.5951058846715</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-156.6484756393395</v>
+        <v>-156.6485006440149</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-160.2102850123112</v>
+        <v>-160.2103374784433</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-165.977565445294</v>
+        <v>-165.9777635283868</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-165.379708079483</v>
+        <v>-165.379892634547</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-159.8658140679517</v>
+        <v>-159.8658587226176</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-156.5713557639763</v>
+        <v>-156.5713681255012</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-154.7030684658108</v>
+        <v>-154.7030645484908</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-153.7970134107937</v>
+        <v>-153.7969949393969</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-153.672671721278</v>
+        <v>-153.6726457006352</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-154.3001171701965</v>
+        <v>-154.3000774656939</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-155.7804293027985</v>
+        <v>-155.7803659217202</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-158.4196011308399</v>
+        <v>-158.4195022997529</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-162.9542898838466</v>
+        <v>-162.9540950385865</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-168.3582197709905</v>
+        <v>-168.357924488786</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-163.3642042175113</v>
+        <v>-163.3642229743185</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-158.7672505653119</v>
+        <v>-158.7672856891269</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-156.1169057198376</v>
+        <v>-156.1169302875553</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-154.6423806053218</v>
+        <v>-154.6423917021896</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-154.0155668916041</v>
+        <v>-154.015571024478</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-154.1182841818952</v>
+        <v>-154.11827668732</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-154.9582296769124</v>
+        <v>-154.9582076282667</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-156.6750351788074</v>
+        <v>-156.6749980814987</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-159.6456224472601</v>
+        <v>-159.6455607658892</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-164.7505545521909</v>
+        <v>-164.7504657682827</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-168.8948414470116</v>
+        <v>-168.8950448672984</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-162.8629740678779</v>
+        <v>-162.8631473155577</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-158.6646079353862</v>
+        <v>-158.6647191622163</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-156.239331888193</v>
+        <v>-156.2394181231543</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-154.8935831457634</v>
+        <v>-154.893657166107</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-154.3432471646423</v>
+        <v>-154.3433092353416</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-154.487792444259</v>
+        <v>-154.4878523391001</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-155.3408120077104</v>
+        <v>-155.3408717092698</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-157.0397414140351</v>
+        <v>-157.0398089675243</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-159.9490786607782</v>
+        <v>-159.9491639231501</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-164.9549537478237</v>
+        <v>-164.9550795657644</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-169.9310701640408</v>
+        <v>-169.9310949524179</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-163.8688741103622</v>
+        <v>-163.8688037191409</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-159.4405948378177</v>
+        <v>-159.4405484704768</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-156.8788290944365</v>
+        <v>-156.8787987496891</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-155.4189524503125</v>
+        <v>-155.4189226969948</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-154.7489409093747</v>
+        <v>-154.7489176303028</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-154.7498562433819</v>
+        <v>-154.7498302039694</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-155.4127044586888</v>
+        <v>-155.4126753910688</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-156.8335413028447</v>
+        <v>-156.8335114589153</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-159.2807399451633</v>
+        <v>-159.2807076601374</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-163.4282603274833</v>
+        <v>-163.4282138504315</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-170.0851237686931</v>
+        <v>-170.085052491535</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-166.9260250587107</v>
+        <v>-166.9260160810397</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-161.3944295857684</v>
+        <v>-161.394421646265</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-158.2276977788667</v>
+        <v>-158.2276811326875</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-156.3659641643117</v>
+        <v>-156.3659456839696</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-155.3624505735386</v>
+        <v>-155.3624314172357</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-155.034897037358</v>
+        <v>-155.0348668516619</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-155.3260671129694</v>
+        <v>-155.3260307060998</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-156.2686041414002</v>
+        <v>-156.2685617263019</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-158.0057914203331</v>
+        <v>-158.0057351449281</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-160.8977555708431</v>
+        <v>-160.8976806883764</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-165.8590286698857</v>
+        <v>-165.858954495623</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-171.9384185626103</v>
+        <v>-171.9386546095604</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-165.7097388498939</v>
+        <v>-165.709910663513</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-160.936024786512</v>
+        <v>-160.9361016942971</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-158.1746134536752</v>
+        <v>-158.1746572814035</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-156.536519682394</v>
+        <v>-156.5365496046521</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-155.6676094173209</v>
+        <v>-155.667628087889</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-155.4213105535515</v>
+        <v>-155.4213154651412</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-155.7546641852632</v>
+        <v>-155.7546608941971</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-156.7037541094772</v>
+        <v>-156.7037405080265</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-158.4054906266786</v>
+        <v>-158.4054671314345</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-161.1959823129951</v>
+        <v>-161.1959397617203</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-165.9375979709758</v>
+        <v>-165.9374758423981</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-172.8976999000125</v>
+        <v>-172.8972688386287</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-167.2056278650405</v>
+        <v>-167.2055480697142</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-162.0333133737424</v>
+        <v>-162.0332920358111</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-159.06424674233</v>
+        <v>-159.0642345367608</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-157.2721971179689</v>
+        <v>-157.2721801558967</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-156.2566137291345</v>
+        <v>-156.2565976264625</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-155.84787338908</v>
+        <v>-155.8478491147645</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-155.9828389585564</v>
+        <v>-155.9828122230669</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-156.6692145338305</v>
+        <v>-156.6691808937004</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-157.9902306882912</v>
+        <v>-157.9901836128736</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-160.1558756563457</v>
+        <v>-160.1558125365395</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-163.6766452317944</v>
+        <v>-163.676549974613</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-169.8934128333963</v>
+        <v>-169.893190760087</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-172.6511150813026</v>
+        <v>-172.6510746129008</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-165.4336551870658</v>
+        <v>-165.4337008838835</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-161.3368065117519</v>
+        <v>-161.33682850946</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-158.8939739862737</v>
+        <v>-158.8939816896259</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-157.4004151940416</v>
+        <v>-157.4004165471645</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-156.5719915127773</v>
+        <v>-156.5719777999782</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-156.2843932951131</v>
+        <v>-156.2843703745456</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-156.4939951657426</v>
+        <v>-156.4939638296374</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-157.2158426286812</v>
+        <v>-157.2158023751345</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-158.531635147845</v>
+        <v>-158.5315770841019</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-160.6373153599464</v>
+        <v>-160.6372191973172</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-163.9990124534989</v>
+        <v>-163.9988696037525</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-169.8896442058201</v>
+        <v>-169.8893829623212</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-174.7870952345061</v>
+        <v>-174.7873939737108</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-167.0652188279352</v>
+        <v>-167.0654576661756</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-162.5996296567137</v>
+        <v>-162.599761325167</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-159.9526620471679</v>
+        <v>-159.9527596304019</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-158.2987149384066</v>
+        <v>-158.2987886681507</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-157.3135603568755</v>
+        <v>-157.313619076171</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-156.8519097938334</v>
+        <v>-156.8519585348523</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-156.8517890575549</v>
+        <v>-156.8518264918724</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-157.3038874739767</v>
+        <v>-157.303919833103</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-158.24781761325</v>
+        <v>-158.24783841831</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-159.7913756194617</v>
+        <v>-159.7913856444163</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-162.1753126782771</v>
+        <v>-162.1753072559858</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-165.9850846614654</v>
+        <v>-165.9850683576733</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-172.8798259336577</v>
+        <v>-172.8798192469587</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-174.3818088091164</v>
+        <v>-174.382064901914</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-166.944351102742</v>
+        <v>-166.9444726675454</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-162.9288688731995</v>
+        <v>-162.9289467661351</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-160.4850781849365</v>
+        <v>-160.4851400570395</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-158.9264546881743</v>
+        <v>-158.9265039471334</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-157.9742036897135</v>
+        <v>-157.9742540183543</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-157.4986241394941</v>
+        <v>-157.498671545906</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-157.440709661042</v>
+        <v>-157.4407565314018</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-157.7854310179245</v>
+        <v>-157.7854758180518</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-158.5560330198057</v>
+        <v>-158.556077249298</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-159.8239871269816</v>
+        <v>-159.8240360439947</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-161.7444005477838</v>
+        <v>-161.7444521871685</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-164.6618142700139</v>
+        <v>-164.6618830469018</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-169.4871269929607</v>
+        <v>-169.4872323930626</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-178.1577120357078</v>
+        <v>-178.1577218892301</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-172.2246495079166</v>
+        <v>-172.2244819239067</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-166.3508296752352</v>
+        <v>-166.350740372283</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-163.052820354322</v>
+        <v>-163.0527664218635</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-160.9634879946144</v>
+        <v>-160.9634396356834</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-159.6038637544946</v>
+        <v>-159.6038185441979</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-158.7645360204693</v>
+        <v>-158.7644936872759</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-158.3428882608129</v>
+        <v>-158.342849603909</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-158.289909856041</v>
+        <v>-158.2898681157915</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-158.5907716727818</v>
+        <v>-158.5907212081344</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-159.2598254906813</v>
+        <v>-159.2597717797934</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-160.3459178497544</v>
+        <v>-160.345855877349</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-161.9523857480351</v>
+        <v>-161.9523096743529</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-164.2921945894532</v>
+        <v>-164.2921010640948</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-167.8593562921395</v>
+        <v>-167.8592233436032</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-174.1168177635708</v>
+        <v>-174.1165942154734</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-180.3598749639191</v>
+        <v>-180.3603414806682</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-171.4584303257901</v>
+        <v>-171.4586537279855</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-166.8192567477574</v>
+        <v>-166.8193708159311</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-164.0811739925947</v>
+        <v>-164.0812432793669</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-162.3216031575275</v>
+        <v>-162.3216447374764</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-161.1950652212172</v>
+        <v>-161.1950962067682</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-160.5468824670366</v>
+        <v>-160.5469003027188</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-160.309656158298</v>
+        <v>-160.3096628685414</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-160.4774065941407</v>
+        <v>-160.4773960793317</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-161.1412053716205</v>
+        <v>-161.1411562556952</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-163.0699613464374</v>
+        <v>-163.0695934187815</v>
       </c>
     </row>
     <row r="702">
